--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="556">
   <si>
     <t>反馈时间</t>
   </si>
@@ -951,6 +951,9 @@
     <t>VS里在{和}旁边按下Ctrl+}会触发作用域跳变</t>
   </si>
   <si>
+    <t>增加Default Lua Extension</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1730,9 +1733,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1790,40 +1793,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1837,13 +1809,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1853,24 +1824,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1897,9 +1853,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1921,7 +1884,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1931,6 +1926,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1943,37 +1946,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1991,7 +1970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,7 +2006,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,19 +2096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,13 +2114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2057,73 +2126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,26 +2140,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2172,6 +2184,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2202,35 +2223,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2242,10 +2245,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2254,133 +2257,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2778,10 +2781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5279,6 +5282,20 @@
         <v>298</v>
       </c>
       <c r="D176" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>295</v>
+      </c>
+      <c r="B177" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177" t="s">
+        <v>299</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5328,84 +5345,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5413,16 +5430,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5430,19 +5447,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5453,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5470,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5487,10 +5504,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5504,10 +5521,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5521,13 +5538,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5538,10 +5555,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5555,13 +5572,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5572,84 +5589,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>329</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" t="s">
         <v>328</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E19" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5660,16 +5677,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5680,16 +5697,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5700,161 +5717,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E27" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
         <v>353</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E28" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E29" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E30" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5865,10 +5882,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5882,10 +5899,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5899,10 +5916,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5916,10 +5933,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5927,36 +5944,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" t="s">
         <v>364</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E36" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5967,10 +5984,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5978,16 +5995,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6001,13 +6018,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E40" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6018,13 +6035,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E41" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6035,13 +6052,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" t="s">
         <v>372</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E42" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6052,13 +6069,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E43" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6069,10 +6086,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6086,13 +6103,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6103,16 +6120,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6123,13 +6140,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6140,10 +6157,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6151,142 +6168,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s">
+        <v>383</v>
+      </c>
+      <c r="C49" t="s">
+        <v>384</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C49" t="s">
-        <v>383</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C50" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B51" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C52" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F52" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C54" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6297,16 +6314,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6317,16 +6334,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6337,16 +6354,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6357,16 +6374,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E59" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6377,16 +6394,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6397,96 +6414,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6497,16 +6514,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6517,16 +6534,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6537,47 +6554,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E69" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6585,16 +6602,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6602,16 +6619,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6619,39 +6636,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C73" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E73" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E74" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F74" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6662,13 +6679,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6679,64 +6696,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E76" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" t="s">
         <v>442</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" t="s">
-        <v>441</v>
-      </c>
       <c r="F77" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E78" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6744,16 +6761,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C80" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6761,73 +6778,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E83" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B84" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C84" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E84" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6838,16 +6855,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F85" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6858,10 +6875,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6869,22 +6886,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6895,16 +6912,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6915,10 +6932,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -6929,13 +6946,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6943,19 +6960,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6966,10 +6983,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -6983,16 +7000,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7003,10 +7020,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7020,10 +7037,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7037,10 +7054,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7048,16 +7065,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B97" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7071,10 +7088,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7085,16 +7102,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7105,13 +7122,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E100" t="s">
         <v>480</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E100" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7122,10 +7139,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7139,10 +7156,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7156,10 +7173,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7173,10 +7190,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7187,13 +7204,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7207,13 +7224,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7224,13 +7241,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E107" t="s">
         <v>489</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E107" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7241,30 +7258,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E108" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E109" t="s">
         <v>493</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E109" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7275,13 +7292,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E110" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7292,10 +7309,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7306,13 +7323,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7326,10 +7343,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7337,16 +7354,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B114" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C114" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7360,10 +7377,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7377,10 +7394,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7391,13 +7408,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C117" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7405,19 +7422,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
+        <v>508</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E118" t="s">
         <v>507</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E118" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7428,13 +7445,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E119" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7445,10 +7462,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7456,19 +7473,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B121" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C121" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E121" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7476,16 +7493,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E122" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7493,16 +7510,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E123" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7510,16 +7527,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E124" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7530,13 +7547,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E125" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7547,13 +7564,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7564,13 +7581,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E127" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7578,13 +7595,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C128" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7598,10 +7615,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7615,10 +7632,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7632,30 +7649,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E131" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E132" t="s">
         <v>525</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E132" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7666,13 +7683,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E133" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7683,44 +7700,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E134" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E135" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B136" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C136" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7734,10 +7751,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7751,13 +7768,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E138" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7768,13 +7785,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E139" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7785,10 +7802,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7802,13 +7819,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E141" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7819,13 +7836,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E142" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7836,13 +7853,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E143" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7853,10 +7870,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7864,36 +7881,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B145" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C145" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E145" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
+        <v>543</v>
+      </c>
+      <c r="B146" t="s">
+        <v>501</v>
+      </c>
+      <c r="C146" t="s">
+        <v>544</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" t="s">
         <v>542</v>
-      </c>
-      <c r="B146" t="s">
-        <v>500</v>
-      </c>
-      <c r="C146" t="s">
-        <v>543</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E146" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7904,13 +7921,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E147" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7921,13 +7938,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
+        <v>547</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E148" t="s">
         <v>546</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E148" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7938,13 +7955,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E149" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7955,13 +7972,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E150" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7972,13 +7989,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E151" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -7989,13 +8006,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E152" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8006,13 +8023,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E153" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8023,13 +8040,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E154" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8040,10 +8057,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8057,10 +8074,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21240" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="559">
   <si>
     <t>反馈时间</t>
   </si>
@@ -954,6 +954,15 @@
     <t>增加Default Lua Extension</t>
   </si>
   <si>
+    <t>选中或查找一个字段后 ,  在侧栏滚动框里 显示所有相同字段提示</t>
+  </si>
+  <si>
+    <t>建议加上ctrl + enter 是往下空一行 ,  ctrl + shift + enter 是往上空一行</t>
+  </si>
+  <si>
+    <t>字体和vscode比貌似有些不够清晰，是否背景色的问题</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1733,9 +1742,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1793,9 +1802,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1809,14 +1824,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,33 +1883,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1883,6 +1906,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1899,41 +1923,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1946,7 +1955,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,7 +1985,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1970,19 +1997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1994,25 +2033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2030,25 +2051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,19 +2069,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2084,49 +2117,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,35 +2149,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2198,6 +2183,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2214,26 +2225,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2245,10 +2254,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2257,133 +2266,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2781,10 +2790,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5296,6 +5305,48 @@
         <v>299</v>
       </c>
       <c r="D177" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>295</v>
+      </c>
+      <c r="B178" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" t="s">
+        <v>300</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>295</v>
+      </c>
+      <c r="B179" t="s">
+        <v>292</v>
+      </c>
+      <c r="C179" t="s">
+        <v>301</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>295</v>
+      </c>
+      <c r="B180" t="s">
+        <v>241</v>
+      </c>
+      <c r="C180" t="s">
+        <v>302</v>
+      </c>
+      <c r="D180" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5345,84 +5396,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5430,16 +5481,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5447,19 +5498,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5470,10 +5521,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5487,10 +5538,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5504,10 +5555,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5521,10 +5572,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5538,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5555,10 +5606,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5572,13 +5623,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5589,84 +5640,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5677,16 +5728,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5697,16 +5748,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5717,161 +5768,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F24" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E26" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E27" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E28" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E29" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E30" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B31" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E31" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5882,10 +5933,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5899,10 +5950,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5916,10 +5967,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5933,10 +5984,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5944,36 +5995,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E36" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E37" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -5984,10 +6035,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -5995,16 +6046,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6018,13 +6069,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E40" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6035,13 +6086,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E41" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6052,13 +6103,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E42" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6069,13 +6120,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E43" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6086,10 +6137,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6103,13 +6154,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E45" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6120,16 +6171,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6140,13 +6191,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
+        <v>383</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E47" t="s">
         <v>380</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E47" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6157,10 +6208,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6168,142 +6219,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C49" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C50" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="F51" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C52" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F52" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C53" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C54" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E55" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F55" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6314,16 +6365,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6334,16 +6385,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6354,16 +6405,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6374,16 +6425,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E59" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F59" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6394,16 +6445,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6414,96 +6465,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E62" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F62" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E63" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E65" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F65" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6514,16 +6565,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6534,16 +6585,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6554,47 +6605,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E69" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6602,16 +6653,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6619,16 +6670,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6636,39 +6687,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C73" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E74" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F74" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6679,13 +6730,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E75" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6696,64 +6747,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E77" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F77" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
+        <v>448</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" t="s">
         <v>445</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6761,16 +6812,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6778,73 +6829,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E81" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E82" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E83" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B84" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C84" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E84" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F84" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6855,16 +6906,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E85" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F85" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6875,10 +6926,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6886,22 +6937,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6912,16 +6963,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6932,10 +6983,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -6946,13 +6997,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -6960,19 +7011,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E91" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -6983,10 +7034,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7000,16 +7051,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7020,10 +7071,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7037,10 +7088,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7054,10 +7105,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7065,16 +7116,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B97" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7088,10 +7139,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7102,16 +7153,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E99" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7122,13 +7173,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7139,10 +7190,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7156,10 +7207,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7173,10 +7224,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7190,10 +7241,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7204,13 +7255,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7224,13 +7275,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E106" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7241,13 +7292,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E107" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7258,30 +7309,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E108" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E109" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7292,13 +7343,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E110" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7309,10 +7360,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7323,13 +7374,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7343,10 +7394,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7354,16 +7405,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B114" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C114" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7377,10 +7428,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7394,10 +7445,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7408,13 +7459,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C117" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7422,19 +7473,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E118" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7445,13 +7496,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E119" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7462,10 +7513,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7473,19 +7524,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B121" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C121" t="s">
+        <v>516</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E121" t="s">
         <v>513</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E121" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7493,16 +7544,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E122" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7510,16 +7561,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E123" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7527,16 +7578,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E124" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7547,13 +7598,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E125" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7564,13 +7615,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E126" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7581,13 +7632,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E127" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7595,13 +7646,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C128" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7615,10 +7666,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7632,10 +7683,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7649,30 +7700,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E131" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E132" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7683,13 +7734,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E133" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7700,44 +7751,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
+        <v>531</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E134" t="s">
         <v>528</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E134" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E135" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B136" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C136" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7751,10 +7802,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7768,13 +7819,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E138" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7785,13 +7836,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E139" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7802,10 +7853,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7819,13 +7870,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E141" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7836,13 +7887,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E142" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7853,13 +7904,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E143" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7870,10 +7921,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7881,36 +7932,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B145" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C145" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E145" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B146" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C146" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E146" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7921,13 +7972,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E147" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7938,13 +7989,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E148" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -7955,13 +8006,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E149" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -7972,13 +8023,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E150" t="s">
         <v>549</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E150" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -7989,13 +8040,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E151" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8006,13 +8057,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E152" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8023,13 +8074,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E153" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8040,13 +8091,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E154" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8057,10 +8108,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8074,10 +8125,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="7590"/>
+    <workbookView windowWidth="19890" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="560">
   <si>
     <t>反馈时间</t>
   </si>
@@ -963,6 +963,9 @@
     <t>字体和vscode比貌似有些不够清晰，是否背景色的问题</t>
   </si>
   <si>
+    <t>标题能控制显示出绝对路径吗,一个项目好几个分支，不好区分</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1741,10 +1744,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1802,43 +1805,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1853,7 +1837,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,9 +1874,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1899,8 +1889,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1916,31 +1936,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1955,13 +1958,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,13 +1982,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,7 +2030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,7 +2048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,7 +2078,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2049,96 +2142,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2149,11 +2152,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2176,8 +2218,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,45 +2249,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2254,10 +2257,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2266,19 +2269,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2287,112 +2290,112 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2790,10 +2793,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182:C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5347,6 +5350,20 @@
         <v>302</v>
       </c>
       <c r="D180" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>295</v>
+      </c>
+      <c r="B181" t="s">
+        <v>249</v>
+      </c>
+      <c r="C181" t="s">
+        <v>303</v>
+      </c>
+      <c r="D181" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5396,84 +5413,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5481,16 +5498,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5498,19 +5515,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5521,10 +5538,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5538,10 +5555,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5555,10 +5572,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5572,10 +5589,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5589,13 +5606,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5606,10 +5623,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5623,13 +5640,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5640,84 +5657,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E19" t="s">
         <v>332</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5728,16 +5745,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5748,16 +5765,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5768,161 +5785,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E27" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>358</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" t="s">
         <v>357</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5933,10 +5950,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5950,10 +5967,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5967,10 +5984,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -5984,10 +6001,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -5995,36 +6012,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
+        <v>369</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" t="s">
         <v>368</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E36" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E37" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6035,10 +6052,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6046,16 +6063,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6069,13 +6086,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6086,13 +6103,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6103,13 +6120,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E42" t="s">
         <v>376</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6120,13 +6137,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E43" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6137,10 +6154,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6154,13 +6171,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E45" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6171,16 +6188,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6191,13 +6208,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6208,10 +6225,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6219,142 +6236,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s">
+        <v>387</v>
+      </c>
+      <c r="C49" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C49" t="s">
-        <v>387</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C51" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F51" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C52" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F52" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C53" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F53" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6365,16 +6382,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6385,16 +6402,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6405,16 +6422,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6425,16 +6442,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6445,16 +6462,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6465,96 +6482,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6565,16 +6582,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6585,16 +6602,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6605,47 +6622,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6653,16 +6670,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6670,16 +6687,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C72" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6687,39 +6704,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B73" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C73" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F74" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6730,13 +6747,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6747,64 +6764,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E76" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" t="s">
         <v>446</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" t="s">
-        <v>445</v>
-      </c>
       <c r="F77" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6812,16 +6829,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6829,73 +6846,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E82" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B84" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C84" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E84" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6906,16 +6923,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F85" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6926,10 +6943,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6937,22 +6954,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6963,16 +6980,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -6983,10 +7000,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -6997,13 +7014,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7011,19 +7028,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E91" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7034,10 +7051,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7051,16 +7068,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7071,10 +7088,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7088,10 +7105,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7105,10 +7122,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7116,16 +7133,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7139,10 +7156,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7153,16 +7170,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E99" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7173,13 +7190,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E100" t="s">
         <v>484</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E100" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7190,10 +7207,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7207,10 +7224,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7224,10 +7241,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7241,10 +7258,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7255,13 +7272,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7275,13 +7292,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E106" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7292,13 +7309,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E107" t="s">
         <v>493</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E107" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7309,30 +7326,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E108" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E109" t="s">
         <v>497</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7343,13 +7360,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E110" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7360,10 +7377,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7374,13 +7391,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7394,10 +7411,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7405,16 +7422,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B114" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C114" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7428,10 +7445,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7445,10 +7462,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7459,13 +7476,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C117" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7473,19 +7490,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
+        <v>512</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E118" t="s">
         <v>511</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E118" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7496,13 +7513,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E119" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7513,10 +7530,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7524,19 +7541,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B121" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C121" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E121" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7544,16 +7561,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E122" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7561,16 +7578,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E123" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7578,16 +7595,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E124" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7598,13 +7615,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7615,13 +7632,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E126" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7632,13 +7649,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7646,13 +7663,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C128" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7666,10 +7683,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7683,10 +7700,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7700,30 +7717,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E131" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E132" t="s">
         <v>529</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E132" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7734,13 +7751,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E133" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7751,44 +7768,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E134" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E135" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B136" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C136" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7802,10 +7819,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7819,13 +7836,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E138" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7836,13 +7853,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E139" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7853,10 +7870,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7870,13 +7887,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E141" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7887,13 +7904,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E142" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7904,13 +7921,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E143" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7921,10 +7938,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7932,36 +7949,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B145" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C145" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E145" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
+        <v>547</v>
+      </c>
+      <c r="B146" t="s">
+        <v>505</v>
+      </c>
+      <c r="C146" t="s">
+        <v>548</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E146" t="s">
         <v>546</v>
-      </c>
-      <c r="B146" t="s">
-        <v>504</v>
-      </c>
-      <c r="C146" t="s">
-        <v>547</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E146" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7972,13 +7989,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E147" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -7989,13 +8006,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
+        <v>551</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E148" t="s">
         <v>550</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E148" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8006,13 +8023,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E149" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8023,13 +8040,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8040,13 +8057,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E151" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8057,13 +8074,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E152" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8074,13 +8091,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E153" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8091,13 +8108,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E154" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8108,10 +8125,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8125,10 +8142,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="563">
   <si>
     <t>反馈时间</t>
   </si>
@@ -964,6 +964,15 @@
   </si>
   <si>
     <t>标题能控制显示出绝对路径吗,一个项目好几个分支，不好区分</t>
+  </si>
+  <si>
+    <t>2019.8.29</t>
+  </si>
+  <si>
+    <t>豫州(705320280)</t>
+  </si>
+  <si>
+    <t>希望提供一个不指定端口号时自动连接当前空闲端口的功能</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1805,9 +1814,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1815,14 +1837,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1843,6 +1858,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1874,8 +1897,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1898,7 +1945,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,44 +1953,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,7 +1967,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1976,25 +2087,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2006,25 +2111,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,25 +2129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,73 +2141,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,21 +2176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2193,9 +2187,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2215,37 +2235,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,10 +2266,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2269,133 +2278,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2793,10 +2802,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182:C182"/>
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5364,6 +5373,20 @@
         <v>303</v>
       </c>
       <c r="D181" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>304</v>
+      </c>
+      <c r="B182" t="s">
+        <v>305</v>
+      </c>
+      <c r="C182" t="s">
+        <v>306</v>
+      </c>
+      <c r="D182" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5413,84 +5436,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5498,16 +5521,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5515,19 +5538,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5538,10 +5561,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5555,10 +5578,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5572,10 +5595,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5589,10 +5612,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5606,13 +5629,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5623,10 +5646,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5640,13 +5663,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5657,84 +5680,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E19" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5745,16 +5768,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5765,16 +5788,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5785,161 +5808,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C24" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E26" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F26" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E29" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E30" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C31" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E31" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5950,10 +5973,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5967,10 +5990,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -5984,10 +6007,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6001,10 +6024,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6012,36 +6035,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E37" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6052,10 +6075,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6063,16 +6086,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6086,13 +6109,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E40" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6103,13 +6126,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E41" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6120,13 +6143,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6137,13 +6160,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6154,10 +6177,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6171,13 +6194,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6188,16 +6211,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6208,13 +6231,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E47" t="s">
         <v>384</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E47" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6225,10 +6248,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6236,142 +6259,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C49" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F49" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F52" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B53" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C53" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C54" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E55" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F55" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6382,16 +6405,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6402,16 +6425,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6422,16 +6445,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6442,16 +6465,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E59" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F59" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6462,16 +6485,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6482,96 +6505,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E63" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F63" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F65" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6582,16 +6605,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6602,16 +6625,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6622,47 +6645,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E69" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6670,16 +6693,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6687,16 +6710,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B72" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C72" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6704,39 +6727,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B73" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C73" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E73" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F74" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6747,13 +6770,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6764,64 +6787,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E76" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E77" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E78" t="s">
         <v>449</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E78" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6829,16 +6852,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C80" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6846,73 +6869,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E81" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E82" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B84" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C84" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E84" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F84" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6923,16 +6946,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E85" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F85" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6943,10 +6966,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6954,22 +6977,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -6980,16 +7003,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7000,10 +7023,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7014,13 +7037,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7028,19 +7051,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E91" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7051,10 +7074,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7068,16 +7091,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7088,10 +7111,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7105,10 +7128,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7122,10 +7145,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7133,16 +7156,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B97" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7156,10 +7179,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7170,16 +7193,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E99" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7190,13 +7213,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E100" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7207,10 +7230,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7224,10 +7247,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7241,10 +7264,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7258,10 +7281,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7272,13 +7295,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7292,13 +7315,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E106" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7309,13 +7332,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E107" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7326,30 +7349,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E108" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E109" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7360,13 +7383,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E110" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7377,10 +7400,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7391,13 +7414,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7411,10 +7434,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7422,16 +7445,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B114" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C114" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7445,10 +7468,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7462,10 +7485,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7476,13 +7499,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C117" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7490,19 +7513,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E118" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7513,13 +7536,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E119" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7530,10 +7553,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7541,19 +7564,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B121" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C121" t="s">
+        <v>520</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E121" t="s">
         <v>517</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E121" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7561,16 +7584,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E122" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7578,16 +7601,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E123" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7595,16 +7618,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E124" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7615,13 +7638,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E125" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7632,13 +7655,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E126" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7649,13 +7672,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E127" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7663,13 +7686,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C128" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7683,10 +7706,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7700,10 +7723,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7717,30 +7740,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E131" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E132" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7751,13 +7774,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E133" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7768,44 +7791,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
+        <v>535</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E134" t="s">
         <v>532</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E134" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E135" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B136" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C136" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7819,10 +7842,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7836,13 +7859,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E138" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7853,13 +7876,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E139" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7870,10 +7893,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7887,13 +7910,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E141" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7904,13 +7927,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E142" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7921,13 +7944,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E143" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7938,10 +7961,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7949,36 +7972,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B145" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C145" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E145" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B146" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C146" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E146" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -7989,13 +8012,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E147" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8006,13 +8029,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E148" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8023,13 +8046,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E149" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8040,13 +8063,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E150" t="s">
         <v>553</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E150" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8057,13 +8080,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E151" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8074,13 +8097,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E152" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8091,13 +8114,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E153" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8108,13 +8131,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E154" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8125,10 +8148,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8142,10 +8165,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="11595"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="571">
   <si>
     <t>反馈时间</t>
   </si>
@@ -951,9 +951,6 @@
     <t>VS里在{和}旁边按下Ctrl+}会触发作用域跳变</t>
   </si>
   <si>
-    <t>增加Default Lua Extension</t>
-  </si>
-  <si>
     <t>选中或查找一个字段后 ,  在侧栏滚动框里 显示所有相同字段提示</t>
   </si>
   <si>
@@ -973,6 +970,33 @@
   </si>
   <si>
     <t>希望提供一个不指定端口号时自动连接当前空闲端口的功能</t>
+  </si>
+  <si>
+    <t>格式化后空行处多出空格/制表出来，行尾的空格/制表也未删除</t>
+  </si>
+  <si>
+    <t>内存快照</t>
+  </si>
+  <si>
+    <t>TreeView改进，增加快捷键和dragdrop</t>
+  </si>
+  <si>
+    <t>LuaDebuggee仍然存在dmp的情况，Unity2017</t>
+  </si>
+  <si>
+    <t>多光标支持</t>
+  </si>
+  <si>
+    <t>ShaopingCui(282744037)</t>
+  </si>
+  <si>
+    <t>优化内存占用</t>
+  </si>
+  <si>
+    <t>soft_koko(301056266)</t>
+  </si>
+  <si>
+    <t>提供LuaLint的功能</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1505,9 +1529,6 @@
     <t>提供Options-Default File Format和Options-Default Line Ending。</t>
   </si>
   <si>
-    <t>ShaopingCui(282744037)</t>
-  </si>
-  <si>
     <t>希望实现vs的Ctrl+Tab，Ctrl+Shift+Tab的效果.</t>
   </si>
   <si>
@@ -1746,6 +1767,9 @@
   </si>
   <si>
     <t>格式化代码后。。\t又回来了</t>
+  </si>
+  <si>
+    <t>增加Default Lua Extension</t>
   </si>
 </sst>
 </file>
@@ -1754,9 +1778,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1815,6 +1839,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1822,7 +1853,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1835,9 +1905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,13 +1927,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1875,9 +1937,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1897,15 +1959,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1913,48 +1966,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1967,31 +1991,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,13 +2021,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,13 +2051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2045,43 +2069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,7 +2093,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2111,43 +2141,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,17 +2185,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2196,11 +2220,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2219,45 +2282,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2266,10 +2290,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2278,133 +2302,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2802,10 +2826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A177" sqref="$A177:$XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5311,7 +5335,7 @@
         <v>295</v>
       </c>
       <c r="B177" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="C177" t="s">
         <v>299</v>
@@ -5339,7 +5363,7 @@
         <v>295</v>
       </c>
       <c r="B179" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="C179" t="s">
         <v>301</v>
@@ -5353,7 +5377,7 @@
         <v>295</v>
       </c>
       <c r="B180" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
         <v>302</v>
@@ -5364,13 +5388,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>304</v>
       </c>
       <c r="C181" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>9</v>
@@ -5378,10 +5402,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B182" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="C182" t="s">
         <v>306</v>
@@ -5389,6 +5413,93 @@
       <c r="D182" s="7" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>303</v>
+      </c>
+      <c r="B183" t="s">
+        <v>241</v>
+      </c>
+      <c r="C183" t="s">
+        <v>307</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>303</v>
+      </c>
+      <c r="B184" t="s">
+        <v>241</v>
+      </c>
+      <c r="C184" t="s">
+        <v>308</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>303</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>303</v>
+      </c>
+      <c r="B186" t="s">
+        <v>203</v>
+      </c>
+      <c r="C186" t="s">
+        <v>310</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>303</v>
+      </c>
+      <c r="B187" t="s">
+        <v>311</v>
+      </c>
+      <c r="C187" t="s">
+        <v>312</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>303</v>
+      </c>
+      <c r="B188" t="s">
+        <v>313</v>
+      </c>
+      <c r="C188" t="s">
+        <v>314</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4">
+      <c r="D189" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5399,10 +5510,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5436,84 +5547,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5521,16 +5632,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5538,19 +5649,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5561,10 +5672,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5578,10 +5689,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5595,10 +5706,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5612,10 +5723,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5629,13 +5740,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5646,10 +5757,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5663,13 +5774,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5680,84 +5791,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F20" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5768,16 +5879,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5788,16 +5899,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5808,161 +5919,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F26" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E27" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E28" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E29" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B31" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C31" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E31" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -5973,10 +6084,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -5990,10 +6101,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6007,10 +6118,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6024,10 +6135,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6035,36 +6146,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E36" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E37" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6075,10 +6186,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6086,16 +6197,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6109,13 +6220,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E40" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6126,13 +6237,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E41" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6143,13 +6254,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E42" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6160,13 +6271,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E43" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6177,10 +6288,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6194,13 +6305,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E45" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6211,16 +6322,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6231,13 +6342,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E47" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6248,10 +6359,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6259,142 +6370,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C49" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F49" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C50" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C51" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F51" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C52" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="F53" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B54" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E55" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6405,16 +6516,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6425,16 +6536,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6445,16 +6556,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6465,16 +6576,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E59" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="F59" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6485,16 +6596,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6505,96 +6616,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E62" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F62" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E63" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E65" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F65" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6605,16 +6716,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6625,16 +6736,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6645,47 +6756,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E69" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6693,16 +6804,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6710,16 +6821,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B72" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C72" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6727,39 +6838,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="C73" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E73" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E74" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="F74" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6770,13 +6881,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E75" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6787,64 +6898,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E77" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="F77" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E78" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6852,16 +6963,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C80" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6869,73 +6980,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E81" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E82" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E83" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B84" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C84" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E84" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F84" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6946,16 +7057,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E85" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F85" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -6966,10 +7077,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -6977,22 +7088,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7003,16 +7114,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7023,10 +7134,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7037,13 +7148,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7051,19 +7162,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E91" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7074,10 +7185,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7091,16 +7202,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7111,10 +7222,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7128,10 +7239,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7145,10 +7256,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7156,16 +7267,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B97" t="s">
-        <v>482</v>
+        <v>311</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7179,10 +7290,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7193,16 +7304,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E99" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7213,13 +7324,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E100" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7230,10 +7341,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7247,10 +7358,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7264,10 +7375,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7281,10 +7392,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7295,13 +7406,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7315,13 +7426,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E106" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7332,13 +7443,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E107" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7349,30 +7460,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E108" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E109" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7383,13 +7494,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E110" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7400,10 +7511,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7414,13 +7525,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7434,10 +7545,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7445,16 +7556,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B114" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C114" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7468,10 +7579,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7485,10 +7596,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7499,13 +7610,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C117" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7513,19 +7624,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E118" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7536,13 +7647,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E119" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7553,10 +7664,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7564,19 +7675,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B121" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C121" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E121" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7584,16 +7695,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E122" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7601,16 +7712,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E123" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7618,16 +7729,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C124" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E124" t="s">
         <v>524</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E124" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7638,13 +7749,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E125" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7655,13 +7766,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E126" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7672,13 +7783,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E127" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7686,13 +7797,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C128" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7706,10 +7817,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7723,10 +7834,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7740,30 +7851,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E131" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E132" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7774,13 +7885,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E133" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7791,44 +7902,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E134" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E135" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B136" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C136" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7842,10 +7953,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7859,13 +7970,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E138" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7876,13 +7987,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E139" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7893,10 +8004,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -7910,13 +8021,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E141" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7927,13 +8038,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E142" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7944,13 +8055,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E143" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -7961,10 +8072,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -7972,36 +8083,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B145" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C145" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="E145" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B146" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C146" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E146" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8012,13 +8123,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E147" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8029,13 +8140,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E148" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8046,13 +8157,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E149" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8063,13 +8174,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E150" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8080,13 +8191,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E151" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8097,13 +8208,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E152" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8114,13 +8225,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E153" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8131,13 +8242,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E154" t="s">
         <v>560</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E154" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8148,10 +8259,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8165,13 +8276,30 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" t="s">
+        <v>570</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E157" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="573">
   <si>
     <t>反馈时间</t>
   </si>
@@ -981,6 +981,9 @@
     <t>TreeView改进，增加快捷键和dragdrop</t>
   </si>
   <si>
+    <t>2019.8.30</t>
+  </si>
+  <si>
     <t>LuaDebuggee仍然存在dmp的情况，Unity2017</t>
   </si>
   <si>
@@ -997,6 +1000,9 @@
   </si>
   <si>
     <t>提供LuaLint的功能</t>
+  </si>
+  <si>
+    <t>修改something happened的表述</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1777,10 +1783,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1838,6 +1844,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1859,17 +1904,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,45 +1919,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1944,16 +1952,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1968,17 +1975,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1991,19 +1997,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,25 +2009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2045,25 +2027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2075,7 +2039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,7 +2057,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,73 +2177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,6 +2188,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2204,7 +2234,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2235,24 +2265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2268,17 +2280,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2290,10 +2296,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2302,133 +2308,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2829,7 +2835,7 @@
   <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A177" sqref="$A177:$XFD177"/>
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5444,13 +5450,13 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>9</v>
@@ -5464,7 +5470,7 @@
         <v>203</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>9</v>
@@ -5475,10 +5481,10 @@
         <v>303</v>
       </c>
       <c r="B187" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C187" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>9</v>
@@ -5489,17 +5495,28 @@
         <v>303</v>
       </c>
       <c r="B188" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="4:4">
-      <c r="D189" s="7"/>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>309</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>316</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5547,84 +5564,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5632,16 +5649,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5649,19 +5666,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5672,10 +5689,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5689,10 +5706,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5706,10 +5723,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5723,10 +5740,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5740,13 +5757,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5757,10 +5774,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5774,13 +5791,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5791,84 +5808,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5879,16 +5896,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5899,16 +5916,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5919,161 +5936,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F24" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E26" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F26" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E28" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" t="s">
         <v>370</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E29" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E30" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B31" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C31" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6084,10 +6101,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6101,10 +6118,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6118,10 +6135,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6135,10 +6152,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6146,36 +6163,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E36" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
+        <v>383</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E37" t="s">
         <v>381</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E37" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6186,10 +6203,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6197,16 +6214,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6220,13 +6237,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6237,13 +6254,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E41" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6254,13 +6271,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6271,13 +6288,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E43" t="s">
         <v>389</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E43" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6288,10 +6305,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6305,13 +6322,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E45" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6322,16 +6339,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6342,13 +6359,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E47" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6359,10 +6376,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6370,142 +6387,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="F49" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C50" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B51" t="s">
+        <v>404</v>
+      </c>
+      <c r="C51" t="s">
+        <v>408</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C51" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C52" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C53" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F53" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F55" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6516,16 +6533,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6536,16 +6553,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6556,16 +6573,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6576,16 +6593,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E59" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F59" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6596,16 +6613,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6616,96 +6633,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E62" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E63" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F63" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E65" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F65" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6716,16 +6733,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6736,16 +6753,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6756,47 +6773,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E69" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6804,16 +6821,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6821,16 +6838,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B72" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C72" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6838,39 +6855,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B73" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C73" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E73" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E74" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F74" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6881,13 +6898,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6898,64 +6915,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E76" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E77" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F77" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E78" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6963,16 +6980,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C80" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6980,73 +6997,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E81" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E82" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E83" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B84" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C84" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E84" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F84" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -7057,16 +7074,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E85" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F85" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7077,10 +7094,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7088,22 +7105,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7114,16 +7131,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7134,10 +7151,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7148,13 +7165,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7162,19 +7179,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E91" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7185,10 +7202,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7202,16 +7219,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7222,10 +7239,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7239,10 +7256,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7256,10 +7273,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7267,16 +7284,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B97" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7290,10 +7307,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7304,16 +7321,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E99" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7324,13 +7341,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E100" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7341,10 +7358,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7358,10 +7375,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7375,10 +7392,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7392,10 +7409,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7406,13 +7423,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7426,13 +7443,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E106" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7443,13 +7460,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E107" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7460,30 +7477,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E108" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E109" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7494,13 +7511,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
+        <v>511</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" t="s">
         <v>509</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E110" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7511,10 +7528,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7525,13 +7542,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7545,10 +7562,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7556,16 +7573,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B114" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C114" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7579,10 +7596,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7596,10 +7613,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7610,13 +7627,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C117" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7624,19 +7641,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E118" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7647,13 +7664,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E119" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7664,10 +7681,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7675,19 +7692,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B121" t="s">
+        <v>528</v>
+      </c>
+      <c r="C121" t="s">
+        <v>529</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E121" t="s">
         <v>526</v>
-      </c>
-      <c r="C121" t="s">
-        <v>527</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E121" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7695,16 +7712,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
+        <v>528</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E122" t="s">
         <v>526</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E122" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7712,16 +7729,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E123" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7729,16 +7746,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
+        <v>528</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E124" t="s">
         <v>526</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E124" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7749,13 +7766,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E125" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7766,13 +7783,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E126" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7783,13 +7800,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E127" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7797,13 +7814,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C128" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7817,10 +7834,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7834,10 +7851,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7851,30 +7868,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E131" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E132" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7885,13 +7902,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E133" t="s">
         <v>541</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E133" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7902,44 +7919,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E134" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E135" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B136" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C136" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7953,10 +7970,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7970,13 +7987,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E138" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7987,13 +8004,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E139" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -8004,10 +8021,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -8021,13 +8038,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E141" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -8038,13 +8055,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E142" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -8055,13 +8072,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E143" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -8072,10 +8089,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -8083,36 +8100,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B145" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C145" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E145" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B146" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C146" t="s">
+        <v>560</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E146" t="s">
         <v>558</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E146" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8123,13 +8140,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E147" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8140,13 +8157,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E148" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8157,13 +8174,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
+        <v>564</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E149" t="s">
         <v>562</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E149" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8174,13 +8191,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E150" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8191,13 +8208,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E151" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8208,13 +8225,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E152" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8225,13 +8242,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E153" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8242,13 +8259,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E154" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8259,10 +8276,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8276,10 +8293,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>
@@ -8293,10 +8310,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E157" t="s">
         <v>295</v>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="574">
   <si>
     <t>反馈时间</t>
   </si>
@@ -987,6 +987,9 @@
     <t>LuaDebuggee仍然存在dmp的情况，Unity2017</t>
   </si>
   <si>
+    <t>确认部分是用的旧的dll导致，继续观察</t>
+  </si>
+  <si>
     <t>多光标支持</t>
   </si>
   <si>
@@ -1783,10 +1786,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1844,25 +1847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1884,7 +1870,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,8 +1890,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1913,6 +1900,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1935,32 +1930,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1975,14 +1946,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1997,7 +2000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,7 +2012,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2021,7 +2072,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2033,13 +2102,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2051,49 +2138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,55 +2156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2171,13 +2174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,6 +2198,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2233,34 +2262,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2283,8 +2286,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2296,10 +2299,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2308,133 +2311,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2835,7 +2838,7 @@
   <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5448,7 +5451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>309</v>
       </c>
@@ -5460,6 +5463,9 @@
       </c>
       <c r="D185" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5470,7 +5476,7 @@
         <v>203</v>
       </c>
       <c r="C186" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>9</v>
@@ -5481,10 +5487,10 @@
         <v>303</v>
       </c>
       <c r="B187" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>9</v>
@@ -5495,10 +5501,10 @@
         <v>303</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C188" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>9</v>
@@ -5512,7 +5518,7 @@
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>9</v>
@@ -5564,84 +5570,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5649,16 +5655,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5666,19 +5672,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5689,10 +5695,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5706,10 +5712,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5723,10 +5729,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5740,10 +5746,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5757,13 +5763,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5774,10 +5780,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5791,13 +5797,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5808,84 +5814,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" t="s">
         <v>346</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5896,16 +5902,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5916,16 +5922,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5936,161 +5942,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>372</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" t="s">
         <v>371</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E29" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E30" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6101,10 +6107,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6118,10 +6124,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6135,10 +6141,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6152,10 +6158,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6163,36 +6169,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" t="s">
         <v>382</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E36" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E37" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6203,10 +6209,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6214,16 +6220,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6237,13 +6243,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6254,13 +6260,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E41" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6271,13 +6277,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" t="s">
         <v>390</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E42" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6288,13 +6294,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E43" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6305,10 +6311,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6322,13 +6328,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E45" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6339,16 +6345,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6359,13 +6365,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E47" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6376,10 +6382,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6387,142 +6393,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C49" t="s">
-        <v>401</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="F49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C50" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C51" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C53" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F53" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F55" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6533,16 +6539,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6553,16 +6559,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6573,16 +6579,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6593,16 +6599,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E59" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F59" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6613,16 +6619,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6633,96 +6639,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E63" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6733,16 +6739,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6753,16 +6759,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6773,47 +6779,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6821,16 +6827,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6838,16 +6844,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C72" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6855,39 +6861,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B73" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C73" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E73" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E74" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F74" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6898,13 +6904,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6915,64 +6921,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
+        <v>461</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E77" t="s">
         <v>460</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" t="s">
-        <v>459</v>
-      </c>
       <c r="F77" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E78" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6980,16 +6986,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C80" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6997,73 +7003,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E81" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E82" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E83" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B84" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C84" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -7074,16 +7080,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7094,10 +7100,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7105,22 +7111,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7131,16 +7137,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7151,10 +7157,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7165,13 +7171,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7179,19 +7185,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7202,10 +7208,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7219,16 +7225,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7239,10 +7245,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7256,10 +7262,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7273,10 +7279,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7284,16 +7290,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7307,10 +7313,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7321,16 +7327,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E99" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7341,13 +7347,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E100" t="s">
         <v>497</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E100" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7358,10 +7364,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7375,10 +7381,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7392,10 +7398,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7409,10 +7415,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7423,13 +7429,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7443,13 +7449,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E106" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7460,13 +7466,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E107" t="s">
         <v>506</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E107" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7477,30 +7483,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E108" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E109" t="s">
         <v>510</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E109" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7511,13 +7517,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E110" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7528,10 +7534,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7542,13 +7548,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7562,10 +7568,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7573,16 +7579,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B114" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C114" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7596,10 +7602,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7613,10 +7619,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7627,13 +7633,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C117" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7641,19 +7647,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
+        <v>525</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E118" t="s">
         <v>524</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E118" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7664,13 +7670,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E119" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7681,10 +7687,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7692,19 +7698,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B121" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C121" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E121" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7712,16 +7718,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E122" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7729,16 +7735,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E123" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7746,16 +7752,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E124" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7766,13 +7772,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E125" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7783,13 +7789,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E126" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7800,13 +7806,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E127" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7814,13 +7820,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C128" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7834,10 +7840,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E129" t="s">
         <v>263</v>
@@ -7851,10 +7857,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E130" t="s">
         <v>263</v>
@@ -7868,30 +7874,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E131" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E132" t="s">
         <v>542</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E132" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7902,13 +7908,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E133" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7919,44 +7925,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E134" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E135" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B136" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C136" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E136" t="s">
         <v>266</v>
@@ -7970,10 +7976,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E137" t="s">
         <v>266</v>
@@ -7987,13 +7993,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E138" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -8004,13 +8010,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E139" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -8021,10 +8027,10 @@
         <v>259</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E140" t="s">
         <v>266</v>
@@ -8038,13 +8044,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E141" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -8055,13 +8061,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E142" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -8072,13 +8078,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E143" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -8089,10 +8095,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E144" t="s">
         <v>266</v>
@@ -8100,36 +8106,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B145" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C145" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E145" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
+        <v>560</v>
+      </c>
+      <c r="B146" t="s">
+        <v>518</v>
+      </c>
+      <c r="C146" t="s">
+        <v>561</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" t="s">
         <v>559</v>
-      </c>
-      <c r="B146" t="s">
-        <v>517</v>
-      </c>
-      <c r="C146" t="s">
-        <v>560</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E146" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8140,13 +8146,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E147" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8157,13 +8163,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
+        <v>564</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E148" t="s">
         <v>563</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E148" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8174,13 +8180,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E149" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8191,13 +8197,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E150" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8208,13 +8214,13 @@
         <v>289</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E151" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8225,13 +8231,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E152" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8242,13 +8248,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E153" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8259,13 +8265,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E154" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8276,10 +8282,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E155" t="s">
         <v>286</v>
@@ -8293,10 +8299,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E156" t="s">
         <v>286</v>
@@ -8310,10 +8316,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E157" t="s">
         <v>295</v>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="576">
   <si>
     <t>反馈时间</t>
   </si>
@@ -813,9 +813,6 @@
     <t>希望支持UnLua</t>
   </si>
   <si>
-    <t>希望支持正则表达式</t>
-  </si>
-  <si>
     <t>2019.8.15</t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>未测试到</t>
   </si>
   <si>
-    <t>不同目录下的同名文件其中一个无法断点</t>
-  </si>
-  <si>
     <t>Go To Line时输入就应该可以跳转，为什么要按OK/Enter才能跳转</t>
   </si>
   <si>
@@ -960,9 +954,6 @@
     <t>字体和vscode比貌似有些不够清晰，是否背景色的问题</t>
   </si>
   <si>
-    <t>标题能控制显示出绝对路径吗,一个项目好几个分支，不好区分</t>
-  </si>
-  <si>
     <t>2019.8.29</t>
   </si>
   <si>
@@ -981,15 +972,6 @@
     <t>TreeView改进，增加快捷键和dragdrop</t>
   </si>
   <si>
-    <t>2019.8.30</t>
-  </si>
-  <si>
-    <t>LuaDebuggee仍然存在dmp的情况，Unity2017</t>
-  </si>
-  <si>
-    <t>确认部分是用的旧的dll导致，继续观察</t>
-  </si>
-  <si>
     <t>多光标支持</t>
   </si>
   <si>
@@ -1003,9 +985,6 @@
   </si>
   <si>
     <t>提供LuaLint的功能</t>
-  </si>
-  <si>
-    <t>修改something happened的表述</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1779,6 +1758,33 @@
   </si>
   <si>
     <t>增加Default Lua Extension</t>
+  </si>
+  <si>
+    <t>2019.8.30</t>
+  </si>
+  <si>
+    <t>LuaDebuggee仍然存在dmp的情况，Unity2017</t>
+  </si>
+  <si>
+    <t>2019.8.31</t>
+  </si>
+  <si>
+    <t>确认部分是用的旧的dll导致，继续观察</t>
+  </si>
+  <si>
+    <t>标题能控制显示出绝对路径吗,一个项目好几个分支，不好区分</t>
+  </si>
+  <si>
+    <t>2019.9.1</t>
+  </si>
+  <si>
+    <t>希望支持正则表达式</t>
+  </si>
+  <si>
+    <t>修改something happened的表述</t>
+  </si>
+  <si>
+    <t>不同目录下的同名文件其中一个无法断点</t>
   </si>
 </sst>
 </file>
@@ -1786,10 +1792,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1848,14 +1854,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1863,21 +1869,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1898,16 +1897,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1938,7 +1959,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1947,6 +1968,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1967,29 +1996,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2000,7 +2006,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2012,31 +2036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,13 +2060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2072,19 +2084,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,19 +2138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,37 +2162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,19 +2180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,6 +2210,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2220,26 +2241,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2255,15 +2259,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2291,6 +2286,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2299,10 +2305,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2311,133 +2317,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2835,10 +2841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4851,10 +4857,10 @@
         <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>253</v>
+        <v>221</v>
+      </c>
+      <c r="C142" t="s">
+        <v>252</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
@@ -4862,13 +4868,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="C143" t="s">
+        <v>255</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
@@ -4876,13 +4882,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>221</v>
-      </c>
-      <c r="C144" t="s">
-        <v>252</v>
+        <v>256</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
@@ -4890,13 +4896,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C145" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>9</v>
@@ -4904,13 +4910,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>258</v>
+        <v>224</v>
+      </c>
+      <c r="C146" t="s">
+        <v>260</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
@@ -4918,13 +4924,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B147" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
@@ -4932,13 +4938,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
@@ -4946,13 +4952,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
-      </c>
-      <c r="C149" t="s">
-        <v>262</v>
+        <v>203</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>9</v>
@@ -4960,13 +4966,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="C150" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>9</v>
@@ -4974,13 +4980,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>203</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>265</v>
+        <v>218</v>
+      </c>
+      <c r="C151" t="s">
+        <v>267</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
@@ -4988,13 +4994,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>64</v>
-      </c>
-      <c r="C152" t="s">
-        <v>267</v>
+        <v>154</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>9</v>
@@ -5002,13 +5008,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="B153" t="s">
         <v>218</v>
       </c>
       <c r="C153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>9</v>
@@ -5016,13 +5022,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>269</v>
+        <v>218</v>
+      </c>
+      <c r="C154" t="s">
+        <v>270</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>9</v>
@@ -5030,13 +5036,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C155" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>9</v>
@@ -5044,13 +5050,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B156" t="s">
-        <v>218</v>
-      </c>
-      <c r="C156" t="s">
-        <v>271</v>
+        <v>203</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
@@ -5058,10 +5064,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>272</v>
-      </c>
-      <c r="B157" t="s">
-        <v>221</v>
+        <v>271</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="C157" t="s">
         <v>273</v>
@@ -5072,13 +5078,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B158" t="s">
-        <v>203</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="C158" t="s">
+        <v>274</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>9</v>
@@ -5086,13 +5092,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>272</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C159" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="B159" t="s">
+        <v>241</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>9</v>
@@ -5100,13 +5106,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B160" t="s">
         <v>241</v>
       </c>
       <c r="C160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>9</v>
@@ -5114,13 +5120,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
         <v>241</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>276</v>
+      <c r="C161" t="s">
+        <v>277</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>9</v>
@@ -5128,13 +5134,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B162" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>9</v>
@@ -5142,72 +5148,72 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B163" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C163" t="s">
+        <v>280</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
         <v>278</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>279</v>
       </c>
       <c r="B164" t="s">
         <v>80</v>
       </c>
-      <c r="C164" t="s">
-        <v>280</v>
+      <c r="C164" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B165" t="s">
         <v>80</v>
       </c>
       <c r="C165" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>80</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+      <c r="C166" t="s">
+        <v>286</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E166" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>80</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
+      </c>
+      <c r="C167" t="s">
+        <v>288</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>9</v>
@@ -5215,13 +5221,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>279</v>
-      </c>
-      <c r="B168" t="s">
-        <v>80</v>
+        <v>284</v>
+      </c>
+      <c r="B168" s="14">
+        <v>843157705</v>
       </c>
       <c r="C168" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>9</v>
@@ -5229,13 +5235,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B169" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C169" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>9</v>
@@ -5243,13 +5249,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B170" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>9</v>
@@ -5257,13 +5263,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>286</v>
-      </c>
-      <c r="B171" s="14">
-        <v>843157705</v>
+        <v>293</v>
+      </c>
+      <c r="B171" t="s">
+        <v>203</v>
       </c>
       <c r="C171" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>9</v>
@@ -5271,13 +5277,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B172" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>9</v>
@@ -5285,13 +5291,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="C173" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>9</v>
@@ -5299,13 +5305,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B174" t="s">
-        <v>203</v>
+        <v>290</v>
       </c>
       <c r="C174" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>9</v>
@@ -5313,13 +5319,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B175" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="C175" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>9</v>
@@ -5327,13 +5333,13 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B176" t="s">
         <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>9</v>
@@ -5341,13 +5347,13 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B177" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C177" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>9</v>
@@ -5355,13 +5361,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B178" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="C178" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>9</v>
@@ -5369,13 +5375,13 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B179" t="s">
         <v>241</v>
       </c>
       <c r="C179" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>9</v>
@@ -5383,13 +5389,13 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C180" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>9</v>
@@ -5397,13 +5403,13 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B181" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="C181" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>9</v>
@@ -5411,13 +5417,13 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B182" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="C182" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>9</v>
@@ -5425,102 +5431,15 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B183" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="C183" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
-        <v>303</v>
-      </c>
-      <c r="B184" t="s">
-        <v>241</v>
-      </c>
-      <c r="C184" t="s">
-        <v>308</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>309</v>
-      </c>
-      <c r="B185" t="s">
-        <v>11</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E185" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
-        <v>303</v>
-      </c>
-      <c r="B186" t="s">
-        <v>203</v>
-      </c>
-      <c r="C186" t="s">
-        <v>312</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
-        <v>303</v>
-      </c>
-      <c r="B187" t="s">
-        <v>313</v>
-      </c>
-      <c r="C187" t="s">
-        <v>314</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
-        <v>303</v>
-      </c>
-      <c r="B188" t="s">
-        <v>315</v>
-      </c>
-      <c r="C188" t="s">
-        <v>316</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
-        <v>309</v>
-      </c>
-      <c r="B189" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" t="s">
-        <v>317</v>
-      </c>
-      <c r="D189" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5533,10 +5452,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5570,84 +5489,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5655,16 +5574,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5672,19 +5591,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5695,10 +5614,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5712,10 +5631,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5729,10 +5648,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5746,10 +5665,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5763,13 +5682,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5780,10 +5699,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5797,13 +5716,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5814,84 +5733,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F20" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5902,16 +5821,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5922,16 +5841,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5942,161 +5861,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E26" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E27" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E28" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E29" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E30" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6107,10 +6026,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6124,10 +6043,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6141,10 +6060,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6158,10 +6077,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6169,36 +6088,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E36" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E37" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6209,10 +6128,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6220,16 +6139,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6243,13 +6162,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E40" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6260,13 +6179,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E41" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6277,13 +6196,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6294,13 +6213,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E43" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6311,10 +6230,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6328,13 +6247,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E45" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6345,16 +6264,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6365,13 +6284,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E47" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6382,10 +6301,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6393,142 +6312,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C49" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B50" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B50" t="s">
-        <v>405</v>
-      </c>
-      <c r="C50" t="s">
-        <v>406</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C51" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F51" t="s">
         <v>403</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F51" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F52" t="s">
         <v>405</v>
-      </c>
-      <c r="C52" t="s">
-        <v>411</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F52" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C53" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E55" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6539,16 +6458,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6559,16 +6478,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6579,16 +6498,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6599,16 +6518,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E59" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F59" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6619,16 +6538,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6639,96 +6558,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E62" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E63" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F63" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E65" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F65" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6739,16 +6658,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6759,16 +6678,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6779,47 +6698,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E69" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6827,16 +6746,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6844,16 +6763,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B72" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C72" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6861,39 +6780,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C73" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E73" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E74" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F74" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6904,13 +6823,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E75" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6921,64 +6840,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E76" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E77" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F77" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E78" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6986,16 +6905,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C80" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -7003,73 +6922,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E81" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E82" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E83" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B84" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C84" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E84" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F84" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -7080,16 +6999,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E85" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F85" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7100,10 +7019,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7111,22 +7030,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7137,16 +7056,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7157,10 +7076,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7171,13 +7090,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7185,19 +7104,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E91" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7208,10 +7127,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7225,16 +7144,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7245,10 +7164,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7262,10 +7181,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7279,10 +7198,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7290,16 +7209,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7313,10 +7232,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7327,16 +7246,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E99" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7347,13 +7266,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E100" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7364,10 +7283,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7381,10 +7300,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7398,10 +7317,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7415,10 +7334,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7429,13 +7348,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7449,13 +7368,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E106" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7466,13 +7385,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E107" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7483,30 +7402,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E108" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E109" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7517,13 +7436,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E110" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7534,10 +7453,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7548,13 +7467,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7568,10 +7487,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7579,16 +7498,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B114" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C114" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7602,10 +7521,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7619,10 +7538,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7633,13 +7552,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C117" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7647,19 +7566,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E118" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7670,13 +7589,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7687,10 +7606,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7698,19 +7617,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B121" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C121" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E121" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7718,16 +7637,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E122" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7735,16 +7654,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E123" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7752,16 +7671,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E124" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7772,13 +7691,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E125" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7789,13 +7708,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E126" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7806,13 +7725,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E127" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7820,13 +7739,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C128" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7834,19 +7753,19 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -7857,13 +7776,13 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:5">
@@ -7874,30 +7793,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E131" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E132" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7908,13 +7827,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E133" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7925,47 +7844,47 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E134" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E135" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B136" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C136" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E136" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -7976,13 +7895,13 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -7993,149 +7912,149 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E138" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B139" t="s">
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E139" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B141" t="s">
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E141" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B142" t="s">
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E142" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E143" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B144" t="s">
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B145" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C145" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E145" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B146" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C146" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E146" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8146,47 +8065,47 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E147" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B148" t="s">
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E148" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B149" t="s">
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E149" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8197,64 +8116,64 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E150" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E151" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B152" t="s">
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E152" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E153" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8265,64 +8184,169 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E154" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E155" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B156" t="s">
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E156" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B157" t="s">
         <v>64</v>
       </c>
       <c r="C157" t="s">
+        <v>566</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E157" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>567</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E158" t="s">
+        <v>569</v>
+      </c>
+      <c r="F158" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" customFormat="1" spans="1:5">
+      <c r="A159" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" t="s">
+        <v>249</v>
+      </c>
+      <c r="C159" t="s">
+        <v>571</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E159" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>251</v>
+      </c>
+      <c r="B160" t="s">
+        <v>51</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D157" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E157" t="s">
-        <v>295</v>
+      <c r="D160" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E160" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>251</v>
+      </c>
+      <c r="B161" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E161" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>567</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>574</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E162" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>278</v>
+      </c>
+      <c r="B163" t="s">
+        <v>80</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E163" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="19650" windowHeight="11010"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="619">
   <si>
     <t>反馈时间</t>
   </si>
@@ -987,6 +987,138 @@
     <t>提供LuaLint的功能</t>
   </si>
   <si>
+    <t>2019.9.1</t>
+  </si>
+  <si>
+    <t>正则表达式辅助创建UI</t>
+  </si>
+  <si>
+    <t>2019.9.2</t>
+  </si>
+  <si>
+    <t>官方网站申请下恢复访问</t>
+  </si>
+  <si>
+    <t>白客(1003781706)</t>
+  </si>
+  <si>
+    <t>更换自定义字体的功能</t>
+  </si>
+  <si>
+    <t>2019.9.3</t>
+  </si>
+  <si>
+    <t>Options &gt; Lua Extensions操作不方便，建议整合配置界面</t>
+  </si>
+  <si>
+    <t>标签可以支持中键点击关闭么</t>
+  </si>
+  <si>
+    <t>跳转判断了类型和名字，没判断函数参数个数</t>
+  </si>
+  <si>
+    <t>将文件夹下面的代码，统一执行一次格式化的功能</t>
+  </si>
+  <si>
+    <t>写个完整的指引文档</t>
+  </si>
+  <si>
+    <t>LP挂在后台没注意，第二天运行工程一跑到某个地方就卡死，后来怀疑人生的半天发现是LP给打断点了</t>
+  </si>
+  <si>
+    <t>StartDebug()后面加一个打印确认执行成功的，要么加入PasteDebug()要么写入文档</t>
+  </si>
+  <si>
+    <t>lp在做变量watch的时候，会触发一些错误，因为我们修改_G的__index行为，全局变量必须先set了，才能get</t>
+  </si>
+  <si>
+    <t>goto如果带行号，可以自动跳转到对应行</t>
+  </si>
+  <si>
+    <t>eagle(593129057)</t>
+  </si>
+  <si>
+    <t>每次启动Unity，IDE就未响应了</t>
+  </si>
+  <si>
+    <t>据说是Unity持续打开很久之后会这样</t>
+  </si>
+  <si>
+    <t>Mr.菟(178833259)</t>
+  </si>
+  <si>
+    <t>基类的方法不能自动补全，self不提示基类的符号</t>
+  </si>
+  <si>
+    <t>shift  + tab和shift + ctrl + f在Win10默认输入法下无效</t>
+  </si>
+  <si>
+    <t>成都-大红花(1101677597)</t>
+  </si>
+  <si>
+    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！还有好多self内部无法跳转的情况</t>
+  </si>
+  <si>
+    <t>我用的module（）这种关键字，代码跳转，引用还有待提高。</t>
+  </si>
+  <si>
+    <t>1564179138(1564179138)</t>
+  </si>
+  <si>
+    <t>手册上说明要print=_saved_print，现在已经不需要了，要同步文档</t>
+  </si>
+  <si>
+    <t>print时Unity里会输出一长串源代码，然后才输出要输出的内容</t>
+  </si>
+  <si>
+    <t>2019.9.4</t>
+  </si>
+  <si>
+    <t>王炜(315135974)</t>
+  </si>
+  <si>
+    <t>SLua项目会提示SLua名称空间不可用</t>
+  </si>
+  <si>
+    <t>wyh(383133507)</t>
+  </si>
+  <si>
+    <t>启动就会挂掉，会提示保存了dmp，tolua1.0.5，dmp已接收</t>
+  </si>
+  <si>
+    <t>ののGGyyたた(86466243)</t>
+  </si>
+  <si>
+    <t>package.cpath = package.cpath .. ";Assets/Externals/LuaPerfect/?.dll"   debug的dll的位置可以自己指定，这个可以写到文档里面</t>
+  </si>
+  <si>
+    <t>启动就会挂掉，会提示保存了dmp，dmp已接收</t>
+  </si>
+  <si>
+    <t>这个then之后回车end，这个end能自动缩进回去么</t>
+  </si>
+  <si>
+    <t>当所有自上一次保存之后的修改都被撤销之后，这个星号可以自动消失么</t>
+  </si>
+  <si>
+    <t>生姜(289609362)</t>
+  </si>
+  <si>
+    <t>能单独打开一个文本文件吗，作为一个普通的文本编辑器使用</t>
+  </si>
+  <si>
+    <t>无法正常自动更新，能访问更新的机器的网站，LP无法访问更新</t>
+  </si>
+  <si>
+    <t>晓刚(68002759)</t>
+  </si>
+  <si>
+    <t>有计划开源吗？</t>
+  </si>
+  <si>
+    <t>编辑区突然不见了，点击文件也打不开，关了重启出来了</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -1773,9 +1905,6 @@
   </si>
   <si>
     <t>标题能控制显示出绝对路径吗,一个项目好几个分支，不好区分</t>
-  </si>
-  <si>
-    <t>2019.9.1</t>
   </si>
   <si>
     <t>希望支持正则表达式</t>
@@ -1792,9 +1921,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -1853,15 +1982,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1869,7 +2022,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1883,39 +2036,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1928,7 +2065,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1951,36 +2088,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1996,6 +2103,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2006,7 +2135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,7 +2165,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,49 +2213,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,25 +2237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,31 +2255,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,31 +2309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,30 +2326,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2241,24 +2346,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2281,19 +2373,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2305,10 +2434,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2317,133 +2446,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2841,10 +2970,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5443,6 +5572,471 @@
         <v>9</v>
       </c>
     </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>311</v>
+      </c>
+      <c r="B184" t="s">
+        <v>51</v>
+      </c>
+      <c r="C184" t="s">
+        <v>312</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" t="s">
+        <v>197</v>
+      </c>
+      <c r="C186" t="s">
+        <v>314</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>313</v>
+      </c>
+      <c r="B187" t="s">
+        <v>315</v>
+      </c>
+      <c r="C187" t="s">
+        <v>316</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>317</v>
+      </c>
+      <c r="B188" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" t="s">
+        <v>318</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>317</v>
+      </c>
+      <c r="B189" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>317</v>
+      </c>
+      <c r="B190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" t="s">
+        <v>320</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>317</v>
+      </c>
+      <c r="B191" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>317</v>
+      </c>
+      <c r="B192" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>317</v>
+      </c>
+      <c r="B193" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" t="s">
+        <v>323</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>317</v>
+      </c>
+      <c r="B194" t="s">
+        <v>63</v>
+      </c>
+      <c r="C194" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>317</v>
+      </c>
+      <c r="B195" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" t="s">
+        <v>325</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>317</v>
+      </c>
+      <c r="B196" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" t="s">
+        <v>326</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>317</v>
+      </c>
+      <c r="B197" t="s">
+        <v>327</v>
+      </c>
+      <c r="C197" t="s">
+        <v>324</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>317</v>
+      </c>
+      <c r="B198" t="s">
+        <v>327</v>
+      </c>
+      <c r="C198" t="s">
+        <v>328</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>317</v>
+      </c>
+      <c r="B199" t="s">
+        <v>330</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>317</v>
+      </c>
+      <c r="B200" t="s">
+        <v>63</v>
+      </c>
+      <c r="C200" t="s">
+        <v>332</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>317</v>
+      </c>
+      <c r="B201" t="s">
+        <v>333</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>317</v>
+      </c>
+      <c r="B202" t="s">
+        <v>333</v>
+      </c>
+      <c r="C202" t="s">
+        <v>335</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>317</v>
+      </c>
+      <c r="B203" t="s">
+        <v>336</v>
+      </c>
+      <c r="C203" t="s">
+        <v>337</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" t="s">
+        <v>336</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>317</v>
+      </c>
+      <c r="B205" t="s">
+        <v>327</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>339</v>
+      </c>
+      <c r="B206" t="s">
+        <v>340</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>339</v>
+      </c>
+      <c r="B207" t="s">
+        <v>342</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>339</v>
+      </c>
+      <c r="B208" t="s">
+        <v>344</v>
+      </c>
+      <c r="C208" t="s">
+        <v>324</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>339</v>
+      </c>
+      <c r="B209" t="s">
+        <v>63</v>
+      </c>
+      <c r="C209" t="s">
+        <v>345</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>339</v>
+      </c>
+      <c r="B210" t="s">
+        <v>340</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>339</v>
+      </c>
+      <c r="B211" t="s">
+        <v>63</v>
+      </c>
+      <c r="C211" t="s">
+        <v>347</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>339</v>
+      </c>
+      <c r="B212" t="s">
+        <v>63</v>
+      </c>
+      <c r="C212" t="s">
+        <v>348</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>339</v>
+      </c>
+      <c r="B213" t="s">
+        <v>349</v>
+      </c>
+      <c r="C213" t="s">
+        <v>350</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>339</v>
+      </c>
+      <c r="B214" t="s">
+        <v>290</v>
+      </c>
+      <c r="C214" t="s">
+        <v>351</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215" t="s">
+        <v>352</v>
+      </c>
+      <c r="C215" t="s">
+        <v>353</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>339</v>
+      </c>
+      <c r="B216" t="s">
+        <v>340</v>
+      </c>
+      <c r="C216" t="s">
+        <v>354</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5454,8 +6048,8 @@
   <sheetPr/>
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5489,84 +6083,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -5574,16 +6168,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -5591,19 +6185,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -5614,10 +6208,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -5631,10 +6225,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -5648,10 +6242,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -5665,10 +6259,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -5682,13 +6276,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -5699,10 +6293,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -5716,13 +6310,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -5733,84 +6327,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E19" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="F20" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -5821,16 +6415,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -5841,16 +6435,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -5861,161 +6455,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="C24" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E28" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E30" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="C31" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6026,10 +6620,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6043,10 +6637,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6060,10 +6654,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6077,10 +6671,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6088,36 +6682,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E36" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E37" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6128,10 +6722,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6139,16 +6733,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6162,13 +6756,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6179,13 +6773,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E41" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6196,13 +6790,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6213,13 +6807,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E43" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6230,10 +6824,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6247,13 +6841,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6264,16 +6858,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6284,13 +6878,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E47" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6301,10 +6895,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6312,142 +6906,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B49" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="C49" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="F49" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="C50" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="C51" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B52" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="C53" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="F53" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="C54" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E55" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -6458,16 +7052,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -6478,16 +7072,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -6498,16 +7092,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -6518,16 +7112,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E59" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="F59" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -6538,16 +7132,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -6558,96 +7152,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E62" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="F62" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E63" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="F63" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E65" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -6658,16 +7252,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -6678,16 +7272,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -6698,47 +7292,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
+        <v>484</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="E69" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -6746,16 +7340,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -6763,16 +7357,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="C72" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -6780,39 +7374,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="C73" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E73" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E74" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="F74" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -6823,13 +7417,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E75" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -6840,64 +7434,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="E76" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E77" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="F77" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E78" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -6905,16 +7499,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>458</v>
+        <v>502</v>
       </c>
       <c r="C80" t="s">
-        <v>459</v>
+        <v>503</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -6922,73 +7516,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E81" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>461</v>
+        <v>505</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E82" t="s">
-        <v>462</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>463</v>
+        <v>507</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E83" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
       <c r="C84" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="F84" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -6999,16 +7593,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E85" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="F85" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7019,10 +7613,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7030,22 +7624,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7056,16 +7650,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7076,10 +7670,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7090,13 +7684,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7104,19 +7698,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E91" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7127,10 +7721,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7144,16 +7738,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7164,10 +7758,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7181,10 +7775,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7198,10 +7792,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7209,16 +7803,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="B97" t="s">
         <v>307</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7232,10 +7826,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7246,16 +7840,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7266,13 +7860,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E100" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7283,10 +7877,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7300,10 +7894,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7317,10 +7911,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7334,10 +7928,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7348,13 +7942,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7368,13 +7962,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E106" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7385,13 +7979,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E107" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7402,30 +7996,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>501</v>
+        <v>545</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E108" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>504</v>
+        <v>548</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E109" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -7436,13 +8030,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E110" t="s">
-        <v>503</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -7453,10 +8047,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -7467,13 +8061,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>507</v>
+        <v>551</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>508</v>
+        <v>552</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -7487,10 +8081,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>509</v>
+        <v>553</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -7498,16 +8092,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C114" t="s">
-        <v>512</v>
+        <v>556</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -7521,10 +8115,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -7538,10 +8132,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -7552,13 +8146,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>515</v>
+        <v>559</v>
       </c>
       <c r="C117" t="s">
-        <v>516</v>
+        <v>560</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -7566,19 +8160,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E118" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7589,13 +8183,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E119" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -7606,10 +8200,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>521</v>
+        <v>565</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -7617,19 +8211,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="B121" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="C121" t="s">
-        <v>523</v>
+        <v>567</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E121" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -7637,16 +8231,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>524</v>
+        <v>568</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E122" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7654,16 +8248,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>526</v>
+        <v>570</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E123" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -7671,16 +8265,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>522</v>
+        <v>566</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>527</v>
+        <v>571</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E124" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -7691,13 +8285,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E125" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -7708,13 +8302,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E126" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -7725,13 +8319,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>528</v>
+        <v>572</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E127" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -7739,13 +8333,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C128" t="s">
-        <v>531</v>
+        <v>575</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -7759,10 +8353,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E129" t="s">
         <v>262</v>
@@ -7776,10 +8370,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E130" t="s">
         <v>262</v>
@@ -7793,30 +8387,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>534</v>
+        <v>578</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E131" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E132" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -7827,13 +8421,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E133" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -7844,44 +8438,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>538</v>
+        <v>582</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E134" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>539</v>
+        <v>583</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>540</v>
+        <v>584</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E135" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="B136" t="s">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="C136" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E136" t="s">
         <v>265</v>
@@ -7895,10 +8489,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E137" t="s">
         <v>265</v>
@@ -7912,13 +8506,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E138" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -7929,13 +8523,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E139" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -7946,10 +8540,10 @@
         <v>258</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E140" t="s">
         <v>265</v>
@@ -7963,13 +8557,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E141" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -7980,13 +8574,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E142" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -7997,13 +8591,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E143" t="s">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -8014,10 +8608,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E144" t="s">
         <v>265</v>
@@ -8025,36 +8619,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="B145" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C145" t="s">
-        <v>550</v>
+        <v>594</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
       <c r="E145" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>553</v>
+        <v>597</v>
       </c>
       <c r="B146" t="s">
-        <v>511</v>
+        <v>555</v>
       </c>
       <c r="C146" t="s">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E146" t="s">
-        <v>552</v>
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8065,13 +8659,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E147" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8082,13 +8676,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>557</v>
+        <v>601</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E148" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8099,13 +8693,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>558</v>
+        <v>602</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E149" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8116,13 +8710,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>559</v>
+        <v>603</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E150" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8133,13 +8727,13 @@
         <v>287</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>560</v>
+        <v>604</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E151" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8150,13 +8744,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>561</v>
+        <v>605</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E152" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8167,13 +8761,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>562</v>
+        <v>606</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E153" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8184,13 +8778,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>563</v>
+        <v>607</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E154" t="s">
-        <v>556</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8201,10 +8795,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>564</v>
+        <v>608</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E155" t="s">
         <v>284</v>
@@ -8218,10 +8812,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E156" t="s">
         <v>284</v>
@@ -8235,10 +8829,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>566</v>
+        <v>610</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E157" t="s">
         <v>293</v>
@@ -8246,22 +8840,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>568</v>
+        <v>612</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E158" t="s">
-        <v>569</v>
+        <v>613</v>
       </c>
       <c r="F158" t="s">
-        <v>570</v>
+        <v>614</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -8272,13 +8866,13 @@
         <v>249</v>
       </c>
       <c r="C159" t="s">
-        <v>571</v>
+        <v>615</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E159" t="s">
-        <v>572</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -8289,13 +8883,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E160" t="s">
-        <v>572</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -8306,30 +8900,30 @@
         <v>208</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>573</v>
+        <v>616</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E161" t="s">
-        <v>572</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>567</v>
+        <v>611</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E162" t="s">
-        <v>572</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -8340,13 +8934,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="E163" t="s">
-        <v>572</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="11010"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="647">
   <si>
     <t>反馈时间</t>
   </si>
@@ -1068,9 +1068,6 @@
     <t>手册上说明要print=_saved_print，现在已经不需要了，要同步文档</t>
   </si>
   <si>
-    <t>print时Unity里会输出一长串源代码，然后才输出要输出的内容</t>
-  </si>
-  <si>
     <t>2019.9.4</t>
   </si>
   <si>
@@ -1086,6 +1083,9 @@
     <t>启动就会挂掉，会提示保存了dmp，tolua1.0.5，dmp已接收</t>
   </si>
   <si>
+    <t>已查看dmp，dump在kernel里，堆栈已无效</t>
+  </si>
+  <si>
     <t>ののGGyyたた(86466243)</t>
   </si>
   <si>
@@ -1095,6 +1095,9 @@
     <t>启动就会挂掉，会提示保存了dmp，dmp已接收</t>
   </si>
   <si>
+    <t>已查看dmp，dump在mono里，堆栈已无效</t>
+  </si>
+  <si>
     <t>这个then之后回车end，这个end能自动缩进回去么</t>
   </si>
   <si>
@@ -1117,6 +1120,81 @@
   </si>
   <si>
     <t>编辑区突然不见了，点击文件也打不开，关了重启出来了</t>
+  </si>
+  <si>
+    <t>vs的快捷键和鼠标键的forward和backward规则会不一样</t>
+  </si>
+  <si>
+    <t>清雨慢思茶(88018806)</t>
+  </si>
+  <si>
+    <t>鼠标滚轮点击标签直接关闭</t>
+  </si>
+  <si>
+    <t>Stubborn-杨(1564741942)</t>
+  </si>
+  <si>
+    <t>同时有同名的.lua和.lua.bytes时，自动忽略不是文本的那个</t>
+  </si>
+  <si>
+    <t>2019.9.5</t>
+  </si>
+  <si>
+    <t>酒弎(447011583)</t>
+  </si>
+  <si>
+    <t>可以点击unity里的lua脚本直接弹出来这个脚本就好了</t>
+  </si>
+  <si>
+    <t>整理Unity里点击直接弹出lua脚本的功能的文档</t>
+  </si>
+  <si>
+    <t>全局搜索界面搜到的窗口希望可以折叠</t>
+  </si>
+  <si>
+    <t>快乐工作，快乐生活</t>
+  </si>
+  <si>
+    <t>这个工具能运行普通的lua文件，不和框架绑定吗</t>
+  </si>
+  <si>
+    <t>有时突然不能ctrl-z了</t>
+  </si>
+  <si>
+    <t>怀疑与同时使用其他编辑器有关?</t>
+  </si>
+  <si>
+    <t>有时格式化后ctrl z无效</t>
+  </si>
+  <si>
+    <t>843157705(843157705)</t>
+  </si>
+  <si>
+    <t>ctr+R重命名后按回车有时候会无效（只支持局部变量和全局变量）</t>
+  </si>
+  <si>
+    <t>提供一个调试前脚本</t>
+  </si>
+  <si>
+    <t>能提供GeneralTest的源码吗</t>
+  </si>
+  <si>
+    <t>用了LP，Tim貌似经常自动切换到忙碌</t>
+  </si>
+  <si>
+    <t>watch能做个排序么，最好也能在顶部有一个count</t>
+  </si>
+  <si>
+    <t>LuaDebuggee挂掉了，dmp没成功保存</t>
+  </si>
+  <si>
+    <t>2019.9.6</t>
+  </si>
+  <si>
+    <t>Skip Synchronizing Code始终仍会重新部署dll</t>
+  </si>
+  <si>
+    <t>有没有办法实现立即窗口的功能</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1914,6 +1992,12 @@
   </si>
   <si>
     <t>不同目录下的同名文件其中一个无法断点</t>
+  </si>
+  <si>
+    <t>print时Unity里会输出一长串源代码，然后才输出要输出的内容</t>
+  </si>
+  <si>
+    <t>ObjectFormater.cs中obj没有判断空</t>
   </si>
 </sst>
 </file>
@@ -1923,8 +2007,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1982,47 +2066,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2037,28 +2082,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2088,6 +2111,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2105,24 +2195,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2135,19 +2219,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,31 +2309,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2201,121 +2399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,65 +2410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2412,6 +2437,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2434,10 +2518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2446,133 +2530,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2970,10 +3054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5857,41 +5941,44 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="B204" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C204" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
         <v>338</v>
       </c>
-      <c r="D204" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" t="s">
-        <v>317</v>
-      </c>
       <c r="B205" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B206" t="s">
-        <v>340</v>
-      </c>
-      <c r="C206" s="8" t="s">
-        <v>341</v>
+        <v>344</v>
+      </c>
+      <c r="C206" t="s">
+        <v>324</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>9</v>
@@ -5899,41 +5986,44 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
+        <v>338</v>
+      </c>
+      <c r="B207" t="s">
+        <v>63</v>
+      </c>
+      <c r="C207" t="s">
+        <v>345</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>338</v>
+      </c>
+      <c r="B208" t="s">
         <v>339</v>
       </c>
-      <c r="B207" t="s">
-        <v>342</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" t="s">
-        <v>339</v>
-      </c>
-      <c r="B208" t="s">
-        <v>344</v>
-      </c>
-      <c r="C208" t="s">
-        <v>324</v>
+      <c r="C208" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B209" t="s">
         <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>9</v>
@@ -5941,13 +6031,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B210" t="s">
-        <v>340</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>346</v>
+        <v>63</v>
+      </c>
+      <c r="C210" t="s">
+        <v>349</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>9</v>
@@ -5955,13 +6045,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>350</v>
       </c>
       <c r="C211" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>9</v>
@@ -5969,13 +6059,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B212" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="C212" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>9</v>
@@ -5983,13 +6073,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B213" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C213" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>9</v>
@@ -5997,13 +6087,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
+        <v>338</v>
+      </c>
+      <c r="B214" t="s">
         <v>339</v>
       </c>
-      <c r="B214" t="s">
-        <v>290</v>
-      </c>
       <c r="C214" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>9</v>
@@ -6011,13 +6101,13 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B215" t="s">
-        <v>352</v>
+        <v>63</v>
       </c>
       <c r="C215" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>9</v>
@@ -6025,15 +6115,231 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B216" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D216" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>338</v>
+      </c>
+      <c r="B217" t="s">
+        <v>359</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>361</v>
+      </c>
+      <c r="B218" t="s">
+        <v>362</v>
+      </c>
+      <c r="C218" t="s">
+        <v>363</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>361</v>
+      </c>
+      <c r="B219" t="s">
+        <v>362</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>361</v>
+      </c>
+      <c r="B220" t="s">
+        <v>362</v>
+      </c>
+      <c r="C220" t="s">
+        <v>365</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>361</v>
+      </c>
+      <c r="B221" t="s">
+        <v>366</v>
+      </c>
+      <c r="C221" t="s">
+        <v>367</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>361</v>
+      </c>
+      <c r="B222" t="s">
+        <v>362</v>
+      </c>
+      <c r="C222" t="s">
+        <v>368</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>361</v>
+      </c>
+      <c r="B223" t="s">
+        <v>315</v>
+      </c>
+      <c r="C223" t="s">
+        <v>370</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>361</v>
+      </c>
+      <c r="B224" t="s">
+        <v>371</v>
+      </c>
+      <c r="C224" t="s">
+        <v>372</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>361</v>
+      </c>
+      <c r="B225" t="s">
+        <v>203</v>
+      </c>
+      <c r="C225" t="s">
+        <v>373</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>361</v>
+      </c>
+      <c r="B226" t="s">
+        <v>366</v>
+      </c>
+      <c r="C226" t="s">
+        <v>374</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>361</v>
+      </c>
+      <c r="B227" t="s">
+        <v>63</v>
+      </c>
+      <c r="C227" t="s">
+        <v>375</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>361</v>
+      </c>
+      <c r="B228" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>361</v>
+      </c>
+      <c r="B229" t="s">
+        <v>63</v>
+      </c>
+      <c r="C229" t="s">
+        <v>377</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>378</v>
+      </c>
+      <c r="B230" t="s">
+        <v>63</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>338</v>
+      </c>
+      <c r="B231" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" t="s">
+        <v>380</v>
+      </c>
+      <c r="D231" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6046,10 +6352,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6083,84 +6389,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -6168,16 +6474,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -6185,19 +6491,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -6208,10 +6514,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -6225,10 +6531,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -6242,10 +6548,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -6259,10 +6565,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -6276,13 +6582,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -6293,10 +6599,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -6310,13 +6616,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -6327,84 +6633,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E19" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="F20" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -6415,16 +6721,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -6435,16 +6741,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -6455,161 +6761,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="C24" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="F24" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E26" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F26" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E27" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E28" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E29" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E30" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B31" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C31" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E31" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6620,10 +6926,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6637,10 +6943,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6654,10 +6960,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6671,10 +6977,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6682,36 +6988,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E36" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E37" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6722,10 +7028,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6733,16 +7039,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -6756,13 +7062,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E40" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -6773,13 +7079,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E41" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -6790,13 +7096,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E42" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -6807,13 +7113,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E43" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -6824,10 +7130,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -6841,13 +7147,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E45" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -6858,16 +7164,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -6878,13 +7184,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E47" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -6895,10 +7201,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -6906,142 +7212,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C49" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B50" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B51" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C51" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F51" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B52" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C52" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="F52" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="F53" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E55" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="F55" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7052,16 +7358,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -7072,16 +7378,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -7092,16 +7398,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -7112,16 +7418,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E59" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="F59" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -7132,16 +7438,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
+        <v>492</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -7152,96 +7458,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E62" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F62" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E63" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F63" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E65" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F65" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -7252,16 +7558,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -7272,16 +7578,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -7292,47 +7598,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E69" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -7340,16 +7646,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -7357,16 +7663,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="C72" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -7374,39 +7680,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="B73" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="C73" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E73" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E74" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="F74" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -7417,13 +7723,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E75" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -7434,64 +7740,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="E76" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E77" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="F77" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E78" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -7499,16 +7805,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="C80" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -7516,73 +7822,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E81" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E82" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E83" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="C84" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E84" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="F84" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -7593,16 +7899,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E85" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F85" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7613,10 +7919,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7624,22 +7930,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7650,16 +7956,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7670,10 +7976,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7684,13 +7990,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7698,19 +8004,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E91" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7721,10 +8027,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7738,16 +8044,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -7758,10 +8064,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -7775,10 +8081,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -7792,10 +8098,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -7803,16 +8109,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B97" t="s">
         <v>307</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -7826,10 +8132,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -7840,16 +8146,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E99" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -7860,13 +8166,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E100" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -7877,10 +8183,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -7894,10 +8200,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -7911,10 +8217,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -7928,10 +8234,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -7942,13 +8248,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -7962,13 +8268,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E106" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -7979,13 +8285,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E107" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -7996,30 +8302,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E108" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E109" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8030,13 +8336,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E110" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8047,10 +8353,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -8061,13 +8367,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -8081,10 +8387,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -8092,16 +8398,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="B114" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C114" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -8115,10 +8421,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -8132,10 +8438,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -8146,13 +8452,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="C117" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -8160,19 +8466,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E118" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8183,13 +8489,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E119" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8200,10 +8506,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -8211,19 +8517,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="B121" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="C121" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E121" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8231,16 +8537,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E122" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8248,16 +8554,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E123" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8265,16 +8571,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E124" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8285,13 +8591,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -8302,13 +8608,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E126" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8319,13 +8625,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E127" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -8333,13 +8639,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="C128" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -8353,10 +8659,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E129" t="s">
         <v>262</v>
@@ -8370,10 +8676,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E130" t="s">
         <v>262</v>
@@ -8387,30 +8693,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E131" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E132" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8421,13 +8727,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E133" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -8438,44 +8744,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E134" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="B136" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="C136" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E136" t="s">
         <v>265</v>
@@ -8489,10 +8795,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E137" t="s">
         <v>265</v>
@@ -8506,13 +8812,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E138" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -8523,13 +8829,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E139" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -8540,10 +8846,10 @@
         <v>258</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E140" t="s">
         <v>265</v>
@@ -8557,13 +8863,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E141" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -8574,13 +8880,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E142" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -8591,13 +8897,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E143" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -8608,10 +8914,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E144" t="s">
         <v>265</v>
@@ -8619,36 +8925,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C145" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="E145" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="B146" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C146" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E146" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8659,13 +8965,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E147" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8676,13 +8982,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E148" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8693,13 +8999,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E149" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8710,13 +9016,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E150" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8727,13 +9033,13 @@
         <v>287</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E151" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8744,13 +9050,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E152" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -8761,13 +9067,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E153" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -8778,13 +9084,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E154" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -8795,10 +9101,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E155" t="s">
         <v>284</v>
@@ -8812,10 +9118,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E156" t="s">
         <v>284</v>
@@ -8829,10 +9135,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E157" t="s">
         <v>293</v>
@@ -8840,22 +9146,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E158" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="F158" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -8866,10 +9172,10 @@
         <v>249</v>
       </c>
       <c r="C159" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E159" t="s">
         <v>311</v>
@@ -8883,10 +9189,10 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E160" t="s">
         <v>311</v>
@@ -8900,10 +9206,10 @@
         <v>208</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E161" t="s">
         <v>311</v>
@@ -8911,16 +9217,16 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E162" t="s">
         <v>311</v>
@@ -8934,13 +9240,61 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="E163" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>317</v>
+      </c>
+      <c r="B164" t="s">
+        <v>336</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E164" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" t="s">
+        <v>327</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E165" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="654">
   <si>
     <t>反馈时间</t>
   </si>
@@ -987,12 +987,6 @@
     <t>提供LuaLint的功能</t>
   </si>
   <si>
-    <t>2019.9.1</t>
-  </si>
-  <si>
-    <t>正则表达式辅助创建UI</t>
-  </si>
-  <si>
     <t>2019.9.2</t>
   </si>
   <si>
@@ -1026,7 +1020,7 @@
     <t>LP挂在后台没注意，第二天运行工程一跑到某个地方就卡死，后来怀疑人生的半天发现是LP给打断点了</t>
   </si>
   <si>
-    <t>StartDebug()后面加一个打印确认执行成功的，要么加入PasteDebug()要么写入文档</t>
+    <t>需要测试一下</t>
   </si>
   <si>
     <t>lp在做变量watch的时候，会触发一些错误，因为我们修改_G的__index行为，全局变量必须先set了，才能get</t>
@@ -1044,19 +1038,13 @@
     <t>据说是Unity持续打开很久之后会这样</t>
   </si>
   <si>
-    <t>Mr.菟(178833259)</t>
-  </si>
-  <si>
-    <t>基类的方法不能自动补全，self不提示基类的符号</t>
-  </si>
-  <si>
     <t>shift  + tab和shift + ctrl + f在Win10默认输入法下无效</t>
   </si>
   <si>
     <t>成都-大红花(1101677597)</t>
   </si>
   <si>
-    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！还有好多self内部无法跳转的情况</t>
+    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！</t>
   </si>
   <si>
     <t>我用的module（）这种关键字，代码跳转，引用还有待提高。</t>
@@ -1086,9 +1074,6 @@
     <t>已查看dmp，dump在kernel里，堆栈已无效</t>
   </si>
   <si>
-    <t>ののGGyyたた(86466243)</t>
-  </si>
-  <si>
     <t>package.cpath = package.cpath .. ";Assets/Externals/LuaPerfect/?.dll"   debug的dll的位置可以自己指定，这个可以写到文档里面</t>
   </si>
   <si>
@@ -1182,19 +1167,16 @@
     <t>用了LP，Tim貌似经常自动切换到忙碌</t>
   </si>
   <si>
-    <t>watch能做个排序么，最好也能在顶部有一个count</t>
+    <t>watch里table最好能在顶部有一个count</t>
   </si>
   <si>
     <t>LuaDebuggee挂掉了，dmp没成功保存</t>
   </si>
   <si>
-    <t>2019.9.6</t>
-  </si>
-  <si>
-    <t>Skip Synchronizing Code始终仍会重新部署dll</t>
-  </si>
-  <si>
     <t>有没有办法实现立即窗口的功能</t>
+  </si>
+  <si>
+    <t>while do，do在单独的行时，格式化会有问题</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1985,6 +1967,9 @@
     <t>标题能控制显示出绝对路径吗,一个项目好几个分支，不好区分</t>
   </si>
   <si>
+    <t>2019.9.1</t>
+  </si>
+  <si>
     <t>希望支持正则表达式</t>
   </si>
   <si>
@@ -1998,6 +1983,42 @@
   </si>
   <si>
     <t>ObjectFormater.cs中obj没有判断空</t>
+  </si>
+  <si>
+    <t>kenny</t>
+  </si>
+  <si>
+    <t>Pandora下提示failed to load lua dll/pdb</t>
+  </si>
+  <si>
+    <t>watch能做个排序么</t>
+  </si>
+  <si>
+    <t>2019.9.8</t>
+  </si>
+  <si>
+    <t>好多self内部无法跳转的情况</t>
+  </si>
+  <si>
+    <t>正则表达式辅助创建UI</t>
+  </si>
+  <si>
+    <t>StartDebug()后面加一个打印确认执行成功的，要么加入PasteDebug()要么写入文档</t>
+  </si>
+  <si>
+    <t>ののGGyyたた(86466243)</t>
+  </si>
+  <si>
+    <t>Mr.菟(178833259)</t>
+  </si>
+  <si>
+    <t>基类的方法不能自动补全，self不提示基类的符号</t>
+  </si>
+  <si>
+    <t>2019.9.6</t>
+  </si>
+  <si>
+    <t>Skip Synchronizing Code始终仍会重新部署dll</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +2026,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2067,7 +2088,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2080,8 +2109,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2111,22 +2185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2134,45 +2195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2194,9 +2216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2219,19 +2240,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2243,55 +2294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2309,7 +2312,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2321,13 +2348,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,25 +2396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2369,37 +2420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,6 +2431,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2430,24 +2475,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2461,22 +2488,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2492,6 +2504,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2518,10 +2539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2530,19 +2551,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2551,112 +2572,112 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3054,17 +3075,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="79.875" customWidth="1"/>
+    <col min="3" max="3" width="106.875" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
@@ -4743,7 +4764,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="119" ht="27" spans="1:4">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>211</v>
       </c>
@@ -4764,7 +4785,7 @@
       <c r="B120" t="s">
         <v>215</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="8" t="s">
         <v>216</v>
       </c>
       <c r="D120" s="7" t="s">
@@ -5661,7 +5682,7 @@
         <v>311</v>
       </c>
       <c r="B184" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="C184" t="s">
         <v>312</v>
@@ -5675,10 +5696,10 @@
         <v>311</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="C185" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>9</v>
@@ -5686,13 +5707,13 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B186" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C186" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>9</v>
@@ -5700,13 +5721,13 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B187" t="s">
-        <v>315</v>
-      </c>
-      <c r="C187" t="s">
-        <v>316</v>
+        <v>63</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>9</v>
@@ -5714,7 +5735,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B188" t="s">
         <v>63</v>
@@ -5728,10 +5749,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B189" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>319</v>
@@ -5742,41 +5763,44 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B190" t="s">
         <v>63</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="8" t="s">
         <v>320</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
-      </c>
-      <c r="C191" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C191" t="s">
         <v>321</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E191" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B192" t="s">
         <v>63</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>322</v>
+      <c r="C192" t="s">
+        <v>323</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>9</v>
@@ -5784,41 +5808,44 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B193" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="C193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B194" t="s">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="C194" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
         <v>63</v>
       </c>
       <c r="C195" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>9</v>
@@ -5826,13 +5853,13 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B196" t="s">
-        <v>63</v>
-      </c>
-      <c r="C196" t="s">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>9</v>
@@ -5840,100 +5867,103 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B197" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C197" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D197" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B198" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C198" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E198" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B199" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D199" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B200" t="s">
-        <v>63</v>
-      </c>
-      <c r="C200" t="s">
-        <v>332</v>
+        <v>337</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="D200" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
-      </c>
-      <c r="C201" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" t="s">
+        <v>340</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
         <v>334</v>
       </c>
-      <c r="D201" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
-        <v>317</v>
-      </c>
       <c r="B202" t="s">
-        <v>333</v>
-      </c>
-      <c r="C202" t="s">
         <v>335</v>
       </c>
+      <c r="C202" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="D202" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B203" t="s">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="C203" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>9</v>
@@ -5941,44 +5971,41 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B204" t="s">
-        <v>339</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>340</v>
+        <v>63</v>
+      </c>
+      <c r="C204" t="s">
+        <v>344</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B205" t="s">
-        <v>341</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>342</v>
+        <v>345</v>
+      </c>
+      <c r="C205" t="s">
+        <v>346</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E205" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B206" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="C206" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>9</v>
@@ -5986,44 +6013,41 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>348</v>
       </c>
       <c r="C207" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B208" t="s">
-        <v>339</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>346</v>
+        <v>335</v>
+      </c>
+      <c r="C208" t="s">
+        <v>350</v>
       </c>
       <c r="D208" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E208" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B209" t="s">
         <v>63</v>
       </c>
       <c r="C209" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>9</v>
@@ -6031,13 +6055,13 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
-      </c>
-      <c r="C210" t="s">
-        <v>349</v>
+        <v>352</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>9</v>
@@ -6045,13 +6069,13 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B211" t="s">
-        <v>350</v>
-      </c>
-      <c r="C211" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>9</v>
@@ -6059,13 +6083,13 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B212" t="s">
-        <v>290</v>
+        <v>357</v>
       </c>
       <c r="C212" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>9</v>
@@ -6073,13 +6097,13 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
-      </c>
-      <c r="C213" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="D213" s="7" t="s">
         <v>9</v>
@@ -6087,13 +6111,13 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B214" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="C214" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D214" s="7" t="s">
         <v>9</v>
@@ -6101,55 +6125,61 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B215" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="C215" t="s">
+        <v>362</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
         <v>356</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
-        <v>338</v>
       </c>
       <c r="B216" t="s">
         <v>357</v>
       </c>
       <c r="C216" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B217" t="s">
-        <v>359</v>
-      </c>
-      <c r="C217" s="8" t="s">
-        <v>360</v>
+        <v>313</v>
+      </c>
+      <c r="C217" t="s">
+        <v>365</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B218" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C218" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>9</v>
@@ -6157,13 +6187,13 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B219" t="s">
-        <v>362</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>364</v>
+        <v>203</v>
+      </c>
+      <c r="C219" t="s">
+        <v>368</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>9</v>
@@ -6171,13 +6201,13 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
+        <v>356</v>
+      </c>
+      <c r="B220" t="s">
         <v>361</v>
       </c>
-      <c r="B220" t="s">
-        <v>362</v>
-      </c>
       <c r="C220" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>9</v>
@@ -6185,61 +6215,55 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>63</v>
       </c>
       <c r="C221" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B222" t="s">
-        <v>362</v>
-      </c>
-      <c r="C222" t="s">
-        <v>368</v>
+        <v>63</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E222" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B223" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="C223" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="E223" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B224" t="s">
-        <v>371</v>
+        <v>63</v>
       </c>
       <c r="C224" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>9</v>
@@ -6247,99 +6271,15 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B225" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>361</v>
-      </c>
-      <c r="B226" t="s">
-        <v>366</v>
-      </c>
-      <c r="C226" t="s">
-        <v>374</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>361</v>
-      </c>
-      <c r="B227" t="s">
-        <v>63</v>
-      </c>
-      <c r="C227" t="s">
-        <v>375</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>361</v>
-      </c>
-      <c r="B228" t="s">
-        <v>63</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>361</v>
-      </c>
-      <c r="B229" t="s">
-        <v>63</v>
-      </c>
-      <c r="C229" t="s">
-        <v>377</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>378</v>
-      </c>
-      <c r="B230" t="s">
-        <v>63</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="A231" t="s">
-        <v>338</v>
-      </c>
-      <c r="B231" t="s">
-        <v>63</v>
-      </c>
-      <c r="C231" t="s">
-        <v>380</v>
-      </c>
-      <c r="D231" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6352,10 +6292,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6389,84 +6329,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -6474,16 +6414,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -6491,19 +6431,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -6514,10 +6454,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -6531,10 +6471,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -6548,10 +6488,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -6565,10 +6505,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -6582,13 +6522,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -6599,10 +6539,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -6616,13 +6556,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -6633,84 +6573,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -6721,16 +6661,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -6741,16 +6681,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -6761,161 +6701,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E26" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F26" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E27" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E28" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6926,10 +6866,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6943,10 +6883,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6960,10 +6900,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6977,10 +6917,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6988,36 +6928,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7028,10 +6968,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7039,16 +6979,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7062,13 +7002,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E40" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7079,13 +7019,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E41" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7096,13 +7036,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E42" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7113,13 +7053,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7130,10 +7070,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7147,13 +7087,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E45" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7164,16 +7104,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7184,13 +7124,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7201,10 +7141,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7212,142 +7152,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B49" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C49" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50" t="s">
+        <v>462</v>
+      </c>
+      <c r="C50" t="s">
         <v>463</v>
       </c>
-      <c r="B50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C50" t="s">
-        <v>469</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C51" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F51" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" t="s">
         <v>468</v>
       </c>
-      <c r="C52" t="s">
-        <v>474</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F52" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C53" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F53" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C54" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7358,16 +7298,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -7378,16 +7318,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -7398,16 +7338,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -7418,16 +7358,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E59" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -7438,16 +7378,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -7458,96 +7398,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E62" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F63" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F65" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -7558,16 +7498,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -7578,16 +7518,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -7598,47 +7538,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E69" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -7646,16 +7586,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -7663,16 +7603,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C72" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -7680,39 +7620,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
+        <v>505</v>
+      </c>
+      <c r="B73" t="s">
+        <v>508</v>
+      </c>
+      <c r="C73" t="s">
+        <v>510</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E73" t="s">
         <v>511</v>
-      </c>
-      <c r="B73" t="s">
-        <v>514</v>
-      </c>
-      <c r="C73" t="s">
-        <v>516</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E73" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E74" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F74" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -7723,13 +7663,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E75" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -7740,64 +7680,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E76" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F77" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E78" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -7805,16 +7745,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
+        <v>517</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C80" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C80" t="s">
-        <v>529</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -7822,73 +7762,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E81" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E82" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E83" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C84" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E84" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F84" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -7899,16 +7839,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F85" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7919,10 +7859,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7930,22 +7870,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7956,16 +7896,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7976,10 +7916,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7990,13 +7930,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8004,19 +7944,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E91" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8027,10 +7967,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8044,16 +7984,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8064,10 +8004,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8081,10 +8021,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -8098,10 +8038,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -8109,16 +8049,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s">
         <v>307</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -8132,10 +8072,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -8146,16 +8086,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E99" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8166,13 +8106,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E100" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8183,10 +8123,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -8200,10 +8140,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -8217,10 +8157,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -8234,10 +8174,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -8248,13 +8188,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -8268,13 +8208,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8285,13 +8225,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E107" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8302,30 +8242,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E108" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E109" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8336,13 +8276,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E110" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8353,10 +8293,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -8367,13 +8307,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -8387,10 +8327,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -8398,16 +8338,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B114" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C114" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -8421,10 +8361,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -8438,10 +8378,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -8452,13 +8392,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C117" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -8466,19 +8406,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E118" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8489,13 +8429,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8506,10 +8446,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -8517,19 +8457,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C121" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E121" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8537,16 +8477,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E122" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8554,16 +8494,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E123" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8571,16 +8511,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E124" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8591,13 +8531,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E125" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -8608,13 +8548,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E126" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8625,13 +8565,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E127" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -8639,13 +8579,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C128" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -8659,10 +8599,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E129" t="s">
         <v>262</v>
@@ -8676,10 +8616,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E130" t="s">
         <v>262</v>
@@ -8693,30 +8633,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E131" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E132" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8727,13 +8667,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E133" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -8744,44 +8684,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E134" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E135" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B136" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C136" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E136" t="s">
         <v>265</v>
@@ -8795,10 +8735,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E137" t="s">
         <v>265</v>
@@ -8812,13 +8752,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E138" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -8829,13 +8769,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E139" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -8846,10 +8786,10 @@
         <v>258</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E140" t="s">
         <v>265</v>
@@ -8863,13 +8803,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E141" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -8880,13 +8820,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E142" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -8897,13 +8837,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E143" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -8914,10 +8854,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E144" t="s">
         <v>265</v>
@@ -8925,36 +8865,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B145" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C145" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E145" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C146" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E146" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8965,13 +8905,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E147" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8982,13 +8922,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E148" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8999,13 +8939,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E149" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -9016,13 +8956,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E150" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -9033,13 +8973,13 @@
         <v>287</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E151" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -9050,13 +8990,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E152" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9067,13 +9007,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E153" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9084,13 +9024,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E154" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9101,10 +9041,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E155" t="s">
         <v>284</v>
@@ -9118,10 +9058,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E156" t="s">
         <v>284</v>
@@ -9135,10 +9075,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E157" t="s">
         <v>293</v>
@@ -9146,22 +9086,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E158" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F158" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9172,13 +9112,13 @@
         <v>249</v>
       </c>
       <c r="C159" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9189,13 +9129,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9206,30 +9146,30 @@
         <v>208</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9240,61 +9180,234 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B164" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E164" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E165" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B166" t="s">
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E166" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>642</v>
+      </c>
+      <c r="C167" t="s">
+        <v>643</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E167" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>356</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E168" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>315</v>
+      </c>
+      <c r="B169" t="s">
+        <v>329</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>383</v>
+      <c r="D169" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E169" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>636</v>
+      </c>
+      <c r="B170" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" t="s">
+        <v>647</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E170" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>636</v>
+      </c>
+      <c r="B171" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" t="s">
+        <v>647</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E171" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>315</v>
+      </c>
+      <c r="B172" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" t="s">
+        <v>648</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>315</v>
+      </c>
+      <c r="B173" t="s">
+        <v>325</v>
+      </c>
+      <c r="C173" t="s">
+        <v>648</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E173" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>334</v>
+      </c>
+      <c r="B174" t="s">
+        <v>649</v>
+      </c>
+      <c r="C174" t="s">
+        <v>648</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E174" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>315</v>
+      </c>
+      <c r="B175" t="s">
+        <v>650</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E175" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>652</v>
+      </c>
+      <c r="B176" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E176" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="667">
   <si>
     <t>反馈时间</t>
   </si>
@@ -570,36 +570,7 @@
     <t>frank</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>提供一个菜单配置，是否自动复制那个ThirdParty目录，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>也提供一个菜单手动复制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <t>提供一个菜单配置，是否自动复制那个ThirdParty目录，也提供一个菜单手动复制。</t>
   </si>
   <si>
     <t>2019.4.20</t>
@@ -1179,6 +1150,39 @@
     <t>while do，do在单独的行时，格式化会有问题</t>
   </si>
   <si>
+    <t>2019.9.9</t>
+  </si>
+  <si>
+    <t>print会报错</t>
+  </si>
+  <si>
+    <t>2019.9.12</t>
+  </si>
+  <si>
+    <t>XLua看不了SystemInfo.batteryLevel</t>
+  </si>
+  <si>
+    <t>2019.9.10</t>
+  </si>
+  <si>
+    <t>unity编辑器偶然出来dmp失败，和游戏没关系，我甚至都还没启动，建议hook lua_close</t>
+  </si>
+  <si>
+    <t>Halo(958708323)</t>
+  </si>
+  <si>
+    <t>有些mono代码提示不全</t>
+  </si>
+  <si>
+    <t>来一起吸猫呀(445548910)</t>
+  </si>
+  <si>
+    <t>有没有mac版本</t>
+  </si>
+  <si>
+    <t>可以考虑SDL/bgfx做跨平台</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -2019,6 +2023,12 @@
   </si>
   <si>
     <t>Skip Synchronizing Code始终仍会重新部署dll</t>
+  </si>
+  <si>
+    <t>最新版print报错</t>
+  </si>
+  <si>
+    <t>正常输入时会dmp，dmp已发送</t>
   </si>
 </sst>
 </file>
@@ -2026,9 +2036,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -2088,7 +2098,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2096,14 +2106,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2125,13 +2149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2146,14 +2163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2185,6 +2194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2193,8 +2209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2211,13 +2228,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2240,102 +2250,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2348,13 +2262,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,13 +2322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,7 +2340,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,19 +2394,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,30 +2441,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2475,11 +2461,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2508,11 +2512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2539,10 +2549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2551,16 +2561,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2569,103 +2579,91 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2674,10 +2672,22 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3075,10 +3085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6283,6 +6293,90 @@
         <v>9</v>
       </c>
     </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" t="s">
+        <v>99</v>
+      </c>
+      <c r="C226" t="s">
+        <v>376</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>377</v>
+      </c>
+      <c r="B227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C227" t="s">
+        <v>378</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B228" t="s">
+        <v>63</v>
+      </c>
+      <c r="C228" t="s">
+        <v>380</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>377</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+      <c r="C229" t="s">
+        <v>382</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>377</v>
+      </c>
+      <c r="B230" t="s">
+        <v>383</v>
+      </c>
+      <c r="C230" t="s">
+        <v>384</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>377</v>
+      </c>
+      <c r="B231" t="s">
+        <v>309</v>
+      </c>
+      <c r="C231" t="s">
+        <v>385</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6292,10 +6386,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6329,84 +6423,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -6414,16 +6508,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -6431,19 +6525,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -6454,10 +6548,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -6471,10 +6565,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -6488,10 +6582,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -6505,10 +6599,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -6522,13 +6616,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -6539,10 +6633,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -6556,13 +6650,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -6573,84 +6667,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -6661,16 +6755,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -6681,16 +6775,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -6701,161 +6795,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C24" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E29" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
         <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B31" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E31" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -6866,10 +6960,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -6883,10 +6977,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -6900,10 +6994,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -6917,10 +7011,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -6928,36 +7022,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E36" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -6968,10 +7062,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -6979,16 +7073,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7002,13 +7096,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7019,13 +7113,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7036,13 +7130,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7053,13 +7147,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E43" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7070,10 +7164,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7087,13 +7181,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E45" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7104,16 +7198,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7124,13 +7218,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7141,10 +7235,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7152,142 +7246,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B49" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B50" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C51" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F51" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C52" t="s">
+        <v>479</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="F52" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B53" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C53" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="B54" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C54" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E55" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7298,16 +7392,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -7318,16 +7412,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -7338,16 +7432,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -7358,16 +7452,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E59" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="F59" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -7378,16 +7472,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -7398,96 +7492,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E62" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F63" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E65" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -7498,16 +7592,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -7518,16 +7612,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -7538,47 +7632,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E69" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -7586,16 +7680,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -7603,16 +7697,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B72" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C72" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -7620,39 +7714,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="C73" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E73" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E74" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F74" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -7663,13 +7757,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E75" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -7680,64 +7774,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E76" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E77" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F77" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E78" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -7745,16 +7839,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="C80" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -7762,73 +7856,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E81" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E82" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B84" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C84" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E84" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F84" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -7839,16 +7933,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E85" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="F85" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -7859,10 +7953,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -7870,22 +7964,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -7896,16 +7990,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -7916,10 +8010,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -7930,13 +8024,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -7944,19 +8038,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -7967,10 +8061,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -7984,16 +8078,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8004,10 +8098,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8021,10 +8115,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E95" t="s">
         <v>153</v>
@@ -8038,10 +8132,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E96" t="s">
         <v>153</v>
@@ -8049,16 +8143,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B97" t="s">
         <v>307</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E97" t="s">
         <v>153</v>
@@ -8072,10 +8166,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E98" t="s">
         <v>153</v>
@@ -8086,16 +8180,16 @@
         <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E99" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8106,13 +8200,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E100" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8123,10 +8217,10 @@
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E101" t="s">
         <v>156</v>
@@ -8140,10 +8234,10 @@
         <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E102" t="s">
         <v>162</v>
@@ -8157,10 +8251,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E103" t="s">
         <v>166</v>
@@ -8174,10 +8268,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E104" t="s">
         <v>166</v>
@@ -8188,13 +8282,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E105" t="s">
         <v>177</v>
@@ -8208,13 +8302,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E106" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8225,13 +8319,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E107" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8242,30 +8336,30 @@
         <v>146</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E108" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E109" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8276,13 +8370,13 @@
         <v>201</v>
       </c>
       <c r="C110" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E110" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8293,10 +8387,10 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E111" t="s">
         <v>214</v>
@@ -8307,13 +8401,13 @@
         <v>205</v>
       </c>
       <c r="B112" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E112" t="s">
         <v>214</v>
@@ -8327,10 +8421,10 @@
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E113" t="s">
         <v>214</v>
@@ -8338,16 +8432,16 @@
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B114" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C114" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E114" t="s">
         <v>214</v>
@@ -8361,10 +8455,10 @@
         <v>224</v>
       </c>
       <c r="C115" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E115" t="s">
         <v>223</v>
@@ -8378,10 +8472,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E116" t="s">
         <v>239</v>
@@ -8392,13 +8486,13 @@
         <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="C117" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E117" t="s">
         <v>239</v>
@@ -8406,19 +8500,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B118" t="s">
         <v>203</v>
       </c>
       <c r="C118" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E118" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8429,13 +8523,13 @@
         <v>230</v>
       </c>
       <c r="C119" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E119" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8446,10 +8540,10 @@
         <v>224</v>
       </c>
       <c r="C120" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E120" t="s">
         <v>223</v>
@@ -8457,19 +8551,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B121" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C121" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E121" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8477,16 +8571,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E122" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8494,16 +8588,16 @@
         <v>151</v>
       </c>
       <c r="B123" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E123" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8511,16 +8605,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E124" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8531,13 +8625,13 @@
         <v>182</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E125" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -8548,13 +8642,13 @@
         <v>244</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E126" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8565,13 +8659,13 @@
         <v>224</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E127" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -8579,13 +8673,13 @@
         <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="C128" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E128" t="s">
         <v>248</v>
@@ -8599,10 +8693,10 @@
         <v>224</v>
       </c>
       <c r="C129" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E129" t="s">
         <v>262</v>
@@ -8616,10 +8710,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E130" t="s">
         <v>262</v>
@@ -8633,30 +8727,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E131" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E132" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8667,13 +8761,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E133" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -8684,44 +8778,44 @@
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E134" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B135" t="s">
         <v>249</v>
       </c>
       <c r="C135" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E135" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="B136" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="C136" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E136" t="s">
         <v>265</v>
@@ -8735,10 +8829,10 @@
         <v>218</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E137" t="s">
         <v>265</v>
@@ -8752,13 +8846,13 @@
         <v>218</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E138" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -8769,13 +8863,13 @@
         <v>224</v>
       </c>
       <c r="C139" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E139" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -8786,10 +8880,10 @@
         <v>258</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E140" t="s">
         <v>265</v>
@@ -8803,13 +8897,13 @@
         <v>215</v>
       </c>
       <c r="C141" t="s">
+        <v>621</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E141" t="s">
         <v>610</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E141" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -8820,13 +8914,13 @@
         <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E142" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -8837,13 +8931,13 @@
         <v>215</v>
       </c>
       <c r="C143" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E143" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -8854,10 +8948,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E144" t="s">
         <v>265</v>
@@ -8865,36 +8959,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C145" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="E145" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B146" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="C146" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E146" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -8905,13 +8999,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E147" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -8922,13 +9016,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E148" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8939,13 +9033,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E149" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -8956,13 +9050,13 @@
         <v>218</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E150" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8973,13 +9067,13 @@
         <v>287</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E151" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -8990,13 +9084,13 @@
         <v>241</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E152" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9007,13 +9101,13 @@
         <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E153" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9024,13 +9118,13 @@
         <v>241</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E154" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9041,10 +9135,10 @@
         <v>241</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E155" t="s">
         <v>284</v>
@@ -9058,10 +9152,10 @@
         <v>241</v>
       </c>
       <c r="C156" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E156" t="s">
         <v>284</v>
@@ -9075,10 +9169,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E157" t="s">
         <v>293</v>
@@ -9086,22 +9180,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E158" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="F158" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9112,13 +9206,13 @@
         <v>249</v>
       </c>
       <c r="C159" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E159" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9129,13 +9223,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E160" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9146,30 +9240,30 @@
         <v>208</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E161" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E162" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9180,13 +9274,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E163" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9197,10 +9291,10 @@
         <v>332</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E164" t="s">
         <v>356</v>
@@ -9214,10 +9308,10 @@
         <v>325</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E165" t="s">
         <v>356</v>
@@ -9231,10 +9325,10 @@
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E166" t="s">
         <v>356</v>
@@ -9245,13 +9339,13 @@
         <v>334</v>
       </c>
       <c r="B167" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="C167" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E167" t="s">
         <v>334</v>
@@ -9265,13 +9359,13 @@
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E168" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -9282,47 +9376,47 @@
         <v>329</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E169" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E170" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="B171" t="s">
         <v>208</v>
       </c>
       <c r="C171" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E171" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -9333,13 +9427,13 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E172" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -9350,13 +9444,13 @@
         <v>325</v>
       </c>
       <c r="C173" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E173" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -9364,16 +9458,16 @@
         <v>334</v>
       </c>
       <c r="B174" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C174" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E174" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9381,33 +9475,61 @@
         <v>315</v>
       </c>
       <c r="B175" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E175" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="B176" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E176" t="s">
-        <v>645</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>375</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" t="s">
+        <v>665</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>375</v>
+      </c>
+      <c r="B178" t="s">
+        <v>605</v>
+      </c>
+      <c r="C178" t="s">
+        <v>666</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="671">
   <si>
     <t>反馈时间</t>
   </si>
@@ -646,153 +646,147 @@
     <t>require 方式 self 是空,DoString  TextAsset self 不是空,都scriptEnv.Set("self", this);</t>
   </si>
   <si>
-    <t>2019.7.21</t>
+    <t>2019.8.3</t>
+  </si>
+  <si>
+    <t>古月良云(604746493)</t>
+  </si>
+  <si>
+    <t>代码补全时function Class:Func() end这种，希望能自动填上Class</t>
+  </si>
+  <si>
+    <t>2019.8.5</t>
+  </si>
+  <si>
+    <t>大魔王有木桑(1227380830)</t>
+  </si>
+  <si>
+    <t>罗技鼠标慢速滚动时有问题</t>
+  </si>
+  <si>
+    <t>2019.8.6</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>局部变量监视里显示Dummy，不正常</t>
+  </si>
+  <si>
+    <t>xlua的工程，dll的名字不一定是xlua</t>
+  </si>
+  <si>
+    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
+  </si>
+  <si>
+    <t>注解里的类型名没有自动完成</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
+  </si>
+  <si>
+    <t>johnd</t>
+  </si>
+  <si>
+    <t>不能查找引用</t>
+  </si>
+  <si>
+    <t>依赖注释来精确提示</t>
+  </si>
+  <si>
+    <t>不能精确跳转Table定义的地方</t>
+  </si>
+  <si>
+    <t>2019.8.7</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
+  </si>
+  <si>
+    <t>撤销到修改前的状态时，还是标记为已修改</t>
+  </si>
+  <si>
+    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
+  </si>
+  <si>
+    <t>函数提示里，出现了两个self</t>
+  </si>
+  <si>
+    <t>2019.8.9</t>
+  </si>
+  <si>
+    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
+  </si>
+  <si>
+    <t>Я7(394074705)</t>
+  </si>
+  <si>
+    <t>Ctrl+鼠标点击跳转的功能</t>
+  </si>
+  <si>
+    <t>2019.8.8</t>
+  </si>
+  <si>
+    <t>起跑线To(2268334885)</t>
+  </si>
+  <si>
+    <t>直接在Project拖动文件进行文件移动操作</t>
+  </si>
+  <si>
+    <t>希望监视能跟堆栈结合起来</t>
+  </si>
+  <si>
+    <t>output窗口希望可以搜索</t>
+  </si>
+  <si>
+    <t>2019.8.12</t>
+  </si>
+  <si>
+    <t>ZensYue(2645373456)</t>
+  </si>
+  <si>
+    <t>希望在Output界面添加搜索功能</t>
+  </si>
+  <si>
+    <t>2019.8.13</t>
+  </si>
+  <si>
+    <t>希望支持UnLua</t>
+  </si>
+  <si>
+    <t>2019.8.15</t>
+  </si>
+  <si>
+    <t>...(961451518)</t>
+  </si>
+  <si>
+    <t>希望支持插件化</t>
+  </si>
+  <si>
+    <t>HKW(1397796710)</t>
+  </si>
+  <si>
+    <t>Unity里的封装用LP打开Lua文件的代码</t>
+  </si>
+  <si>
+    <t>joaryyu</t>
+  </si>
+  <si>
+    <t>插件化</t>
+  </si>
+  <si>
+    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
+  </si>
+  <si>
+    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
+  </si>
+  <si>
+    <t>2019.8.16</t>
   </si>
   <si>
     <t>呵呵哒(475773235)</t>
   </si>
   <si>
-    <t>有没有把lua所有文件，都格式化的方式</t>
-  </si>
-  <si>
-    <t>2019.8.3</t>
-  </si>
-  <si>
-    <t>古月良云(604746493)</t>
-  </si>
-  <si>
-    <t>代码补全时function Class:Func() end这种，希望能自动填上Class</t>
-  </si>
-  <si>
-    <t>2019.8.5</t>
-  </si>
-  <si>
-    <t>大魔王有木桑(1227380830)</t>
-  </si>
-  <si>
-    <t>罗技鼠标慢速滚动时有问题</t>
-  </si>
-  <si>
-    <t>2019.8.6</t>
-  </si>
-  <si>
-    <t>hop</t>
-  </si>
-  <si>
-    <t>局部变量监视里显示Dummy，不正常</t>
-  </si>
-  <si>
-    <t>xlua的工程，dll的名字不一定是xlua</t>
-  </si>
-  <si>
-    <t>默认往ThirdParty里复制LuaPerfect.cs在项目里会导致编译不过，默默给个配置不大好吧</t>
-  </si>
-  <si>
-    <t>注解里的类型名没有自动完成</t>
-  </si>
-  <si>
-    <t>Ctrl+P查找的，Sublime里如果ast直接能直接全部匹配function，则会优先按function的匹配</t>
-  </si>
-  <si>
-    <t>johnd</t>
-  </si>
-  <si>
-    <t>不能查找引用</t>
-  </si>
-  <si>
-    <t>依赖注释来精确提示</t>
-  </si>
-  <si>
-    <t>不能精确跳转Table定义的地方</t>
-  </si>
-  <si>
-    <t>2019.8.7</t>
-  </si>
-  <si>
-    <t>Ctrl+P查找时，没加首字符匹配的权重</t>
-  </si>
-  <si>
-    <t>撤销到修改前的状态时，还是标记为已修改</t>
-  </si>
-  <si>
-    <t>ObjectFormater.cs之类的最好还是能自己按需拷贝，或者做个配置向导</t>
-  </si>
-  <si>
-    <t>函数提示里，出现了两个self</t>
-  </si>
-  <si>
-    <t>2019.8.9</t>
-  </si>
-  <si>
-    <t>Profile函数时，如果能Profile到函数的内存分配就好了</t>
-  </si>
-  <si>
-    <t>Я7(394074705)</t>
-  </si>
-  <si>
-    <t>Ctrl+鼠标点击跳转的功能</t>
-  </si>
-  <si>
-    <t>2019.8.8</t>
-  </si>
-  <si>
-    <t>起跑线To(2268334885)</t>
-  </si>
-  <si>
-    <t>直接在Project拖动文件进行文件移动操作</t>
-  </si>
-  <si>
-    <t>希望监视能跟堆栈结合起来</t>
-  </si>
-  <si>
-    <t>output窗口希望可以搜索</t>
-  </si>
-  <si>
-    <t>2019.8.12</t>
-  </si>
-  <si>
-    <t>ZensYue(2645373456)</t>
-  </si>
-  <si>
-    <t>希望在Output界面添加搜索功能</t>
-  </si>
-  <si>
-    <t>2019.8.13</t>
-  </si>
-  <si>
-    <t>希望支持UnLua</t>
-  </si>
-  <si>
-    <t>2019.8.15</t>
-  </si>
-  <si>
-    <t>...(961451518)</t>
-  </si>
-  <si>
-    <t>希望支持插件化</t>
-  </si>
-  <si>
-    <t>HKW(1397796710)</t>
-  </si>
-  <si>
-    <t>Unity里的封装用LP打开Lua文件的代码</t>
-  </si>
-  <si>
-    <t>joaryyu</t>
-  </si>
-  <si>
-    <t>插件化</t>
-  </si>
-  <si>
-    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
-  </si>
-  <si>
-    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
-  </si>
-  <si>
-    <t>2019.8.16</t>
-  </si>
-  <si>
     <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
   </si>
   <si>
@@ -913,9 +907,6 @@
     <t>希望提供一个不指定端口号时自动连接当前空闲端口的功能</t>
   </si>
   <si>
-    <t>格式化后空行处多出空格/制表出来，行尾的空格/制表也未删除</t>
-  </si>
-  <si>
     <t>内存快照</t>
   </si>
   <si>
@@ -943,162 +934,156 @@
     <t>官方网站申请下恢复访问</t>
   </si>
   <si>
+    <t>2019.9.3</t>
+  </si>
+  <si>
+    <t>Options &gt; Lua Extensions操作不方便，建议整合配置界面</t>
+  </si>
+  <si>
+    <t>标签可以支持中键点击关闭么</t>
+  </si>
+  <si>
+    <t>跳转判断了类型和名字，没判断函数参数个数</t>
+  </si>
+  <si>
+    <t>写个完整的指引文档</t>
+  </si>
+  <si>
+    <t>LP挂在后台没注意，第二天运行工程一跑到某个地方就卡死，后来怀疑人生的半天发现是LP给打断点了</t>
+  </si>
+  <si>
+    <t>需要测试一下</t>
+  </si>
+  <si>
+    <t>lp在做变量watch的时候，会触发一些错误，因为我们修改_G的__index行为，全局变量必须先set了，才能get</t>
+  </si>
+  <si>
+    <t>goto如果带行号，可以自动跳转到对应行</t>
+  </si>
+  <si>
+    <t>eagle(593129057)</t>
+  </si>
+  <si>
+    <t>每次启动Unity，IDE就未响应了</t>
+  </si>
+  <si>
+    <t>据说是Unity持续打开很久之后会这样</t>
+  </si>
+  <si>
+    <t>shift  + tab和shift + ctrl + f在Win10默认输入法下无效</t>
+  </si>
+  <si>
+    <t>成都-大红花(1101677597)</t>
+  </si>
+  <si>
+    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！</t>
+  </si>
+  <si>
+    <t>我用的module（）这种关键字，代码跳转，引用还有待提高。</t>
+  </si>
+  <si>
+    <t>1564179138(1564179138)</t>
+  </si>
+  <si>
+    <t>手册上说明要print=_saved_print，现在已经不需要了，要同步文档</t>
+  </si>
+  <si>
+    <t>2019.9.4</t>
+  </si>
+  <si>
+    <t>王炜(315135974)</t>
+  </si>
+  <si>
+    <t>SLua项目会提示SLua名称空间不可用</t>
+  </si>
+  <si>
+    <t>wyh(383133507)</t>
+  </si>
+  <si>
+    <t>启动就会挂掉，会提示保存了dmp，tolua1.0.5，dmp已接收</t>
+  </si>
+  <si>
+    <t>已查看dmp，dump在kernel里，堆栈已无效</t>
+  </si>
+  <si>
+    <t>package.cpath = package.cpath .. ";Assets/Externals/LuaPerfect/?.dll"   debug的dll的位置可以自己指定，这个可以写到文档里面</t>
+  </si>
+  <si>
+    <t>启动就会挂掉，会提示保存了dmp，dmp已接收</t>
+  </si>
+  <si>
+    <t>已查看dmp，dump在mono里，堆栈已无效</t>
+  </si>
+  <si>
+    <t>这个then之后回车end，这个end能自动缩进回去么</t>
+  </si>
+  <si>
+    <t>当所有自上一次保存之后的修改都被撤销之后，这个星号可以自动消失么</t>
+  </si>
+  <si>
+    <t>生姜(289609362)</t>
+  </si>
+  <si>
+    <t>能单独打开一个文本文件吗，作为一个普通的文本编辑器使用</t>
+  </si>
+  <si>
+    <t>无法正常自动更新，能访问更新的机器的网站，LP无法访问更新</t>
+  </si>
+  <si>
+    <t>晓刚(68002759)</t>
+  </si>
+  <si>
+    <t>有计划开源吗？</t>
+  </si>
+  <si>
+    <t>编辑区突然不见了，点击文件也打不开，关了重启出来了</t>
+  </si>
+  <si>
+    <t>vs的快捷键和鼠标键的forward和backward规则会不一样</t>
+  </si>
+  <si>
+    <t>清雨慢思茶(88018806)</t>
+  </si>
+  <si>
+    <t>鼠标滚轮点击标签直接关闭</t>
+  </si>
+  <si>
+    <t>Stubborn-杨(1564741942)</t>
+  </si>
+  <si>
+    <t>同时有同名的.lua和.lua.bytes时，自动忽略不是文本的那个</t>
+  </si>
+  <si>
+    <t>2019.9.5</t>
+  </si>
+  <si>
+    <t>酒弎(447011583)</t>
+  </si>
+  <si>
+    <t>可以点击unity里的lua脚本直接弹出来这个脚本就好了</t>
+  </si>
+  <si>
+    <t>整理Unity里点击直接弹出lua脚本的功能的文档</t>
+  </si>
+  <si>
+    <t>全局搜索界面搜到的窗口希望可以折叠</t>
+  </si>
+  <si>
+    <t>快乐工作，快乐生活</t>
+  </si>
+  <si>
+    <t>这个工具能运行普通的lua文件，不和框架绑定吗</t>
+  </si>
+  <si>
+    <t>有时突然不能ctrl-z了</t>
+  </si>
+  <si>
+    <t>怀疑与同时使用其他编辑器有关?</t>
+  </si>
+  <si>
     <t>白客(1003781706)</t>
   </si>
   <si>
-    <t>更换自定义字体的功能</t>
-  </si>
-  <si>
-    <t>2019.9.3</t>
-  </si>
-  <si>
-    <t>Options &gt; Lua Extensions操作不方便，建议整合配置界面</t>
-  </si>
-  <si>
-    <t>标签可以支持中键点击关闭么</t>
-  </si>
-  <si>
-    <t>跳转判断了类型和名字，没判断函数参数个数</t>
-  </si>
-  <si>
-    <t>将文件夹下面的代码，统一执行一次格式化的功能</t>
-  </si>
-  <si>
-    <t>写个完整的指引文档</t>
-  </si>
-  <si>
-    <t>LP挂在后台没注意，第二天运行工程一跑到某个地方就卡死，后来怀疑人生的半天发现是LP给打断点了</t>
-  </si>
-  <si>
-    <t>需要测试一下</t>
-  </si>
-  <si>
-    <t>lp在做变量watch的时候，会触发一些错误，因为我们修改_G的__index行为，全局变量必须先set了，才能get</t>
-  </si>
-  <si>
-    <t>goto如果带行号，可以自动跳转到对应行</t>
-  </si>
-  <si>
-    <t>eagle(593129057)</t>
-  </si>
-  <si>
-    <t>每次启动Unity，IDE就未响应了</t>
-  </si>
-  <si>
-    <t>据说是Unity持续打开很久之后会这样</t>
-  </si>
-  <si>
-    <t>shift  + tab和shift + ctrl + f在Win10默认输入法下无效</t>
-  </si>
-  <si>
-    <t>成都-大红花(1101677597)</t>
-  </si>
-  <si>
-    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！</t>
-  </si>
-  <si>
-    <t>我用的module（）这种关键字，代码跳转，引用还有待提高。</t>
-  </si>
-  <si>
-    <t>1564179138(1564179138)</t>
-  </si>
-  <si>
-    <t>手册上说明要print=_saved_print，现在已经不需要了，要同步文档</t>
-  </si>
-  <si>
-    <t>2019.9.4</t>
-  </si>
-  <si>
-    <t>王炜(315135974)</t>
-  </si>
-  <si>
-    <t>SLua项目会提示SLua名称空间不可用</t>
-  </si>
-  <si>
-    <t>wyh(383133507)</t>
-  </si>
-  <si>
-    <t>启动就会挂掉，会提示保存了dmp，tolua1.0.5，dmp已接收</t>
-  </si>
-  <si>
-    <t>已查看dmp，dump在kernel里，堆栈已无效</t>
-  </si>
-  <si>
-    <t>package.cpath = package.cpath .. ";Assets/Externals/LuaPerfect/?.dll"   debug的dll的位置可以自己指定，这个可以写到文档里面</t>
-  </si>
-  <si>
-    <t>启动就会挂掉，会提示保存了dmp，dmp已接收</t>
-  </si>
-  <si>
-    <t>已查看dmp，dump在mono里，堆栈已无效</t>
-  </si>
-  <si>
-    <t>这个then之后回车end，这个end能自动缩进回去么</t>
-  </si>
-  <si>
-    <t>当所有自上一次保存之后的修改都被撤销之后，这个星号可以自动消失么</t>
-  </si>
-  <si>
-    <t>生姜(289609362)</t>
-  </si>
-  <si>
-    <t>能单独打开一个文本文件吗，作为一个普通的文本编辑器使用</t>
-  </si>
-  <si>
-    <t>无法正常自动更新，能访问更新的机器的网站，LP无法访问更新</t>
-  </si>
-  <si>
-    <t>晓刚(68002759)</t>
-  </si>
-  <si>
-    <t>有计划开源吗？</t>
-  </si>
-  <si>
-    <t>编辑区突然不见了，点击文件也打不开，关了重启出来了</t>
-  </si>
-  <si>
-    <t>vs的快捷键和鼠标键的forward和backward规则会不一样</t>
-  </si>
-  <si>
-    <t>清雨慢思茶(88018806)</t>
-  </si>
-  <si>
-    <t>鼠标滚轮点击标签直接关闭</t>
-  </si>
-  <si>
-    <t>Stubborn-杨(1564741942)</t>
-  </si>
-  <si>
-    <t>同时有同名的.lua和.lua.bytes时，自动忽略不是文本的那个</t>
-  </si>
-  <si>
-    <t>2019.9.5</t>
-  </si>
-  <si>
-    <t>酒弎(447011583)</t>
-  </si>
-  <si>
-    <t>可以点击unity里的lua脚本直接弹出来这个脚本就好了</t>
-  </si>
-  <si>
-    <t>整理Unity里点击直接弹出lua脚本的功能的文档</t>
-  </si>
-  <si>
-    <t>全局搜索界面搜到的窗口希望可以折叠</t>
-  </si>
-  <si>
-    <t>快乐工作，快乐生活</t>
-  </si>
-  <si>
-    <t>这个工具能运行普通的lua文件，不和框架绑定吗</t>
-  </si>
-  <si>
-    <t>有时突然不能ctrl-z了</t>
-  </si>
-  <si>
-    <t>怀疑与同时使用其他编辑器有关?</t>
-  </si>
-  <si>
     <t>有时格式化后ctrl z无效</t>
   </si>
   <si>
@@ -1118,9 +1103,6 @@
   </si>
   <si>
     <t>watch里table最好能在顶部有一个count</t>
-  </si>
-  <si>
-    <t>LuaDebuggee挂掉了，dmp没成功保存</t>
   </si>
   <si>
     <t>有没有办法实现立即窗口的功能</t>
@@ -1761,6 +1743,9 @@
     <t>希望可以支持静态库调试Cocos。</t>
   </si>
   <si>
+    <t>2019.7.21</t>
+  </si>
+  <si>
     <t>kramer</t>
   </si>
   <si>
@@ -2013,6 +1998,9 @@
     <t>最新版print报错</t>
   </si>
   <si>
+    <t>2019.9.15</t>
+  </si>
+  <si>
     <t>正常输入时会dmp，dmp已发送</t>
   </si>
   <si>
@@ -2035,6 +2023,24 @@
   </si>
   <si>
     <t>LP打开大文本lua的时候会出现ide闪退的情况</t>
+  </si>
+  <si>
+    <t>更换自定义字体的功能</t>
+  </si>
+  <si>
+    <t>LuaDebuggee挂掉了，dmp没成功保存</t>
+  </si>
+  <si>
+    <t>Stop()里取消lua钩子</t>
+  </si>
+  <si>
+    <t>有没有把lua所有文件，都格式化的方式</t>
+  </si>
+  <si>
+    <t>格式化后空行处多出空格/制表出来，行尾的空格/制表也未删除</t>
+  </si>
+  <si>
+    <t>将文件夹下面的代码，统一执行一次格式化的功能</t>
   </si>
 </sst>
 </file>
@@ -2042,10 +2048,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2103,13 +2109,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2117,8 +2116,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2155,8 +2161,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2170,38 +2193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2224,23 +2218,35 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2255,7 +2261,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2267,121 +2321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2393,7 +2333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,13 +2351,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2429,13 +2441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,50 +2452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2517,17 +2479,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2546,6 +2528,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2554,10 +2560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2566,16 +2572,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2584,119 +2590,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2732,9 +2738,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -3093,10 +3096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="A182" sqref="$A182:$XFD182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3142,11 +3145,11 @@
       <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3158,11 +3161,11 @@
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3174,11 +3177,11 @@
       <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3190,11 +3193,11 @@
       <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" ht="14.25" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -3206,11 +3209,11 @@
       <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3222,11 +3225,11 @@
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -3238,11 +3241,11 @@
       <c r="D8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -3254,8 +3257,8 @@
       <c r="D9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
@@ -3270,8 +3273,8 @@
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
@@ -3286,8 +3289,8 @@
       <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
@@ -3302,8 +3305,8 @@
       <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
@@ -3318,8 +3321,8 @@
       <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
@@ -3334,8 +3337,8 @@
       <c r="D14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
@@ -3350,8 +3353,8 @@
       <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
@@ -3366,8 +3369,8 @@
       <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
@@ -3382,8 +3385,8 @@
       <c r="D17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
@@ -3398,8 +3401,8 @@
       <c r="D18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
@@ -3414,8 +3417,8 @@
       <c r="D19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
@@ -3430,8 +3433,8 @@
       <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
@@ -3446,8 +3449,8 @@
       <c r="D21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="7" t="s">
@@ -3462,8 +3465,8 @@
       <c r="D22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="7" t="s">
@@ -3478,8 +3481,8 @@
       <c r="D23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="7" t="s">
@@ -3494,8 +3497,8 @@
       <c r="D24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
@@ -3510,8 +3513,8 @@
       <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
@@ -3526,8 +3529,8 @@
       <c r="D26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
@@ -3542,8 +3545,8 @@
       <c r="D27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
@@ -3558,8 +3561,8 @@
       <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
@@ -3574,8 +3577,8 @@
       <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="7" t="s">
@@ -3590,8 +3593,8 @@
       <c r="D30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="7" t="s">
@@ -3606,8 +3609,8 @@
       <c r="D31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7" t="s">
@@ -3622,8 +3625,8 @@
       <c r="D32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="7" t="s">
@@ -3638,8 +3641,8 @@
       <c r="D33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
@@ -3654,8 +3657,8 @@
       <c r="D34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="7" t="s">
@@ -3670,11 +3673,11 @@
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" ht="14.25" spans="1:6">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -3686,8 +3689,8 @@
       <c r="D36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="7" t="s">
@@ -3702,8 +3705,8 @@
       <c r="D37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" ht="27" spans="1:6">
       <c r="A38" s="7" t="s">
@@ -3718,8 +3721,8 @@
       <c r="D38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
@@ -3734,8 +3737,8 @@
       <c r="D39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="7" t="s">
@@ -3750,8 +3753,8 @@
       <c r="D40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="7" t="s">
@@ -3766,8 +3769,8 @@
       <c r="D41" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="7" t="s">
@@ -3782,8 +3785,8 @@
       <c r="D42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="7" t="s">
@@ -3798,8 +3801,8 @@
       <c r="D43" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
@@ -3814,8 +3817,8 @@
       <c r="D44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="7" t="s">
@@ -3830,8 +3833,8 @@
       <c r="D45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
@@ -3846,8 +3849,8 @@
       <c r="D46" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="7" t="s">
@@ -3862,8 +3865,8 @@
       <c r="D47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="7" t="s">
@@ -3878,8 +3881,8 @@
       <c r="D48" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="7" t="s">
@@ -3894,7 +3897,7 @@
       <c r="D49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="12"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
         <v>95</v>
       </c>
@@ -3912,8 +3915,8 @@
       <c r="D50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="7" t="s">
@@ -3928,8 +3931,8 @@
       <c r="D51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="7" t="s">
@@ -3944,8 +3947,8 @@
       <c r="D52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="7" t="s">
@@ -3960,8 +3963,8 @@
       <c r="D53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="7" t="s">
@@ -3976,8 +3979,8 @@
       <c r="D54" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="7" t="s">
@@ -3992,8 +3995,8 @@
       <c r="D55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="7" t="s">
@@ -4008,8 +4011,8 @@
       <c r="D56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="7" t="s">
@@ -4024,7 +4027,7 @@
       <c r="D57" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="12"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
         <v>107</v>
       </c>
@@ -4042,8 +4045,8 @@
       <c r="D58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="7" t="s">
@@ -4058,8 +4061,8 @@
       <c r="D59" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="7" t="s">
@@ -4074,8 +4077,8 @@
       <c r="D60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="7" t="s">
@@ -4090,8 +4093,8 @@
       <c r="D61" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="7" t="s">
@@ -4106,8 +4109,8 @@
       <c r="D62" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="7" t="s">
@@ -4122,8 +4125,8 @@
       <c r="D63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="7" t="s">
@@ -4138,8 +4141,8 @@
       <c r="D64" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="7" t="s">
@@ -4154,8 +4157,8 @@
       <c r="D65" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" ht="27" spans="1:6">
       <c r="A66" s="7" t="s">
@@ -4170,8 +4173,8 @@
       <c r="D66" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" ht="27" spans="1:6">
       <c r="A67" s="7" t="s">
@@ -4186,8 +4189,8 @@
       <c r="D67" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="7" t="s">
@@ -4202,8 +4205,8 @@
       <c r="D68" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="7" t="s">
@@ -4218,8 +4221,8 @@
       <c r="D69" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="7" t="s">
@@ -4234,8 +4237,8 @@
       <c r="D70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="7" t="s">
@@ -4250,8 +4253,8 @@
       <c r="D71" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="7" t="s">
@@ -4266,8 +4269,8 @@
       <c r="D72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="7" t="s">
@@ -4282,8 +4285,8 @@
       <c r="D73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="7" t="s">
@@ -4298,8 +4301,8 @@
       <c r="D74" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="7" t="s">
@@ -4314,8 +4317,8 @@
       <c r="D75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="7" t="s">
@@ -4330,8 +4333,8 @@
       <c r="D76" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="7" t="s">
@@ -4346,8 +4349,8 @@
       <c r="D77" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="7" t="s">
@@ -4362,8 +4365,8 @@
       <c r="D78" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="7" t="s">
@@ -4378,8 +4381,8 @@
       <c r="D79" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="7" t="s">
@@ -4388,14 +4391,14 @@
       <c r="B80" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>143</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="7" t="s">
@@ -4410,8 +4413,8 @@
       <c r="D81" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="7" t="s">
@@ -4426,8 +4429,8 @@
       <c r="D82" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="7" t="s">
@@ -4442,7 +4445,7 @@
       <c r="D83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="12"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
         <v>148</v>
       </c>
@@ -4460,8 +4463,8 @@
       <c r="D84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="7" t="s">
@@ -4476,8 +4479,8 @@
       <c r="D85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="7" t="s">
@@ -4492,8 +4495,8 @@
       <c r="D86" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="7" t="s">
@@ -4508,8 +4511,8 @@
       <c r="D87" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="7" t="s">
@@ -4524,8 +4527,8 @@
       <c r="D88" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="7" t="s">
@@ -4540,8 +4543,8 @@
       <c r="D89" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="7" t="s">
@@ -4556,8 +4559,8 @@
       <c r="D90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="7" t="s">
@@ -4572,7 +4575,7 @@
       <c r="D91" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="12"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="7" t="s">
         <v>162</v>
       </c>
@@ -4590,8 +4593,8 @@
       <c r="D92" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="7" t="s">
@@ -4606,8 +4609,8 @@
       <c r="D93" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="7" t="s">
@@ -4622,8 +4625,8 @@
       <c r="D94" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="7" t="s">
@@ -4638,8 +4641,8 @@
       <c r="D95" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="7" t="s">
@@ -4654,8 +4657,8 @@
       <c r="D96" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="7" t="s">
@@ -4670,8 +4673,8 @@
       <c r="D97" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="7" t="s">
@@ -4686,8 +4689,8 @@
       <c r="D98" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="7" t="s">
@@ -4702,8 +4705,8 @@
       <c r="D99" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="7" t="s">
@@ -4718,8 +4721,8 @@
       <c r="D100" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="7" t="s">
@@ -4734,8 +4737,8 @@
       <c r="D101" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="7" t="s">
@@ -4750,8 +4753,8 @@
       <c r="D102" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="7" t="s">
@@ -4766,8 +4769,8 @@
       <c r="D103" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="7" t="s">
@@ -4782,8 +4785,8 @@
       <c r="D104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="7" t="s">
@@ -4798,8 +4801,8 @@
       <c r="D105" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="7" t="s">
@@ -4814,8 +4817,8 @@
       <c r="D106" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="7" t="s">
@@ -4830,8 +4833,8 @@
       <c r="D107" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="7" t="s">
@@ -4846,8 +4849,8 @@
       <c r="D108" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="7" t="s">
@@ -4862,8 +4865,8 @@
       <c r="D109" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="7" t="s">
@@ -4878,8 +4881,8 @@
       <c r="D110" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="7" t="s">
@@ -4894,8 +4897,8 @@
       <c r="D111" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="7" t="s">
@@ -4910,8 +4913,8 @@
       <c r="D112" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="7" t="s">
@@ -4926,10 +4929,10 @@
       <c r="D113" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" ht="62" customHeight="1" spans="1:6">
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+    </row>
+    <row r="114" ht="16" customHeight="1" spans="1:6">
       <c r="A114" s="7" t="s">
         <v>200</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="D114" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E114" s="12"/>
+      <c r="E114" s="7"/>
       <c r="F114" s="10" t="s">
         <v>203</v>
       </c>
@@ -4960,8 +4963,8 @@
       <c r="D115" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="7" t="s">
@@ -4976,8 +4979,8 @@
       <c r="D116" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="7" t="s">
@@ -4992,8 +4995,8 @@
       <c r="D117" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="7" t="s">
@@ -5008,319 +5011,319 @@
       <c r="D118" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="D119" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B120" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C120" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="D120" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B125" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="D125" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="D128" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="D131" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="D133" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C135" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="D136" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>245</v>
+        <v>211</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>245</v>
@@ -5328,111 +5331,111 @@
       <c r="D138" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="D139" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B140" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="D140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C143" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" s="7" t="s">
         <v>254</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B144" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="D144" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>257</v>
@@ -5440,76 +5443,76 @@
       <c r="D145" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="D146" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="7" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>260</v>
+        <v>152</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="7" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="7" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>262</v>
+        <v>208</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>211</v>
@@ -5520,156 +5523,158 @@
       <c r="D150" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="D152" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>267</v>
+        <v>231</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C157" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>270</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C159" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>80</v>
@@ -5680,30 +5685,28 @@
       <c r="D160" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E160" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F160" s="12"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>278</v>
@@ -5714,31 +5717,31 @@
       <c r="D162" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B163" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B163" s="14">
+        <v>843157705</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="D163" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B164" s="15">
-        <v>843157705</v>
+        <v>275</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>282</v>
@@ -5746,31 +5749,31 @@
       <c r="D164" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B165" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C165" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="D165" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>285</v>
@@ -5778,159 +5781,159 @@
       <c r="D166" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>287</v>
-      </c>
       <c r="D167" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E170" s="12"/>
-      <c r="F170" s="12"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E171" s="12"/>
-      <c r="F171" s="12"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C172" s="7" t="s">
         <v>292</v>
       </c>
+      <c r="C172" s="8" t="s">
+        <v>293</v>
+      </c>
       <c r="D172" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E172" s="12"/>
-      <c r="F172" s="12"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B173" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="D173" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E173" s="12"/>
-      <c r="F173" s="12"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>296</v>
+        <v>231</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E174" s="12"/>
-      <c r="F174" s="12"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="12"/>
-      <c r="F175" s="12"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>298</v>
@@ -5938,63 +5941,63 @@
       <c r="D176" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E176" s="12"/>
-      <c r="F176" s="12"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E177" s="12"/>
-      <c r="F177" s="12"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>301</v>
+        <v>190</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E178" s="12"/>
-      <c r="F178" s="12"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>302</v>
+        <v>63</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E179" s="12"/>
-      <c r="F179" s="12"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>305</v>
@@ -6002,277 +6005,279 @@
       <c r="D180" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E180" s="12"/>
-      <c r="F180" s="12"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B181" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="D181" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E181" s="12"/>
-      <c r="F181" s="12"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>309</v>
+      <c r="C182" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E182" s="12"/>
-      <c r="F182" s="12"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="D183" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
+      <c r="E183" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F183" s="7"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D184" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E184" s="12"/>
-      <c r="F184" s="12"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>190</v>
+        <v>63</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E185" s="12"/>
-      <c r="F185" s="12"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C186" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E186" s="12"/>
-      <c r="F186" s="12"/>
+      <c r="E186" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F186" s="7"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>314</v>
+        <v>63</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D187" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E187" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F187" s="12"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E188" s="12"/>
-      <c r="F188" s="12"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D189" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E189" s="12"/>
-      <c r="F189" s="12"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F190" s="12"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="D192" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E192" s="12"/>
-      <c r="F192" s="12"/>
+      <c r="E192" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F192" s="7"/>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E193" s="12"/>
-      <c r="F193" s="12"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E194" s="12"/>
-      <c r="F194" s="12"/>
+      <c r="E194" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F194" s="7"/>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>328</v>
+        <v>63</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C196" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" s="7" t="s">
         <v>331</v>
       </c>
       <c r="D196" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F196" s="12"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>333</v>
@@ -6280,33 +6285,31 @@
       <c r="D197" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E197" s="12"/>
-      <c r="F197" s="12"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C198" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C198" s="7" t="s">
         <v>334</v>
       </c>
       <c r="D198" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E198" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F198" s="12"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>336</v>
@@ -6314,15 +6317,15 @@
       <c r="D199" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E199" s="12"/>
-      <c r="F199" s="12"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>337</v>
@@ -6330,31 +6333,31 @@
       <c r="D200" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E200" s="12"/>
-      <c r="F200" s="12"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B201" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="D201" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E201" s="12"/>
-      <c r="F201" s="12"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>340</v>
@@ -6362,177 +6365,179 @@
       <c r="D202" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C203" s="8" t="s">
         <v>342</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7"/>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>63</v>
+        <v>344</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D205" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7"/>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C207" s="8" t="s">
         <v>348</v>
       </c>
+      <c r="C207" s="7" t="s">
+        <v>349</v>
+      </c>
       <c r="D207" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B208" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C208" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="D208" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D208" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
+      <c r="F208" s="7"/>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D209" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
+      <c r="E209" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F209" s="7"/>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
+      <c r="E210" s="7"/>
+      <c r="F210" s="7"/>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>354</v>
+        <v>196</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
+      <c r="E211" s="7"/>
+      <c r="F211" s="7"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>356</v>
+        <v>348</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="D212" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E212" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F212" s="12"/>
+      <c r="E212" s="7"/>
+      <c r="F212" s="7"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>306</v>
+        <v>63</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>358</v>
@@ -6540,65 +6545,63 @@
       <c r="D213" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E213" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F213" s="12"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B214" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C214" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C214" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="D214" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
+      <c r="E214" s="7"/>
+      <c r="F214" s="7"/>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D215" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
+      <c r="E215" s="7"/>
+      <c r="F215" s="7"/>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>362</v>
+        <v>11</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="D216" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>363</v>
@@ -6606,210 +6609,130 @@
       <c r="D217" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>364</v>
+        <v>231</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C219" s="7" t="s">
-        <v>365</v>
+      <c r="C219" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="D219" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>63</v>
+        <v>368</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>367</v>
+        <v>370</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="D221" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>369</v>
+        <v>299</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C223" s="8" t="s">
-        <v>371</v>
+        <v>344</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>373</v>
+        <v>214</v>
+      </c>
+      <c r="C224" t="s">
+        <v>374</v>
       </c>
       <c r="D224" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-    </row>
-    <row r="225" spans="1:6">
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="B225" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225" t="s">
+        <v>257</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C229" t="s">
-        <v>380</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B230" t="s">
-        <v>64</v>
-      </c>
-      <c r="C230" t="s">
-        <v>259</v>
-      </c>
-      <c r="D230" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6822,10 +6745,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F182"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182:D182"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6859,84 +6782,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -6944,16 +6867,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -6961,19 +6884,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -6984,10 +6907,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -7001,10 +6924,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -7018,10 +6941,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -7035,10 +6958,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -7052,13 +6975,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -7069,10 +6992,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7086,13 +7009,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7103,84 +7026,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F20" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7191,16 +7114,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7211,16 +7134,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7231,161 +7154,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E26" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F26" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E27" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E28" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E31" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -7396,10 +7319,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -7413,10 +7336,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -7430,10 +7353,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -7447,10 +7370,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -7458,36 +7381,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E36" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E37" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7498,10 +7421,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7509,16 +7432,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7532,13 +7455,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E40" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7549,13 +7472,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E41" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7566,13 +7489,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E42" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7583,13 +7506,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7600,10 +7523,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7617,13 +7540,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E45" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7634,16 +7557,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7654,13 +7577,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7671,10 +7594,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7682,142 +7605,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B49" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C49" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50" t="s">
+        <v>462</v>
+      </c>
+      <c r="C50" t="s">
         <v>463</v>
       </c>
-      <c r="B50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C50" t="s">
-        <v>469</v>
-      </c>
       <c r="D50" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B51" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C51" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F51" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s">
+        <v>462</v>
+      </c>
+      <c r="C52" t="s">
         <v>468</v>
       </c>
-      <c r="C52" t="s">
-        <v>474</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F52" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C53" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F53" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C54" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7828,16 +7751,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -7848,16 +7771,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -7868,16 +7791,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -7888,16 +7811,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E59" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -7908,16 +7831,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -7928,96 +7851,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E62" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F62" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E63" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F63" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F65" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -8028,16 +7951,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -8048,16 +7971,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -8068,47 +7991,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E69" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -8116,16 +8039,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -8133,16 +8056,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C72" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -8150,39 +8073,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
+        <v>505</v>
+      </c>
+      <c r="B73" t="s">
+        <v>508</v>
+      </c>
+      <c r="C73" t="s">
+        <v>510</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E73" t="s">
         <v>511</v>
-      </c>
-      <c r="B73" t="s">
-        <v>514</v>
-      </c>
-      <c r="C73" t="s">
-        <v>516</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E73" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E74" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F74" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -8193,13 +8116,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E75" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -8210,64 +8133,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E76" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E77" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F77" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E78" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -8275,16 +8198,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
+        <v>517</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C80" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C80" t="s">
-        <v>529</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -8292,73 +8215,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E81" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E82" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E83" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B84" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C84" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E84" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F84" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -8369,16 +8292,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E85" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F85" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -8389,10 +8312,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -8400,22 +8323,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -8426,16 +8349,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -8446,10 +8369,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -8460,13 +8383,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8474,19 +8397,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E91" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8497,10 +8420,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8514,16 +8437,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8534,10 +8457,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8551,10 +8474,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E95" t="s">
         <v>151</v>
@@ -8568,10 +8491,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E96" t="s">
         <v>151</v>
@@ -8579,16 +8502,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B97" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E97" t="s">
         <v>151</v>
@@ -8602,10 +8525,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E98" t="s">
         <v>151</v>
@@ -8616,16 +8539,16 @@
         <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E99" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8636,13 +8559,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E100" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8653,10 +8576,10 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E101" t="s">
         <v>154</v>
@@ -8670,10 +8593,10 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E102" t="s">
         <v>159</v>
@@ -8687,10 +8610,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E103" t="s">
         <v>163</v>
@@ -8704,10 +8627,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E104" t="s">
         <v>163</v>
@@ -8718,13 +8641,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -8738,13 +8661,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E106" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8755,13 +8678,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E107" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8772,30 +8695,30 @@
         <v>144</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E108" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E109" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8806,13 +8729,13 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E110" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8823,13 +8746,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -8837,16 +8760,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -8857,149 +8780,149 @@
         <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B114" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C114" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>571</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C117" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E118" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E120" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B121" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C121" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E121" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9007,16 +8930,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E122" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9024,16 +8947,16 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E123" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -9041,16 +8964,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
+        <v>587</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>597</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E124" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -9061,81 +8984,81 @@
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E125" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E126" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E127" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C128" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -9146,13 +9069,13 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" ht="14.25" spans="1:5">
@@ -9163,30 +9086,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E131" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E132" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -9197,13 +9120,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E133" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9214,217 +9137,217 @@
         <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E134" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B135" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C135" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E135" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B136" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C136" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E138" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B139" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E139" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E140" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="C141" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E141" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="C142" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E142" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="C143" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E143" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E144" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B145" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C145" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E145" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C146" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E146" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -9435,540 +9358,546 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E147" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B148" t="s">
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E148" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B149" t="s">
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E149" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B150" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E150" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E151" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
       <c r="A152" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E152" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E153" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B154" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E154" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B156" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E157" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E158" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F158" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C159" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E159" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B160" t="s">
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E160" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B161" t="s">
         <v>201</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E161" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E162" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B163" t="s">
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E163" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E164" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B165" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E165" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B166" t="s">
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E166" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C167" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B168" t="s">
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E168" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E169" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E170" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B171" t="s">
         <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E171" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B172" t="s">
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E172" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C173" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E173" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C174" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E174" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E175" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B176" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E176" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>660</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>655</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E177" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C178" t="s">
-        <v>661</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>657</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E178" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="7" t="s">
         <v>154</v>
       </c>
@@ -9976,27 +9905,33 @@
         <v>99</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>658</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E179" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>660</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E180" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="7" t="s">
         <v>168</v>
       </c>
@@ -10004,24 +9939,118 @@
         <v>124</v>
       </c>
       <c r="C181" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E181" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E182" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="D181" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="7" t="s">
+      <c r="D183" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E183" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="D184" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E184" t="s">
+        <v>656</v>
+      </c>
+      <c r="F184" t="s">
         <v>667</v>
       </c>
-      <c r="C182" s="7" t="s">
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C185" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="D182" s="7" t="s">
-        <v>9</v>
+      <c r="D185" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E185" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E186" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E187" t="s">
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="674">
   <si>
     <t>反馈时间</t>
   </si>
@@ -769,7 +769,7 @@
     <t>Unity里的封装用LP打开Lua文件的代码</t>
   </si>
   <si>
-    <t>joaryyu</t>
+    <t>joary</t>
   </si>
   <si>
     <t>插件化</t>
@@ -1148,6 +1148,12 @@
   </si>
   <si>
     <t>直接进入上次打开的工程的配置（Always Open Last Project）</t>
+  </si>
+  <si>
+    <t>2019.9.16</t>
+  </si>
+  <si>
+    <t>希望可以支持vi的操作方式</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1861,6 +1867,9 @@
   </si>
   <si>
     <t>快捷键可以自定义</t>
+  </si>
+  <si>
+    <t>joaryyu</t>
   </si>
   <si>
     <t>调整project视图右键菜单顺序，Find In Folder放第一位</t>
@@ -2048,10 +2057,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2115,16 +2124,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2154,14 +2207,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2186,69 +2254,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2261,19 +2270,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2285,31 +2402,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2321,13 +2426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,109 +2450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2452,54 +2461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2530,6 +2491,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2547,8 +2523,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2560,10 +2569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2572,133 +2581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3096,10 +3105,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="A182" sqref="$A182:$XFD182"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6736,6 +6745,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" t="s">
+        <v>248</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6747,7 +6770,7 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
@@ -6782,84 +6805,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -6867,16 +6890,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -6884,19 +6907,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -6907,10 +6930,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -6924,10 +6947,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -6941,10 +6964,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -6958,10 +6981,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -6975,13 +6998,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -6992,10 +7015,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7009,13 +7032,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7026,84 +7049,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F20" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7114,16 +7137,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7134,16 +7157,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7154,161 +7177,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F26" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E29" t="s">
         <v>430</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E29" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B31" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E31" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -7319,10 +7342,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -7336,10 +7359,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -7353,10 +7376,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -7370,10 +7393,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -7381,36 +7404,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E36" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E37" t="s">
         <v>441</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E37" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7421,10 +7444,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7432,16 +7455,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7455,13 +7478,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7472,13 +7495,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E41" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7489,13 +7512,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7506,13 +7529,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E43" t="s">
         <v>449</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E43" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7523,10 +7546,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7540,13 +7563,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E45" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7557,16 +7580,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7577,13 +7600,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7594,10 +7617,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7605,142 +7628,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B49" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C49" t="s">
+        <v>461</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="F49" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B50" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C50" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" t="s">
+        <v>468</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C51" t="s">
-        <v>466</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F51" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C52" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F52" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B53" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C53" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B54" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C54" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E55" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7751,16 +7774,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -7771,16 +7794,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -7791,16 +7814,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -7811,16 +7834,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E59" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F59" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -7831,16 +7854,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -7851,96 +7874,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F62" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F63" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E65" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F65" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -7951,16 +7974,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -7971,16 +7994,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -7991,47 +8014,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E69" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -8039,16 +8062,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -8056,16 +8079,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B72" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C72" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -8073,39 +8096,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B73" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C73" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E73" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E74" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F74" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -8116,13 +8139,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E75" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -8133,64 +8156,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E77" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F77" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E78" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -8198,16 +8221,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C80" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -8215,73 +8238,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E81" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E82" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C84" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E84" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F84" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -8292,16 +8315,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E85" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F85" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -8312,10 +8335,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -8323,22 +8346,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -8349,16 +8372,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -8369,10 +8392,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -8383,13 +8406,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8397,19 +8420,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E91" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8420,10 +8443,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8437,16 +8460,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8457,10 +8480,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8474,10 +8497,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E95" t="s">
         <v>151</v>
@@ -8491,10 +8514,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E96" t="s">
         <v>151</v>
@@ -8502,16 +8525,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B97" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E97" t="s">
         <v>151</v>
@@ -8525,10 +8548,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E98" t="s">
         <v>151</v>
@@ -8539,16 +8562,16 @@
         <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E99" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8559,13 +8582,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E100" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8576,10 +8599,10 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E101" t="s">
         <v>154</v>
@@ -8593,10 +8616,10 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E102" t="s">
         <v>159</v>
@@ -8610,10 +8633,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E103" t="s">
         <v>163</v>
@@ -8627,10 +8650,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E104" t="s">
         <v>163</v>
@@ -8641,13 +8664,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -8661,13 +8684,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E106" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8678,13 +8701,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E107" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8695,30 +8718,30 @@
         <v>144</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E108" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E109" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8729,13 +8752,13 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E110" t="s">
         <v>569</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E110" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8746,13 +8769,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -8760,16 +8783,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E112" t="s">
         <v>573</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E112" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -8780,30 +8803,30 @@
         <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B114" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C114" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E114" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8814,10 +8837,10 @@
         <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E115" t="s">
         <v>213</v>
@@ -8831,10 +8854,10 @@
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E116" t="s">
         <v>229</v>
@@ -8845,13 +8868,13 @@
         <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C117" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E117" t="s">
         <v>229</v>
@@ -8859,19 +8882,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E118" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8882,13 +8905,13 @@
         <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E119" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8899,10 +8922,10 @@
         <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E120" t="s">
         <v>213</v>
@@ -8910,19 +8933,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B121" t="s">
+        <v>589</v>
+      </c>
+      <c r="C121" t="s">
+        <v>590</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" t="s">
         <v>587</v>
-      </c>
-      <c r="C121" t="s">
-        <v>588</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E121" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8930,16 +8953,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
+        <v>589</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E122" t="s">
         <v>587</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E122" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8947,16 +8970,16 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E123" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8964,16 +8987,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
+        <v>589</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E124" t="s">
         <v>587</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E124" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -8984,13 +9007,13 @@
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E125" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9001,13 +9024,13 @@
         <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E126" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9018,13 +9041,13 @@
         <v>214</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E127" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9032,13 +9055,13 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C128" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E128" t="s">
         <v>238</v>
@@ -9052,10 +9075,10 @@
         <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E129" t="s">
         <v>252</v>
@@ -9069,10 +9092,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E130" t="s">
         <v>252</v>
@@ -9086,30 +9109,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E131" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E132" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -9120,13 +9143,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E133" t="s">
         <v>602</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E133" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9137,44 +9160,44 @@
         <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E134" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B135" t="s">
         <v>239</v>
       </c>
       <c r="C135" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E135" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B136" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C136" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E136" t="s">
         <v>256</v>
@@ -9188,10 +9211,10 @@
         <v>208</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E137" t="s">
         <v>256</v>
@@ -9205,13 +9228,13 @@
         <v>208</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E138" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -9222,13 +9245,13 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E139" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -9236,13 +9259,13 @@
         <v>243</v>
       </c>
       <c r="B140" t="s">
-        <v>248</v>
+        <v>613</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E140" t="s">
         <v>256</v>
@@ -9256,13 +9279,13 @@
         <v>253</v>
       </c>
       <c r="C141" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E141" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -9273,13 +9296,13 @@
         <v>253</v>
       </c>
       <c r="C142" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E142" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -9290,13 +9313,13 @@
         <v>253</v>
       </c>
       <c r="C143" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E143" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -9307,10 +9330,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E144" t="s">
         <v>256</v>
@@ -9318,36 +9341,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B145" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C145" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E145" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B146" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C146" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E146" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -9358,13 +9381,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E147" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -9375,13 +9398,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E148" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -9392,13 +9415,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E149" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -9409,13 +9432,13 @@
         <v>208</v>
       </c>
       <c r="C150" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E150" t="s">
         <v>624</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E150" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -9426,13 +9449,13 @@
         <v>278</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E151" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -9443,13 +9466,13 @@
         <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E152" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9460,13 +9483,13 @@
         <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E153" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9477,13 +9500,13 @@
         <v>231</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E154" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9494,10 +9517,10 @@
         <v>231</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E155" t="s">
         <v>275</v>
@@ -9511,10 +9534,10 @@
         <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E156" t="s">
         <v>275</v>
@@ -9528,10 +9551,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -9539,22 +9562,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E158" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F158" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9565,13 +9588,13 @@
         <v>239</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E159" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9582,13 +9605,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E160" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9599,30 +9622,30 @@
         <v>201</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E161" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E162" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9633,13 +9656,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E163" t="s">
         <v>640</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E163" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9650,10 +9673,10 @@
         <v>319</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E164" t="s">
         <v>343</v>
@@ -9667,10 +9690,10 @@
         <v>312</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E165" t="s">
         <v>343</v>
@@ -9684,10 +9707,10 @@
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E166" t="s">
         <v>343</v>
@@ -9698,13 +9721,13 @@
         <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="C167" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E167" t="s">
         <v>321</v>
@@ -9718,13 +9741,13 @@
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E168" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -9735,47 +9758,47 @@
         <v>316</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E169" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E170" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B171" t="s">
         <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E171" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -9786,13 +9809,13 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
+        <v>652</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E172" t="s">
         <v>649</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E172" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -9803,13 +9826,13 @@
         <v>312</v>
       </c>
       <c r="C173" t="s">
+        <v>652</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E173" t="s">
         <v>649</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E173" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -9817,16 +9840,16 @@
         <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C174" t="s">
+        <v>652</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E174" t="s">
         <v>649</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E174" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9834,33 +9857,33 @@
         <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E175" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B176" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E176" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9871,13 +9894,13 @@
         <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E177" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -9885,16 +9908,16 @@
         <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C178" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E178" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -9905,13 +9928,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E179" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -9919,16 +9942,16 @@
         <v>44</v>
       </c>
       <c r="B180" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E180" t="s">
         <v>659</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E180" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -9939,30 +9962,30 @@
         <v>124</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E181" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E182" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -9973,13 +9996,13 @@
         <v>352</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E183" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -9990,33 +10013,33 @@
         <v>63</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E184" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F184" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E185" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10027,13 +10050,13 @@
         <v>231</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E186" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10044,13 +10067,13 @@
         <v>190</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E187" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="690">
   <si>
     <t>反馈时间</t>
   </si>
@@ -769,391 +769,442 @@
     <t>Unity里的封装用LP打开Lua文件的代码</t>
   </si>
   <si>
+    <t>joaryyu</t>
+  </si>
+  <si>
+    <t>插件化</t>
+  </si>
+  <si>
+    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
+  </si>
+  <si>
+    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
+  </si>
+  <si>
+    <t>2019.8.16</t>
+  </si>
+  <si>
+    <t>呵呵哒(475773235)</t>
+  </si>
+  <si>
+    <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
+  </si>
+  <si>
+    <t>监视窗口对象显示元表</t>
+  </si>
+  <si>
+    <t>2019.8.18</t>
+  </si>
+  <si>
+    <t>双击打开文件无法用Alt+Right导航</t>
+  </si>
+  <si>
+    <t>显示竖线</t>
+  </si>
+  <si>
+    <t>输入else elseif时，建议能自动缩进一下。</t>
+  </si>
+  <si>
+    <t>从外部拖动文件到文件夹时复制文件过去</t>
+  </si>
+  <si>
+    <t>直接拖文件到Project进行文件复制操作</t>
+  </si>
+  <si>
+    <t>2019.8.19</t>
+  </si>
+  <si>
+    <t>字体间距有点大，希望可以配置字体</t>
+  </si>
+  <si>
+    <t>对于--[[]]这种类型的注释操作的支持</t>
+  </si>
+  <si>
+    <t>Apis目录导致LuaPerfect切换卡顿</t>
+  </si>
+  <si>
+    <t>Profile支持内存快照</t>
+  </si>
+  <si>
+    <t>输入end时对从if到end的代码行进行格式化</t>
+  </si>
+  <si>
+    <t>Alt+Up/Down交换行</t>
+  </si>
+  <si>
+    <t>2019.8.22</t>
+  </si>
+  <si>
+    <t>Go To File对话框可不可以不是模态对话框</t>
+  </si>
+  <si>
+    <t>InstantWatch窗口无法拉伸</t>
+  </si>
+  <si>
+    <t>文件在Sublime里修改后，在LuaPerfect里还是旧的</t>
+  </si>
+  <si>
+    <t>未测试到</t>
+  </si>
+  <si>
+    <t>Go To Line时输入就应该可以跳转，为什么要按OK/Enter才能跳转</t>
+  </si>
+  <si>
+    <t>2019.8.26</t>
+  </si>
+  <si>
+    <t>云碧月(576312419)</t>
+  </si>
+  <si>
+    <t>希望有界面汉化选项</t>
+  </si>
+  <si>
+    <t>ccgo(821869798)</t>
+  </si>
+  <si>
+    <t>输入法还是不跟光标，同事用搜狗可以跟光标</t>
+  </si>
+  <si>
+    <t>可以加一下vs里面的对齐虚线吗？这样看起来可读性更好</t>
+  </si>
+  <si>
+    <t>Out of control(1072739809)</t>
+  </si>
+  <si>
+    <t>修改代码后再撤回仍旧显示脚本为修改状态？</t>
+  </si>
+  <si>
+    <t>查找结果界面能弄个折叠功能吗?</t>
+  </si>
+  <si>
+    <t>2019.8.27</t>
+  </si>
+  <si>
+    <t>上边的tab栏能否像vscode和sublime那样有个滑动功能呢</t>
+  </si>
+  <si>
+    <t>Ctrl + Backspace是一个词一个词往前删，Ctrl + Delete是一个词一个词往后删</t>
+  </si>
+  <si>
+    <t>VS里在{和}旁边按下Ctrl+}会触发作用域跳变</t>
+  </si>
+  <si>
+    <t>选中或查找一个字段后 ,  在侧栏滚动框里 显示所有相同字段提示</t>
+  </si>
+  <si>
+    <t>建议加上ctrl + enter 是往下空一行 ,  ctrl + shift + enter 是往上空一行</t>
+  </si>
+  <si>
+    <t>字体和vscode比貌似有些不够清晰，是否背景色的问题，允许自定义背景色？</t>
+  </si>
+  <si>
+    <t>2019.8.29</t>
+  </si>
+  <si>
+    <t>豫州(705320280)</t>
+  </si>
+  <si>
+    <t>希望提供一个不指定端口号时自动连接当前空闲端口的功能</t>
+  </si>
+  <si>
+    <t>内存快照</t>
+  </si>
+  <si>
+    <t>TreeView改进，增加快捷键和dragdrop</t>
+  </si>
+  <si>
+    <t>多光标支持</t>
+  </si>
+  <si>
+    <t>ShaopingCui(282744037)</t>
+  </si>
+  <si>
+    <t>优化内存占用</t>
+  </si>
+  <si>
+    <t>soft_koko(301056266)</t>
+  </si>
+  <si>
+    <t>提供LuaLint的功能</t>
+  </si>
+  <si>
+    <t>2019.9.2</t>
+  </si>
+  <si>
+    <t>官方网站申请下恢复访问</t>
+  </si>
+  <si>
+    <t>2019.9.3</t>
+  </si>
+  <si>
+    <t>Options &gt; Lua Extensions操作不方便，建议整合配置界面</t>
+  </si>
+  <si>
+    <t>标签可以支持中键点击关闭么</t>
+  </si>
+  <si>
+    <t>跳转判断了类型和名字，没判断函数参数个数</t>
+  </si>
+  <si>
+    <t>写个完整的指引文档</t>
+  </si>
+  <si>
+    <t>LP挂在后台没注意，第二天运行工程一跑到某个地方就卡死，后来怀疑人生的半天发现是LP给打断点了</t>
+  </si>
+  <si>
+    <t>需要测试一下</t>
+  </si>
+  <si>
+    <t>lp在做变量watch的时候，会触发一些错误，因为我们修改_G的__index行为，全局变量必须先set了，才能get</t>
+  </si>
+  <si>
+    <t>goto如果带行号，可以自动跳转到对应行</t>
+  </si>
+  <si>
+    <t>eagle(593129057)</t>
+  </si>
+  <si>
+    <t>每次启动Unity，IDE就未响应了</t>
+  </si>
+  <si>
+    <t>据说是Unity持续打开很久之后会这样</t>
+  </si>
+  <si>
+    <t>shift  + tab和shift + ctrl + f在Win10默认输入法下无效</t>
+  </si>
+  <si>
+    <t>成都-大红花(1101677597)</t>
+  </si>
+  <si>
+    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！</t>
+  </si>
+  <si>
+    <t>我用的module（）这种关键字，代码跳转，引用还有待提高。</t>
+  </si>
+  <si>
+    <t>1564179138(1564179138)</t>
+  </si>
+  <si>
+    <t>手册上说明要print=_saved_print，现在已经不需要了，要同步文档</t>
+  </si>
+  <si>
+    <t>2019.9.4</t>
+  </si>
+  <si>
+    <t>王炜(315135974)</t>
+  </si>
+  <si>
+    <t>SLua项目会提示SLua名称空间不可用</t>
+  </si>
+  <si>
+    <t>wyh(383133507)</t>
+  </si>
+  <si>
+    <t>启动就会挂掉，会提示保存了dmp，tolua1.0.5，dmp已接收</t>
+  </si>
+  <si>
+    <t>已查看dmp，dump在kernel里，堆栈已无效</t>
+  </si>
+  <si>
+    <t>package.cpath = package.cpath .. ";Assets/Externals/LuaPerfect/?.dll"   debug的dll的位置可以自己指定，这个可以写到文档里面</t>
+  </si>
+  <si>
+    <t>启动就会挂掉，会提示保存了dmp，dmp已接收</t>
+  </si>
+  <si>
+    <t>已查看dmp，dump在mono里，堆栈已无效</t>
+  </si>
+  <si>
+    <t>这个then之后回车end，这个end能自动缩进回去么</t>
+  </si>
+  <si>
+    <t>当所有自上一次保存之后的修改都被撤销之后，这个星号可以自动消失么</t>
+  </si>
+  <si>
+    <t>生姜(289609362)</t>
+  </si>
+  <si>
+    <t>能单独打开一个文本文件吗，作为一个普通的文本编辑器使用</t>
+  </si>
+  <si>
+    <t>无法正常自动更新，能访问更新的机器的网站，LP无法访问更新</t>
+  </si>
+  <si>
+    <t>晓刚(68002759)</t>
+  </si>
+  <si>
+    <t>有计划开源吗？</t>
+  </si>
+  <si>
+    <t>编辑区突然不见了，点击文件也打不开，关了重启出来了</t>
+  </si>
+  <si>
+    <t>vs的快捷键和鼠标键的forward和backward规则会不一样</t>
+  </si>
+  <si>
+    <t>清雨慢思茶(88018806)</t>
+  </si>
+  <si>
+    <t>鼠标滚轮点击标签直接关闭</t>
+  </si>
+  <si>
+    <t>Stubborn-杨(1564741942)</t>
+  </si>
+  <si>
+    <t>同时有同名的.lua和.lua.bytes时，自动忽略不是文本的那个</t>
+  </si>
+  <si>
+    <t>2019.9.5</t>
+  </si>
+  <si>
+    <t>酒弎(447011583)</t>
+  </si>
+  <si>
+    <t>可以点击unity里的lua脚本直接弹出来这个脚本就好了</t>
+  </si>
+  <si>
+    <t>整理Unity里点击直接弹出lua脚本的功能的文档</t>
+  </si>
+  <si>
+    <t>全局搜索界面搜到的窗口希望可以折叠</t>
+  </si>
+  <si>
+    <t>快乐工作，快乐生活</t>
+  </si>
+  <si>
+    <t>这个工具能运行普通的lua文件，不和框架绑定吗</t>
+  </si>
+  <si>
+    <t>有时突然不能ctrl-z了</t>
+  </si>
+  <si>
+    <t>怀疑与同时使用其他编辑器有关?</t>
+  </si>
+  <si>
+    <t>白客(1003781706)</t>
+  </si>
+  <si>
+    <t>有时格式化后ctrl z无效</t>
+  </si>
+  <si>
+    <t>843157705(843157705)</t>
+  </si>
+  <si>
+    <t>ctr+R重命名后按回车有时候会无效（只支持局部变量和全局变量）</t>
+  </si>
+  <si>
+    <t>提供一个调试前脚本</t>
+  </si>
+  <si>
+    <t>能提供GeneralTest的源码吗</t>
+  </si>
+  <si>
+    <t>用了LP，Tim貌似经常自动切换到忙碌</t>
+  </si>
+  <si>
+    <t>watch里table最好能在顶部有一个count</t>
+  </si>
+  <si>
+    <t>有没有办法实现立即窗口的功能</t>
+  </si>
+  <si>
+    <t>while do，do在单独的行时，格式化会有问题</t>
+  </si>
+  <si>
+    <t>2019.9.9</t>
+  </si>
+  <si>
+    <t>print会报错</t>
+  </si>
+  <si>
+    <t>2019.9.12</t>
+  </si>
+  <si>
+    <t>XLua看不了SystemInfo.batteryLevel</t>
+  </si>
+  <si>
+    <t>2019.9.10</t>
+  </si>
+  <si>
+    <t>unity编辑器偶然出来dmp失败，和游戏没关系，我甚至都还没启动，建议hook lua_close</t>
+  </si>
+  <si>
+    <t>Halo(958708323)</t>
+  </si>
+  <si>
+    <t>有些mono代码提示不全</t>
+  </si>
+  <si>
+    <t>来一起吸猫呀(445548910)</t>
+  </si>
+  <si>
+    <t>有没有mac版本</t>
+  </si>
+  <si>
+    <t>可以考虑SDL/bgfx做跨平台</t>
+  </si>
+  <si>
+    <t>连续3击全选的功能</t>
+  </si>
+  <si>
+    <t>直接进入上次打开的工程的配置（Always Open Last Project）</t>
+  </si>
+  <si>
+    <t>2019.9.17</t>
+  </si>
+  <si>
+    <t>夏(805433354)</t>
+  </si>
+  <si>
+    <t>希望可以支持vim方式</t>
+  </si>
+  <si>
+    <t>xwwwww(2332096068)</t>
+  </si>
+  <si>
+    <t>o(∩_∩)o(772799068)</t>
+  </si>
+  <si>
+    <t>希望可以支持中文界面</t>
+  </si>
+  <si>
+    <t>yyyhhhyyy(380826719)</t>
+  </si>
+  <si>
+    <t>希望可以支持插件架构</t>
+  </si>
+  <si>
+    <t>2019.9.16</t>
+  </si>
+  <si>
     <t>joary</t>
   </si>
   <si>
-    <t>插件化</t>
-  </si>
-  <si>
-    <t>做个设置面板，或者把所有配置都放在一个配置文件里</t>
-  </si>
-  <si>
-    <t>ctrl + p. ctrl +shift + r那几个文件、函数查找的匹配规则，希望能优化下</t>
-  </si>
-  <si>
-    <t>2019.8.16</t>
-  </si>
-  <si>
-    <t>呵呵哒(475773235)</t>
-  </si>
-  <si>
-    <t>选中后的颜色能改一下吗，看不清(R7 Theme)</t>
-  </si>
-  <si>
-    <t>监视窗口对象显示元表</t>
-  </si>
-  <si>
-    <t>2019.8.18</t>
-  </si>
-  <si>
-    <t>双击打开文件无法用Alt+Right导航</t>
-  </si>
-  <si>
-    <t>显示竖线</t>
-  </si>
-  <si>
-    <t>输入else elseif时，建议能自动缩进一下。</t>
-  </si>
-  <si>
-    <t>从外部拖动文件到文件夹时复制文件过去</t>
-  </si>
-  <si>
-    <t>直接拖文件到Project进行文件复制操作</t>
-  </si>
-  <si>
-    <t>2019.8.19</t>
-  </si>
-  <si>
-    <t>字体间距有点大，希望可以配置字体</t>
-  </si>
-  <si>
-    <t>对于--[[]]这种类型的注释操作的支持</t>
-  </si>
-  <si>
-    <t>Apis目录导致LuaPerfect切换卡顿</t>
-  </si>
-  <si>
-    <t>Profile支持内存快照</t>
-  </si>
-  <si>
-    <t>输入end时对从if到end的代码行进行格式化</t>
-  </si>
-  <si>
-    <t>Alt+Up/Down交换行</t>
-  </si>
-  <si>
-    <t>2019.8.22</t>
-  </si>
-  <si>
-    <t>Go To File对话框可不可以不是模态对话框</t>
-  </si>
-  <si>
-    <t>InstantWatch窗口无法拉伸</t>
-  </si>
-  <si>
-    <t>文件在Sublime里修改后，在LuaPerfect里还是旧的</t>
-  </si>
-  <si>
-    <t>未测试到</t>
-  </si>
-  <si>
-    <t>Go To Line时输入就应该可以跳转，为什么要按OK/Enter才能跳转</t>
-  </si>
-  <si>
-    <t>2019.8.26</t>
-  </si>
-  <si>
-    <t>云碧月(576312419)</t>
-  </si>
-  <si>
-    <t>希望有界面汉化选项</t>
-  </si>
-  <si>
-    <t>ccgo(821869798)</t>
-  </si>
-  <si>
-    <t>输入法还是不跟光标，同事用搜狗可以跟光标</t>
-  </si>
-  <si>
-    <t>可以加一下vs里面的对齐虚线吗？这样看起来可读性更好</t>
-  </si>
-  <si>
-    <t>Out of control(1072739809)</t>
-  </si>
-  <si>
-    <t>修改代码后再撤回仍旧显示脚本为修改状态？</t>
-  </si>
-  <si>
-    <t>查找结果界面能弄个折叠功能吗?</t>
-  </si>
-  <si>
-    <t>2019.8.27</t>
-  </si>
-  <si>
-    <t>上边的tab栏能否像vscode和sublime那样有个滑动功能呢</t>
-  </si>
-  <si>
-    <t>Ctrl + Backspace是一个词一个词往前删，Ctrl + Delete是一个词一个词往后删</t>
-  </si>
-  <si>
-    <t>VS里在{和}旁边按下Ctrl+}会触发作用域跳变</t>
-  </si>
-  <si>
-    <t>选中或查找一个字段后 ,  在侧栏滚动框里 显示所有相同字段提示</t>
-  </si>
-  <si>
-    <t>建议加上ctrl + enter 是往下空一行 ,  ctrl + shift + enter 是往上空一行</t>
-  </si>
-  <si>
-    <t>字体和vscode比貌似有些不够清晰，是否背景色的问题，允许自定义背景色？</t>
-  </si>
-  <si>
-    <t>2019.8.29</t>
-  </si>
-  <si>
-    <t>豫州(705320280)</t>
-  </si>
-  <si>
-    <t>希望提供一个不指定端口号时自动连接当前空闲端口的功能</t>
-  </si>
-  <si>
-    <t>内存快照</t>
-  </si>
-  <si>
-    <t>TreeView改进，增加快捷键和dragdrop</t>
-  </si>
-  <si>
-    <t>多光标支持</t>
-  </si>
-  <si>
-    <t>ShaopingCui(282744037)</t>
-  </si>
-  <si>
-    <t>优化内存占用</t>
-  </si>
-  <si>
-    <t>soft_koko(301056266)</t>
-  </si>
-  <si>
-    <t>提供LuaLint的功能</t>
-  </si>
-  <si>
-    <t>2019.9.2</t>
-  </si>
-  <si>
-    <t>官方网站申请下恢复访问</t>
-  </si>
-  <si>
-    <t>2019.9.3</t>
-  </si>
-  <si>
-    <t>Options &gt; Lua Extensions操作不方便，建议整合配置界面</t>
-  </si>
-  <si>
-    <t>标签可以支持中键点击关闭么</t>
-  </si>
-  <si>
-    <t>跳转判断了类型和名字，没判断函数参数个数</t>
-  </si>
-  <si>
-    <t>写个完整的指引文档</t>
-  </si>
-  <si>
-    <t>LP挂在后台没注意，第二天运行工程一跑到某个地方就卡死，后来怀疑人生的半天发现是LP给打断点了</t>
-  </si>
-  <si>
-    <t>需要测试一下</t>
-  </si>
-  <si>
-    <t>lp在做变量watch的时候，会触发一些错误，因为我们修改_G的__index行为，全局变量必须先set了，才能get</t>
-  </si>
-  <si>
-    <t>goto如果带行号，可以自动跳转到对应行</t>
-  </si>
-  <si>
-    <t>eagle(593129057)</t>
-  </si>
-  <si>
-    <t>每次启动Unity，IDE就未响应了</t>
-  </si>
-  <si>
-    <t>据说是Unity持续打开很久之后会这样</t>
-  </si>
-  <si>
-    <t>shift  + tab和shift + ctrl + f在Win10默认输入法下无效</t>
-  </si>
-  <si>
-    <t>成都-大红花(1101677597)</t>
-  </si>
-  <si>
-    <t>代码跳转，引用还有待提高。跳转需要在多个文件中选择，不能直接跳转到目标函数！应该是无法解析目标函数的原因！</t>
-  </si>
-  <si>
-    <t>我用的module（）这种关键字，代码跳转，引用还有待提高。</t>
-  </si>
-  <si>
-    <t>1564179138(1564179138)</t>
-  </si>
-  <si>
-    <t>手册上说明要print=_saved_print，现在已经不需要了，要同步文档</t>
-  </si>
-  <si>
-    <t>2019.9.4</t>
-  </si>
-  <si>
-    <t>王炜(315135974)</t>
-  </si>
-  <si>
-    <t>SLua项目会提示SLua名称空间不可用</t>
-  </si>
-  <si>
-    <t>wyh(383133507)</t>
-  </si>
-  <si>
-    <t>启动就会挂掉，会提示保存了dmp，tolua1.0.5，dmp已接收</t>
-  </si>
-  <si>
-    <t>已查看dmp，dump在kernel里，堆栈已无效</t>
-  </si>
-  <si>
-    <t>package.cpath = package.cpath .. ";Assets/Externals/LuaPerfect/?.dll"   debug的dll的位置可以自己指定，这个可以写到文档里面</t>
-  </si>
-  <si>
-    <t>启动就会挂掉，会提示保存了dmp，dmp已接收</t>
-  </si>
-  <si>
-    <t>已查看dmp，dump在mono里，堆栈已无效</t>
-  </si>
-  <si>
-    <t>这个then之后回车end，这个end能自动缩进回去么</t>
-  </si>
-  <si>
-    <t>当所有自上一次保存之后的修改都被撤销之后，这个星号可以自动消失么</t>
-  </si>
-  <si>
-    <t>生姜(289609362)</t>
-  </si>
-  <si>
-    <t>能单独打开一个文本文件吗，作为一个普通的文本编辑器使用</t>
-  </si>
-  <si>
-    <t>无法正常自动更新，能访问更新的机器的网站，LP无法访问更新</t>
-  </si>
-  <si>
-    <t>晓刚(68002759)</t>
-  </si>
-  <si>
-    <t>有计划开源吗？</t>
-  </si>
-  <si>
-    <t>编辑区突然不见了，点击文件也打不开，关了重启出来了</t>
-  </si>
-  <si>
-    <t>vs的快捷键和鼠标键的forward和backward规则会不一样</t>
-  </si>
-  <si>
-    <t>清雨慢思茶(88018806)</t>
-  </si>
-  <si>
-    <t>鼠标滚轮点击标签直接关闭</t>
-  </si>
-  <si>
-    <t>Stubborn-杨(1564741942)</t>
-  </si>
-  <si>
-    <t>同时有同名的.lua和.lua.bytes时，自动忽略不是文本的那个</t>
-  </si>
-  <si>
-    <t>2019.9.5</t>
-  </si>
-  <si>
-    <t>酒弎(447011583)</t>
-  </si>
-  <si>
-    <t>可以点击unity里的lua脚本直接弹出来这个脚本就好了</t>
-  </si>
-  <si>
-    <t>整理Unity里点击直接弹出lua脚本的功能的文档</t>
-  </si>
-  <si>
-    <t>全局搜索界面搜到的窗口希望可以折叠</t>
-  </si>
-  <si>
-    <t>快乐工作，快乐生活</t>
-  </si>
-  <si>
-    <t>这个工具能运行普通的lua文件，不和框架绑定吗</t>
-  </si>
-  <si>
-    <t>有时突然不能ctrl-z了</t>
-  </si>
-  <si>
-    <t>怀疑与同时使用其他编辑器有关?</t>
-  </si>
-  <si>
-    <t>白客(1003781706)</t>
-  </si>
-  <si>
-    <t>有时格式化后ctrl z无效</t>
-  </si>
-  <si>
-    <t>843157705(843157705)</t>
-  </si>
-  <si>
-    <t>ctr+R重命名后按回车有时候会无效（只支持局部变量和全局变量）</t>
-  </si>
-  <si>
-    <t>提供一个调试前脚本</t>
-  </si>
-  <si>
-    <t>能提供GeneralTest的源码吗</t>
-  </si>
-  <si>
-    <t>用了LP，Tim貌似经常自动切换到忙碌</t>
-  </si>
-  <si>
-    <t>watch里table最好能在顶部有一个count</t>
-  </si>
-  <si>
-    <t>有没有办法实现立即窗口的功能</t>
-  </si>
-  <si>
-    <t>while do，do在单独的行时，格式化会有问题</t>
-  </si>
-  <si>
-    <t>2019.9.9</t>
-  </si>
-  <si>
-    <t>print会报错</t>
-  </si>
-  <si>
-    <t>2019.9.12</t>
-  </si>
-  <si>
-    <t>XLua看不了SystemInfo.batteryLevel</t>
-  </si>
-  <si>
-    <t>2019.9.10</t>
-  </si>
-  <si>
-    <t>unity编辑器偶然出来dmp失败，和游戏没关系，我甚至都还没启动，建议hook lua_close</t>
-  </si>
-  <si>
-    <t>Halo(958708323)</t>
-  </si>
-  <si>
-    <t>有些mono代码提示不全</t>
-  </si>
-  <si>
-    <t>来一起吸猫呀(445548910)</t>
-  </si>
-  <si>
-    <t>有没有mac版本</t>
-  </si>
-  <si>
-    <t>可以考虑SDL/bgfx做跨平台</t>
-  </si>
-  <si>
-    <t>连续3击全选的功能</t>
-  </si>
-  <si>
-    <t>直接进入上次打开的工程的配置（Always Open Last Project）</t>
-  </si>
-  <si>
-    <t>2019.9.16</t>
-  </si>
-  <si>
     <t>希望可以支持vi的操作方式</t>
+  </si>
+  <si>
+    <t>有的地方输入true,false都会卡</t>
+  </si>
+  <si>
+    <t>有没有办法查找引用</t>
+  </si>
+  <si>
+    <t>断点断不了,要在DoFile里传文件名才行</t>
+  </si>
+  <si>
+    <t>大鹏(67915642)</t>
+  </si>
+  <si>
+    <t>可以远程调试么？</t>
+  </si>
+  <si>
+    <t>下段点的时候，吃个饭回来就出现dmp了</t>
+  </si>
+  <si>
+    <t>提供修改代码窗背景色的功能</t>
+  </si>
+  <si>
+    <t>表格的key不应该属于全局变量吧，这里解析有问题</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -1867,9 +1918,6 @@
   </si>
   <si>
     <t>快捷键可以自定义</t>
-  </si>
-  <si>
-    <t>joaryyu</t>
   </si>
   <si>
     <t>调整project视图右键菜单顺序，Find In Folder放第一位</t>
@@ -2057,10 +2105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2124,57 +2172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2183,25 +2180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2231,7 +2211,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2242,6 +2229,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2260,6 +2255,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2270,7 +2318,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2288,7 +2366,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,55 +2456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,67 +2480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2438,19 +2498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,27 +2512,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2505,44 +2542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2561,6 +2565,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2569,10 +2617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2581,133 +2629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3105,10 +3153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6750,12 +6798,180 @@
         <v>375</v>
       </c>
       <c r="B226" t="s">
-        <v>248</v>
-      </c>
-      <c r="C226" s="8" t="s">
         <v>376</v>
       </c>
+      <c r="C226" t="s">
+        <v>377</v>
+      </c>
       <c r="D226" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B227" t="s">
+        <v>378</v>
+      </c>
+      <c r="C227" t="s">
+        <v>377</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B228" t="s">
+        <v>379</v>
+      </c>
+      <c r="C228" t="s">
+        <v>380</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+      <c r="C229" t="s">
+        <v>382</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B230" t="s">
+        <v>381</v>
+      </c>
+      <c r="C230" t="s">
+        <v>377</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B231" t="s">
+        <v>384</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B232" t="s">
+        <v>368</v>
+      </c>
+      <c r="C232" t="s">
+        <v>386</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B233" t="s">
+        <v>184</v>
+      </c>
+      <c r="C233" t="s">
+        <v>387</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B234" t="s">
+        <v>312</v>
+      </c>
+      <c r="C234" t="s">
+        <v>388</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B235" t="s">
+        <v>389</v>
+      </c>
+      <c r="C235" t="s">
+        <v>390</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" t="s">
+        <v>391</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" t="s">
+        <v>392</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C238" t="s">
+        <v>393</v>
+      </c>
+      <c r="D238" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6770,8 +6986,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6805,84 +7021,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -6890,16 +7106,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -6907,19 +7123,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -6930,10 +7146,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -6947,10 +7163,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -6964,10 +7180,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -6981,10 +7197,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -6998,13 +7214,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -7015,10 +7231,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7032,13 +7248,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7049,84 +7265,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7137,16 +7353,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7157,16 +7373,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7177,161 +7393,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E26" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F26" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E27" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E29" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E30" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C31" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E31" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -7342,10 +7558,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -7359,10 +7575,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -7376,10 +7592,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -7393,10 +7609,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -7404,36 +7620,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E36" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E37" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7444,10 +7660,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7455,16 +7671,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7478,13 +7694,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E40" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7495,13 +7711,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E41" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7512,13 +7728,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E42" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7529,13 +7745,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7546,10 +7762,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7563,13 +7779,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E45" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7580,16 +7796,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7600,13 +7816,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E47" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7617,10 +7833,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7628,142 +7844,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B49" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C49" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F49" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B50" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C50" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B51" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C51" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F51" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B52" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C52" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F52" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B53" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="C53" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="F53" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B54" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="C54" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E55" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="F55" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7774,16 +7990,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
+        <v>496</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -7794,16 +8010,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -7814,16 +8030,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -7834,16 +8050,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E59" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -7854,16 +8070,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -7874,96 +8090,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E62" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F62" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E63" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="F63" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E65" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F65" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -7974,16 +8190,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -7994,16 +8210,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -8014,47 +8230,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E69" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -8062,16 +8278,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -8079,16 +8295,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B72" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C72" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -8096,39 +8312,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B73" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="C73" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E73" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E74" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="F74" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -8139,13 +8355,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E75" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -8156,64 +8372,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E76" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E77" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="F77" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E78" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -8221,16 +8437,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="C80" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -8238,73 +8454,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E81" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E82" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E83" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="C84" t="s">
-        <v>532</v>
+        <v>549</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E84" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="F84" t="s">
-        <v>533</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -8315,16 +8531,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E85" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="F85" t="s">
-        <v>535</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -8335,10 +8551,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -8346,22 +8562,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -8372,16 +8588,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -8392,10 +8608,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -8406,13 +8622,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8420,19 +8636,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>544</v>
+        <v>561</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E91" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8443,10 +8659,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8460,16 +8676,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8480,10 +8696,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8497,10 +8713,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E95" t="s">
         <v>151</v>
@@ -8514,10 +8730,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E96" t="s">
         <v>151</v>
@@ -8525,16 +8741,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="B97" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E97" t="s">
         <v>151</v>
@@ -8548,10 +8764,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
         <v>151</v>
@@ -8562,16 +8778,16 @@
         <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E99" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8582,13 +8798,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E100" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8599,10 +8815,10 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E101" t="s">
         <v>154</v>
@@ -8616,10 +8832,10 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E102" t="s">
         <v>159</v>
@@ -8633,10 +8849,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E103" t="s">
         <v>163</v>
@@ -8650,10 +8866,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E104" t="s">
         <v>163</v>
@@ -8664,13 +8880,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -8684,13 +8900,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E106" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8701,13 +8917,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E107" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8718,30 +8934,30 @@
         <v>144</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E108" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E109" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8752,13 +8968,13 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E110" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8769,13 +8985,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E111" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -8783,16 +8999,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>574</v>
+        <v>591</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E112" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -8803,30 +9019,30 @@
         <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E113" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="B114" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="C114" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E114" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8837,10 +9053,10 @@
         <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E115" t="s">
         <v>213</v>
@@ -8854,10 +9070,10 @@
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E116" t="s">
         <v>229</v>
@@ -8868,13 +9084,13 @@
         <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C117" t="s">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E117" t="s">
         <v>229</v>
@@ -8882,19 +9098,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E118" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8905,13 +9121,13 @@
         <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E119" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8922,10 +9138,10 @@
         <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E120" t="s">
         <v>213</v>
@@ -8933,19 +9149,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="B121" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C121" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E121" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8953,16 +9169,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E122" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -8970,16 +9186,16 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E123" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -8987,16 +9203,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E124" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -9007,13 +9223,13 @@
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E125" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9024,13 +9240,13 @@
         <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E126" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9041,13 +9257,13 @@
         <v>214</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E127" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9055,13 +9271,13 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="C128" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E128" t="s">
         <v>238</v>
@@ -9075,10 +9291,10 @@
         <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E129" t="s">
         <v>252</v>
@@ -9092,10 +9308,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E130" t="s">
         <v>252</v>
@@ -9109,30 +9325,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E131" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E132" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -9143,13 +9359,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E133" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9160,44 +9376,44 @@
         <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E134" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="B135" t="s">
         <v>239</v>
       </c>
       <c r="C135" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E135" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="B136" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C136" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E136" t="s">
         <v>256</v>
@@ -9211,10 +9427,10 @@
         <v>208</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E137" t="s">
         <v>256</v>
@@ -9228,13 +9444,13 @@
         <v>208</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E138" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -9245,13 +9461,13 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E139" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -9259,13 +9475,13 @@
         <v>243</v>
       </c>
       <c r="B140" t="s">
-        <v>613</v>
+        <v>248</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E140" t="s">
         <v>256</v>
@@ -9279,13 +9495,13 @@
         <v>253</v>
       </c>
       <c r="C141" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E141" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -9296,13 +9512,13 @@
         <v>253</v>
       </c>
       <c r="C142" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -9313,13 +9529,13 @@
         <v>253</v>
       </c>
       <c r="C143" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E143" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -9330,10 +9546,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E144" t="s">
         <v>256</v>
@@ -9341,36 +9557,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="B145" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="C145" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="E145" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="B146" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="C146" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E146" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -9381,13 +9597,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E147" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -9398,13 +9614,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E148" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -9415,13 +9631,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E149" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -9432,13 +9648,13 @@
         <v>208</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E150" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -9449,13 +9665,13 @@
         <v>278</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E151" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -9466,13 +9682,13 @@
         <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E152" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9483,13 +9699,13 @@
         <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E153" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9500,13 +9716,13 @@
         <v>231</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E154" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9517,10 +9733,10 @@
         <v>231</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E155" t="s">
         <v>275</v>
@@ -9534,10 +9750,10 @@
         <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E156" t="s">
         <v>275</v>
@@ -9551,10 +9767,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -9562,22 +9778,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E158" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="F158" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9588,13 +9804,13 @@
         <v>239</v>
       </c>
       <c r="C159" t="s">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E159" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9605,13 +9821,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E160" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9622,30 +9838,30 @@
         <v>201</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>641</v>
+        <v>657</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E161" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>642</v>
+        <v>658</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E162" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9656,13 +9872,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E163" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9673,10 +9889,10 @@
         <v>319</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E164" t="s">
         <v>343</v>
@@ -9690,10 +9906,10 @@
         <v>312</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E165" t="s">
         <v>343</v>
@@ -9707,10 +9923,10 @@
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E166" t="s">
         <v>343</v>
@@ -9721,13 +9937,13 @@
         <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C167" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E167" t="s">
         <v>321</v>
@@ -9741,13 +9957,13 @@
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>648</v>
+        <v>664</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E168" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -9758,47 +9974,47 @@
         <v>316</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E169" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E170" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B171" t="s">
         <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E171" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -9809,13 +10025,13 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E172" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -9826,13 +10042,13 @@
         <v>312</v>
       </c>
       <c r="C173" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E173" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -9840,16 +10056,16 @@
         <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="C174" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E174" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9857,33 +10073,33 @@
         <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E175" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="B176" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E176" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9894,13 +10110,13 @@
         <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E177" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -9908,16 +10124,16 @@
         <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="C178" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E178" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -9928,13 +10144,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E179" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -9942,16 +10158,16 @@
         <v>44</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E180" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -9962,30 +10178,30 @@
         <v>124</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E181" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E182" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -9996,13 +10212,13 @@
         <v>352</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E183" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10013,33 +10229,33 @@
         <v>63</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E184" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="F184" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E185" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10050,13 +10266,13 @@
         <v>231</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E186" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10067,13 +10283,13 @@
         <v>190</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="E187" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="691">
   <si>
     <t>反馈时间</t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t>表格的key不应该属于全局变量吧，这里解析有问题</t>
+  </si>
+  <si>
+    <t>默认配色颜色太乱</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -2105,10 +2108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2165,36 +2168,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2210,25 +2183,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2237,37 +2196,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,7 +2216,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2303,7 +2291,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2318,7 +2321,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,13 +2363,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,37 +2459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2396,31 +2471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,7 +2489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,61 +2501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,6 +2512,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2544,33 +2580,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2593,19 +2607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2617,10 +2620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2629,133 +2632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3153,10 +3156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+      <selection activeCell="A239" sqref="A239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6972,6 +6975,20 @@
         <v>393</v>
       </c>
       <c r="D238" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B239" t="s">
+        <v>368</v>
+      </c>
+      <c r="C239" t="s">
+        <v>394</v>
+      </c>
+      <c r="D239" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7021,84 +7038,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -7106,16 +7123,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -7123,19 +7140,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -7146,10 +7163,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -7163,10 +7180,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -7180,10 +7197,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -7197,10 +7214,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -7214,13 +7231,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -7231,10 +7248,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7248,13 +7265,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7265,84 +7282,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>423</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7353,16 +7370,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7373,16 +7390,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7393,161 +7410,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E26" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F26" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" t="s">
         <v>448</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E28" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E30" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -7558,10 +7575,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -7575,10 +7592,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -7592,10 +7609,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -7609,10 +7626,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -7620,36 +7637,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
+        <v>460</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" t="s">
         <v>459</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E36" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E37" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7660,10 +7677,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7671,16 +7688,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7694,13 +7711,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E40" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7711,13 +7728,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E41" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7728,13 +7745,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E42" t="s">
         <v>467</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E42" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7745,13 +7762,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E43" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7762,10 +7779,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7779,13 +7796,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E45" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7796,16 +7813,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7816,13 +7833,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7833,10 +7850,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7844,142 +7861,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B49" t="s">
+        <v>478</v>
+      </c>
+      <c r="C49" t="s">
+        <v>479</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C49" t="s">
-        <v>478</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="F49" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B50" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C51" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F51" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F52" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C53" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F53" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F55" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -7990,16 +8007,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -8010,16 +8027,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -8030,16 +8047,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -8050,16 +8067,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E59" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F59" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -8070,16 +8087,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -8090,96 +8107,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F62" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F63" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F65" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -8190,16 +8207,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -8210,16 +8227,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -8230,47 +8247,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E69" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -8278,16 +8295,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -8295,16 +8312,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B72" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C72" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -8312,39 +8329,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B73" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C73" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E73" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E74" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F74" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -8355,13 +8372,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E75" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -8372,64 +8389,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E76" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E77" t="s">
         <v>537</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E77" t="s">
-        <v>536</v>
-      </c>
       <c r="F77" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E78" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -8437,16 +8454,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C80" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -8454,73 +8471,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E81" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E82" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C84" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -8531,16 +8548,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E85" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F85" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -8551,10 +8568,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -8562,22 +8579,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -8588,16 +8605,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -8608,10 +8625,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -8622,13 +8639,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8636,19 +8653,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E91" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8659,10 +8676,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8676,16 +8693,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8696,10 +8713,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8713,10 +8730,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E95" t="s">
         <v>151</v>
@@ -8730,10 +8747,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E96" t="s">
         <v>151</v>
@@ -8741,16 +8758,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B97" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E97" t="s">
         <v>151</v>
@@ -8764,10 +8781,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E98" t="s">
         <v>151</v>
@@ -8778,16 +8795,16 @@
         <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E99" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8798,13 +8815,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E100" t="s">
         <v>574</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E100" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8815,10 +8832,10 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E101" t="s">
         <v>154</v>
@@ -8832,10 +8849,10 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E102" t="s">
         <v>159</v>
@@ -8849,10 +8866,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E103" t="s">
         <v>163</v>
@@ -8866,10 +8883,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E104" t="s">
         <v>163</v>
@@ -8880,13 +8897,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -8900,13 +8917,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E106" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8917,13 +8934,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E107" t="s">
         <v>583</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E107" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8934,30 +8951,30 @@
         <v>144</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E108" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E109" t="s">
         <v>587</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E109" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8968,13 +8985,13 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E110" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -8985,13 +9002,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E111" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -8999,16 +9016,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
+        <v>592</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E112" t="s">
         <v>591</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E112" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -9019,30 +9036,30 @@
         <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E113" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B114" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C114" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E114" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -9053,10 +9070,10 @@
         <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E115" t="s">
         <v>213</v>
@@ -9070,10 +9087,10 @@
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E116" t="s">
         <v>229</v>
@@ -9084,13 +9101,13 @@
         <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C117" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E117" t="s">
         <v>229</v>
@@ -9098,19 +9115,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
       </c>
       <c r="C118" t="s">
+        <v>603</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E118" t="s">
         <v>602</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E118" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -9121,13 +9138,13 @@
         <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E119" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9138,10 +9155,10 @@
         <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E120" t="s">
         <v>213</v>
@@ -9149,19 +9166,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B121" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C121" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E121" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9169,16 +9186,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E122" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9186,16 +9203,16 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E123" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -9203,16 +9220,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E124" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -9223,13 +9240,13 @@
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E125" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9240,13 +9257,13 @@
         <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E126" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9257,13 +9274,13 @@
         <v>214</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E127" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9271,13 +9288,13 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C128" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E128" t="s">
         <v>238</v>
@@ -9291,10 +9308,10 @@
         <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E129" t="s">
         <v>252</v>
@@ -9308,10 +9325,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E130" t="s">
         <v>252</v>
@@ -9325,30 +9342,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E131" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" t="s">
         <v>620</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E132" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -9359,13 +9376,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E133" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9376,44 +9393,44 @@
         <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E134" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B135" t="s">
         <v>239</v>
       </c>
       <c r="C135" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E135" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B136" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C136" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E136" t="s">
         <v>256</v>
@@ -9427,10 +9444,10 @@
         <v>208</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E137" t="s">
         <v>256</v>
@@ -9444,13 +9461,13 @@
         <v>208</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E138" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -9461,13 +9478,13 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E139" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -9478,10 +9495,10 @@
         <v>248</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E140" t="s">
         <v>256</v>
@@ -9495,13 +9512,13 @@
         <v>253</v>
       </c>
       <c r="C141" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E141" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -9512,13 +9529,13 @@
         <v>253</v>
       </c>
       <c r="C142" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E142" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -9529,13 +9546,13 @@
         <v>253</v>
       </c>
       <c r="C143" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E143" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -9546,10 +9563,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E144" t="s">
         <v>256</v>
@@ -9557,36 +9574,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B145" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C145" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E145" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
+        <v>638</v>
+      </c>
+      <c r="B146" t="s">
+        <v>596</v>
+      </c>
+      <c r="C146" t="s">
+        <v>639</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E146" t="s">
         <v>637</v>
-      </c>
-      <c r="B146" t="s">
-        <v>595</v>
-      </c>
-      <c r="C146" t="s">
-        <v>638</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E146" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -9597,13 +9614,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E147" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -9614,13 +9631,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
+        <v>642</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E148" t="s">
         <v>641</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E148" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -9631,13 +9648,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E149" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -9648,13 +9665,13 @@
         <v>208</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E150" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -9665,13 +9682,13 @@
         <v>278</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E151" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -9682,13 +9699,13 @@
         <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E152" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9699,13 +9716,13 @@
         <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E153" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9716,13 +9733,13 @@
         <v>231</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E154" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9733,10 +9750,10 @@
         <v>231</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E155" t="s">
         <v>275</v>
@@ -9750,10 +9767,10 @@
         <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E156" t="s">
         <v>275</v>
@@ -9767,10 +9784,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -9778,22 +9795,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E158" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F158" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9804,13 +9821,13 @@
         <v>239</v>
       </c>
       <c r="C159" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E159" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9821,13 +9838,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E160" t="s">
         <v>657</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E160" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9838,30 +9855,30 @@
         <v>201</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E161" t="s">
         <v>657</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E161" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E162" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9872,13 +9889,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E163" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9889,10 +9906,10 @@
         <v>319</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E164" t="s">
         <v>343</v>
@@ -9906,10 +9923,10 @@
         <v>312</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E165" t="s">
         <v>343</v>
@@ -9923,10 +9940,10 @@
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E166" t="s">
         <v>343</v>
@@ -9937,13 +9954,13 @@
         <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C167" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E167" t="s">
         <v>321</v>
@@ -9957,13 +9974,13 @@
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E168" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -9974,47 +9991,47 @@
         <v>316</v>
       </c>
       <c r="C169" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E169" t="s">
         <v>666</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E169" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E170" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B171" t="s">
         <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E171" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -10025,13 +10042,13 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E172" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -10042,13 +10059,13 @@
         <v>312</v>
       </c>
       <c r="C173" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E173" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -10056,16 +10073,16 @@
         <v>321</v>
       </c>
       <c r="B174" t="s">
+        <v>670</v>
+      </c>
+      <c r="C174" t="s">
         <v>669</v>
       </c>
-      <c r="C174" t="s">
-        <v>668</v>
-      </c>
       <c r="D174" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E174" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -10073,33 +10090,33 @@
         <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E175" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B176" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E176" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -10110,13 +10127,13 @@
         <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E177" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -10124,16 +10141,16 @@
         <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C178" t="s">
+        <v>677</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E178" t="s">
         <v>676</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E178" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -10144,13 +10161,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E179" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -10158,16 +10175,16 @@
         <v>44</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E180" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -10178,30 +10195,30 @@
         <v>124</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E181" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E182" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -10212,13 +10229,13 @@
         <v>352</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E183" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10229,33 +10246,33 @@
         <v>63</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E184" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F184" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E185" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10266,13 +10283,13 @@
         <v>231</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E186" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10283,13 +10300,13 @@
         <v>190</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E187" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="16050" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="698">
   <si>
     <t>反馈时间</t>
   </si>
@@ -1210,6 +1210,30 @@
     <t>默认配色颜色太乱</t>
   </si>
   <si>
+    <t>2019.9.18</t>
+  </si>
+  <si>
+    <t>open theme directory菜单</t>
+  </si>
+  <si>
+    <t>2019.9.6</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>Ctrl+P处桶排序可以并行执行</t>
+  </si>
+  <si>
+    <t>对于函数内有多处赋值的，可以只寻找最近的赋值语句</t>
+  </si>
+  <si>
+    <t>格式化后整个文件变色了 其实只修改了一部分</t>
+  </si>
+  <si>
+    <t>Ctrl+P查找时，没加与纯文件名匹配的权重</t>
+  </si>
+  <si>
     <t>2019.1.3</t>
   </si>
   <si>
@@ -2047,9 +2071,6 @@
   </si>
   <si>
     <t>基类的方法不能自动补全，self不提示基类的符号</t>
-  </si>
-  <si>
-    <t>2019.9.6</t>
   </si>
   <si>
     <t>Skip Synchronizing Code始终仍会重新部署dll</t>
@@ -2109,9 +2130,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2168,6 +2189,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2183,11 +2218,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2216,28 +2274,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2252,15 +2296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2282,24 +2318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2321,13 +2342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,7 +2360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2351,25 +2384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2381,91 +2414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,25 +2432,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2524,6 +2545,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2535,6 +2571,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2563,21 +2614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2585,21 +2621,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2620,10 +2641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2632,133 +2653,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3156,10 +3177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F239"/>
+  <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" topLeftCell="C223" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6992,6 +7013,73 @@
         <v>9</v>
       </c>
     </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B240" t="s">
+        <v>64</v>
+      </c>
+      <c r="C240" t="s">
+        <v>396</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>397</v>
+      </c>
+      <c r="B241" t="s">
+        <v>398</v>
+      </c>
+      <c r="C241" t="s">
+        <v>399</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>397</v>
+      </c>
+      <c r="B242" t="s">
+        <v>398</v>
+      </c>
+      <c r="C242" t="s">
+        <v>400</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B243" t="s">
+        <v>379</v>
+      </c>
+      <c r="C243" t="s">
+        <v>401</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" t="s">
+        <v>322</v>
+      </c>
+      <c r="C244" t="s">
+        <v>402</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7003,7 +7091,7 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
@@ -7038,84 +7126,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -7123,16 +7211,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -7140,19 +7228,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -7163,10 +7251,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -7180,10 +7268,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -7197,10 +7285,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -7214,10 +7302,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -7231,13 +7319,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -7248,10 +7336,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7265,13 +7353,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7282,84 +7370,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F20" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7370,16 +7458,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7390,16 +7478,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7410,161 +7498,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="C24" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F24" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E26" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E27" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E29" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E30" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B31" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -7575,10 +7663,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -7592,10 +7680,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -7609,10 +7697,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -7626,10 +7714,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -7637,36 +7725,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E36" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E37" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7677,10 +7765,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7688,16 +7776,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7711,13 +7799,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E40" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7728,13 +7816,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E41" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7745,13 +7833,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E42" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7762,13 +7850,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E43" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7779,10 +7867,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7796,13 +7884,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E45" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7813,16 +7901,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7833,13 +7921,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E47" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7850,10 +7938,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7861,142 +7949,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B49" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C49" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F49" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B50" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C50" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B51" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C51" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F51" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B52" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C52" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F52" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B53" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="F53" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B54" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="C54" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E55" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="F55" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -8007,16 +8095,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -8027,16 +8115,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -8047,16 +8135,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -8067,16 +8155,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E59" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="F59" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -8087,16 +8175,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -8107,96 +8195,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E62" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E65" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F65" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -8207,16 +8295,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -8227,16 +8315,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -8247,47 +8335,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E69" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -8295,16 +8383,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -8312,16 +8400,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C72" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -8329,39 +8417,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B73" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="C73" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E73" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E74" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F74" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -8372,13 +8460,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E75" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -8389,64 +8477,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E76" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E77" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="F77" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E78" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -8454,16 +8542,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="C80" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -8471,73 +8559,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E82" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E83" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B84" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="C84" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E84" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F84" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -8548,16 +8636,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E85" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="F85" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -8568,10 +8656,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -8579,22 +8667,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -8605,16 +8693,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -8625,10 +8713,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -8639,13 +8727,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8653,19 +8741,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E91" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8676,10 +8764,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8693,16 +8781,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8713,10 +8801,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8730,10 +8818,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E95" t="s">
         <v>151</v>
@@ -8747,10 +8835,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E96" t="s">
         <v>151</v>
@@ -8758,16 +8846,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B97" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E97" t="s">
         <v>151</v>
@@ -8781,10 +8869,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E98" t="s">
         <v>151</v>
@@ -8795,16 +8883,16 @@
         <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E99" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8815,13 +8903,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E100" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8832,10 +8920,10 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E101" t="s">
         <v>154</v>
@@ -8849,10 +8937,10 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E102" t="s">
         <v>159</v>
@@ -8866,10 +8954,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E103" t="s">
         <v>163</v>
@@ -8883,10 +8971,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E104" t="s">
         <v>163</v>
@@ -8897,13 +8985,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -8917,13 +9005,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -8934,13 +9022,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E107" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -8951,30 +9039,30 @@
         <v>144</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E108" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E109" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -8985,13 +9073,13 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E110" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -9002,13 +9090,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E111" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -9016,16 +9104,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E112" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -9036,30 +9124,30 @@
         <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E113" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B114" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C114" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E114" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -9070,10 +9158,10 @@
         <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E115" t="s">
         <v>213</v>
@@ -9087,10 +9175,10 @@
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E116" t="s">
         <v>229</v>
@@ -9101,13 +9189,13 @@
         <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C117" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E117" t="s">
         <v>229</v>
@@ -9115,19 +9203,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E118" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -9138,13 +9226,13 @@
         <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E119" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9155,10 +9243,10 @@
         <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E120" t="s">
         <v>213</v>
@@ -9166,19 +9254,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B121" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C121" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E121" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9186,16 +9274,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E122" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9203,16 +9291,16 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E123" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -9220,16 +9308,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E124" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -9240,13 +9328,13 @@
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E125" t="s">
         <v>613</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E125" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9257,13 +9345,13 @@
         <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E126" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9274,13 +9362,13 @@
         <v>214</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E127" t="s">
         <v>613</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E127" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9288,13 +9376,13 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C128" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E128" t="s">
         <v>238</v>
@@ -9308,10 +9396,10 @@
         <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E129" t="s">
         <v>252</v>
@@ -9325,10 +9413,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E130" t="s">
         <v>252</v>
@@ -9342,30 +9430,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E131" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E132" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -9376,13 +9464,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E133" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9393,44 +9481,44 @@
         <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E134" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B135" t="s">
         <v>239</v>
       </c>
       <c r="C135" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E135" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B136" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C136" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E136" t="s">
         <v>256</v>
@@ -9444,10 +9532,10 @@
         <v>208</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E137" t="s">
         <v>256</v>
@@ -9461,13 +9549,13 @@
         <v>208</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E138" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -9478,13 +9566,13 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E139" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -9495,10 +9583,10 @@
         <v>248</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E140" t="s">
         <v>256</v>
@@ -9512,13 +9600,13 @@
         <v>253</v>
       </c>
       <c r="C141" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E141" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -9529,13 +9617,13 @@
         <v>253</v>
       </c>
       <c r="C142" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E142" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -9546,13 +9634,13 @@
         <v>253</v>
       </c>
       <c r="C143" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E143" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -9563,10 +9651,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E144" t="s">
         <v>256</v>
@@ -9574,36 +9662,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B145" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C145" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E145" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="B146" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C146" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E146" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -9614,13 +9702,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E147" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -9631,13 +9719,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E148" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -9648,13 +9736,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E149" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -9665,13 +9753,13 @@
         <v>208</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E150" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -9682,13 +9770,13 @@
         <v>278</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E151" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -9699,13 +9787,13 @@
         <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E152" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9716,13 +9804,13 @@
         <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E153" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9733,13 +9821,13 @@
         <v>231</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E154" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9750,10 +9838,10 @@
         <v>231</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E155" t="s">
         <v>275</v>
@@ -9767,10 +9855,10 @@
         <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E156" t="s">
         <v>275</v>
@@ -9784,10 +9872,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -9795,22 +9883,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E158" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F158" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9821,13 +9909,13 @@
         <v>239</v>
       </c>
       <c r="C159" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E159" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9838,13 +9926,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E160" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9855,30 +9943,30 @@
         <v>201</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E161" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E162" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9889,13 +9977,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E163" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9906,10 +9994,10 @@
         <v>319</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E164" t="s">
         <v>343</v>
@@ -9923,10 +10011,10 @@
         <v>312</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E165" t="s">
         <v>343</v>
@@ -9940,10 +10028,10 @@
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E166" t="s">
         <v>343</v>
@@ -9954,13 +10042,13 @@
         <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C167" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E167" t="s">
         <v>321</v>
@@ -9974,13 +10062,13 @@
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E168" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -9991,47 +10079,47 @@
         <v>316</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E169" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E170" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B171" t="s">
         <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E171" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -10042,13 +10130,13 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E172" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -10059,13 +10147,13 @@
         <v>312</v>
       </c>
       <c r="C173" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E173" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -10073,16 +10161,16 @@
         <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C174" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E174" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -10090,33 +10178,33 @@
         <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E175" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>673</v>
+        <v>397</v>
       </c>
       <c r="B176" t="s">
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E176" t="s">
         <v>674</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E176" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -10127,13 +10215,13 @@
         <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E177" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -10141,16 +10229,16 @@
         <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C178" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E178" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -10161,13 +10249,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E179" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -10175,16 +10263,16 @@
         <v>44</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E180" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -10195,30 +10283,30 @@
         <v>124</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E181" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E182" t="s">
         <v>683</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>684</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E182" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -10229,13 +10317,13 @@
         <v>352</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E183" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10246,33 +10334,33 @@
         <v>63</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E184" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F184" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E185" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10283,13 +10371,13 @@
         <v>231</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E186" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10300,13 +10388,13 @@
         <v>190</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="E187" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16050" windowHeight="8430"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="730">
   <si>
     <t>反馈时间</t>
   </si>
@@ -1232,6 +1232,102 @@
   </si>
   <si>
     <t>Ctrl+P查找时，没加与纯文件名匹配的权重</t>
+  </si>
+  <si>
+    <t>Win10下搜狗拼音还是无法跟随光标</t>
+  </si>
+  <si>
+    <t>替换操作之后，Navigate Back操作会依次退回到所有的替换操作处，是否故意这样设计的</t>
+  </si>
+  <si>
+    <t>调试核心会发生崩溃</t>
+  </si>
+  <si>
+    <t>2019.9.20</t>
+  </si>
+  <si>
+    <t>sky(396481960)</t>
+  </si>
+  <si>
+    <t>ToLua中自定义Loader报错如何处理需要列入文档</t>
+  </si>
+  <si>
+    <t>2019.9.21</t>
+  </si>
+  <si>
+    <t>竹子(510709385)</t>
+  </si>
+  <si>
+    <t>Lua脚本文件夹和Temp文件夹中都有Lua文件导致调试时无法正常定位到文件，交互需要优化，处理方法需列入文档</t>
+  </si>
+  <si>
+    <t>2019.9.22</t>
+  </si>
+  <si>
+    <t>904192625(904192625)</t>
+  </si>
+  <si>
+    <t>theme的使用方法文档中没有</t>
+  </si>
+  <si>
+    <t>2019.9.23</t>
+  </si>
+  <si>
+    <t>司马老师(248263121)</t>
+  </si>
+  <si>
+    <t>建议把自动更新的内测版开放给大家，每次下载更新包太麻烦了</t>
+  </si>
+  <si>
+    <t>越南文支持不好</t>
+  </si>
+  <si>
+    <t>希望能查看方法引用</t>
+  </si>
+  <si>
+    <t>输入}时希望能触发一下格式化</t>
+  </si>
+  <si>
+    <t>希望可以支持TODO标签列表</t>
+  </si>
+  <si>
+    <t>元表里的函数定义内的函数，局部变量不提示</t>
+  </si>
+  <si>
+    <t>需要给个配置，以便不捕获C#异常</t>
+  </si>
+  <si>
+    <t>希望树形视图能左右快捷键展开收缩</t>
+  </si>
+  <si>
+    <t>2019.9.24</t>
+  </si>
+  <si>
+    <t>游戏运行时更改了cs文件，刷新时会导致LP crash(Preferences-&gt;General-&gt;Script Changes Whole Playing)</t>
+  </si>
+  <si>
+    <t>2019.9.25</t>
+  </si>
+  <si>
+    <t>全局变量值的获取建议从lua_getfield()改成lua_rawget()</t>
+  </si>
+  <si>
+    <t>希望树形视图能支持字体大小调节</t>
+  </si>
+  <si>
+    <t>文件大小写不敏感，提示文件已存在</t>
+  </si>
+  <si>
+    <t>。浪子(402983305)</t>
+  </si>
+  <si>
+    <t>浮动面板可否支持多窗口</t>
+  </si>
+  <si>
+    <t>2019.9.28</t>
+  </si>
+  <si>
+    <t>输入完end的时候不会触发格式化</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -2129,10 +2225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2204,15 +2300,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2220,6 +2309,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2233,15 +2329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2274,13 +2361,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2289,14 +2369,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,10 +2399,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2342,19 +2438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,115 +2480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2504,7 +2510,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,13 +2552,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,11 +2632,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2560,17 +2662,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2592,30 +2697,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2628,8 +2709,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2641,10 +2737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2653,10 +2749,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2665,121 +2761,121 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3177,10 +3273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C223" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7069,7 +7165,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="2:4">
+    <row r="244" spans="1:4">
+      <c r="A244" s="7" t="s">
+        <v>395</v>
+      </c>
       <c r="B244" t="s">
         <v>322</v>
       </c>
@@ -7078,6 +7177,297 @@
       </c>
       <c r="D244" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B245" t="s">
+        <v>63</v>
+      </c>
+      <c r="C245" t="s">
+        <v>403</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B246" t="s">
+        <v>63</v>
+      </c>
+      <c r="C246" t="s">
+        <v>404</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B247" t="s">
+        <v>368</v>
+      </c>
+      <c r="C247" t="s">
+        <v>405</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B248" t="s">
+        <v>407</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B249" t="s">
+        <v>410</v>
+      </c>
+      <c r="C249" t="s">
+        <v>411</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B250" t="s">
+        <v>413</v>
+      </c>
+      <c r="C250" t="s">
+        <v>414</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B251" t="s">
+        <v>416</v>
+      </c>
+      <c r="C251" t="s">
+        <v>417</v>
+      </c>
+      <c r="D251" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B252" t="s">
+        <v>407</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B253" t="s">
+        <v>389</v>
+      </c>
+      <c r="C253" t="s">
+        <v>419</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B254" t="s">
+        <v>416</v>
+      </c>
+      <c r="C254" t="s">
+        <v>420</v>
+      </c>
+      <c r="D254" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B255" t="s">
+        <v>416</v>
+      </c>
+      <c r="C255" t="s">
+        <v>421</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B256" t="s">
+        <v>416</v>
+      </c>
+      <c r="C256" t="s">
+        <v>422</v>
+      </c>
+      <c r="D256" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B257" t="s">
+        <v>368</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B258" t="s">
+        <v>413</v>
+      </c>
+      <c r="C258" t="s">
+        <v>424</v>
+      </c>
+      <c r="D258" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259" t="s">
+        <v>63</v>
+      </c>
+      <c r="C259" t="s">
+        <v>426</v>
+      </c>
+      <c r="D259" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B260" t="s">
+        <v>63</v>
+      </c>
+      <c r="C260" t="s">
+        <v>428</v>
+      </c>
+      <c r="D260" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B261" t="s">
+        <v>63</v>
+      </c>
+      <c r="C261" t="s">
+        <v>424</v>
+      </c>
+      <c r="D261" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B262" t="s">
+        <v>63</v>
+      </c>
+      <c r="C262" t="s">
+        <v>429</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B263" t="s">
+        <v>332</v>
+      </c>
+      <c r="C263" t="s">
+        <v>430</v>
+      </c>
+      <c r="D263" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B264" t="s">
+        <v>431</v>
+      </c>
+      <c r="C264" t="s">
+        <v>432</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C265" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -7126,84 +7516,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -7211,16 +7601,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -7228,19 +7618,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -7251,10 +7641,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -7268,10 +7658,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -7285,10 +7675,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -7302,10 +7692,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -7319,13 +7709,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -7336,10 +7726,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7353,13 +7743,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7370,84 +7760,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="F20" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7458,16 +7848,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7478,16 +7868,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7498,161 +7888,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="C24" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="F24" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="F26" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E27" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E28" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E29" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="C31" t="s">
+        <v>495</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" t="s">
         <v>463</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -7663,10 +8053,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -7680,10 +8070,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -7697,10 +8087,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -7714,10 +8104,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -7725,36 +8115,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E36" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E37" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -7765,10 +8155,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -7776,16 +8166,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -7799,13 +8189,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E40" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -7816,13 +8206,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E41" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -7833,13 +8223,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E42" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -7850,13 +8240,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E43" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -7867,10 +8257,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -7884,13 +8274,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E45" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:6">
@@ -7901,16 +8291,16 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:5">
@@ -7921,13 +8311,13 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E47" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:5">
@@ -7938,10 +8328,10 @@
         <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E48" t="s">
         <v>127</v>
@@ -7949,142 +8339,142 @@
     </row>
     <row r="49" ht="14.25" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B49" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C49" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F49" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" ht="32" customHeight="1" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B50" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C50" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B51" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C51" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F51" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B52" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C52" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="F52" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="B53" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="C53" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="F53" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" ht="32" customHeight="1" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="B54" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C54" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E54" t="s">
         <v>62</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:6">
       <c r="A55" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E55" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="F55" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:6">
@@ -8095,16 +8485,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:6">
@@ -8115,16 +8505,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="1:6">
@@ -8135,16 +8525,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" ht="14.25" spans="1:6">
@@ -8155,16 +8545,16 @@
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E59" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="F59" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="1:6">
@@ -8175,16 +8565,16 @@
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E60" t="s">
         <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" ht="14.25" spans="1:6">
@@ -8195,96 +8585,96 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="1:6">
       <c r="A62" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B62" t="s">
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="F62" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="1:6">
       <c r="A63" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="s">
+        <v>552</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="E63" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="F63" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" ht="14.25" spans="1:6">
       <c r="A64" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
     </row>
     <row r="65" ht="14.25" spans="1:6">
       <c r="A65" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E65" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="F65" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" ht="14.25" spans="1:6">
@@ -8295,16 +8685,16 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E66" t="s">
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:6">
@@ -8315,16 +8705,16 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:6">
@@ -8335,47 +8725,47 @@
         <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:5">
       <c r="A69" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E69" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:5">
       <c r="A70" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E70" t="s">
         <v>62</v>
@@ -8383,16 +8773,16 @@
     </row>
     <row r="71" ht="14.25" spans="1:5">
       <c r="A71" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="B71" t="s">
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E71" t="s">
         <v>62</v>
@@ -8400,16 +8790,16 @@
     </row>
     <row r="72" ht="14.25" spans="1:5">
       <c r="A72" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C72" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E72" t="s">
         <v>62</v>
@@ -8417,39 +8807,39 @@
     </row>
     <row r="73" ht="14.25" spans="1:5">
       <c r="A73" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="B73" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C73" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E73" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:6">
       <c r="A74" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E74" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="F74" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:5">
@@ -8460,13 +8850,13 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E75" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:5">
@@ -8477,64 +8867,64 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="E76" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:6">
       <c r="A77" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="B77" t="s">
         <v>30</v>
       </c>
       <c r="C77" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E77" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="F77" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:5">
       <c r="A78" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="B78" t="s">
         <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E78" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:5">
       <c r="A79" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="B79" t="s">
         <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E79" t="s">
         <v>29</v>
@@ -8542,16 +8932,16 @@
     </row>
     <row r="80" ht="27" spans="1:5">
       <c r="A80" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="C80" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
@@ -8559,73 +8949,73 @@
     </row>
     <row r="81" ht="14.25" spans="1:5">
       <c r="A81" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="B81" t="s">
         <v>63</v>
       </c>
       <c r="C81" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E81" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:5">
       <c r="A82" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E82" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:5">
       <c r="A83" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E83" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:6">
       <c r="A84" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="B84" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="C84" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E84" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="F84" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:6">
@@ -8636,16 +9026,16 @@
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E85" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="F85" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:5">
@@ -8656,10 +9046,10 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E86" t="s">
         <v>73</v>
@@ -8667,22 +9057,22 @@
     </row>
     <row r="87" ht="14.25" spans="1:6">
       <c r="A87" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s">
         <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:6">
@@ -8693,16 +9083,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E88" t="s">
         <v>92</v>
       </c>
       <c r="F88" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:5">
@@ -8713,10 +9103,10 @@
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E89" t="s">
         <v>140</v>
@@ -8727,13 +9117,13 @@
         <v>44</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E90" t="s">
         <v>48</v>
@@ -8741,19 +9131,19 @@
     </row>
     <row r="91" ht="14.25" spans="1:5">
       <c r="A91" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E91" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:5">
@@ -8764,10 +9154,10 @@
         <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E92" t="s">
         <v>120</v>
@@ -8781,16 +9171,16 @@
         <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E93" t="s">
         <v>120</v>
       </c>
       <c r="F93" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:5">
@@ -8801,10 +9191,10 @@
         <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E94" t="s">
         <v>130</v>
@@ -8818,10 +9208,10 @@
         <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E95" t="s">
         <v>151</v>
@@ -8835,10 +9225,10 @@
         <v>104</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E96" t="s">
         <v>151</v>
@@ -8846,16 +9236,16 @@
     </row>
     <row r="97" ht="14.25" spans="1:5">
       <c r="A97" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="B97" t="s">
         <v>297</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E97" t="s">
         <v>151</v>
@@ -8869,10 +9259,10 @@
         <v>133</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E98" t="s">
         <v>151</v>
@@ -8883,16 +9273,16 @@
         <v>151</v>
       </c>
       <c r="B99" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E99" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:5">
@@ -8903,13 +9293,13 @@
         <v>99</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E100" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:5">
@@ -8920,10 +9310,10 @@
         <v>152</v>
       </c>
       <c r="C101" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E101" t="s">
         <v>154</v>
@@ -8937,10 +9327,10 @@
         <v>160</v>
       </c>
       <c r="C102" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E102" t="s">
         <v>159</v>
@@ -8954,10 +9344,10 @@
         <v>117</v>
       </c>
       <c r="C103" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E103" t="s">
         <v>163</v>
@@ -8971,10 +9361,10 @@
         <v>124</v>
       </c>
       <c r="C104" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
         <v>163</v>
@@ -8985,13 +9375,13 @@
         <v>48</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -9005,13 +9395,13 @@
         <v>80</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E106" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:5">
@@ -9022,13 +9412,13 @@
         <v>51</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E107" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:5">
@@ -9039,30 +9429,30 @@
         <v>144</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E108" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:5">
       <c r="A109" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E109" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:5">
@@ -9073,13 +9463,13 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E110" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:5">
@@ -9090,13 +9480,13 @@
         <v>42</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E111" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:5">
@@ -9104,16 +9494,16 @@
         <v>198</v>
       </c>
       <c r="B112" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E112" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:5">
@@ -9124,30 +9514,30 @@
         <v>190</v>
       </c>
       <c r="C113" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E113" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:5">
       <c r="A114" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="B114" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="C114" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E114" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -9158,10 +9548,10 @@
         <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E115" t="s">
         <v>213</v>
@@ -9175,10 +9565,10 @@
         <v>231</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E116" t="s">
         <v>229</v>
@@ -9189,13 +9579,13 @@
         <v>224</v>
       </c>
       <c r="B117" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="C117" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E117" t="s">
         <v>229</v>
@@ -9203,19 +9593,19 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="B118" t="s">
         <v>196</v>
       </c>
       <c r="C118" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E118" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -9226,13 +9616,13 @@
         <v>220</v>
       </c>
       <c r="C119" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E119" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9243,10 +9633,10 @@
         <v>214</v>
       </c>
       <c r="C120" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E120" t="s">
         <v>213</v>
@@ -9254,19 +9644,19 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="B121" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C121" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E121" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9274,16 +9664,16 @@
         <v>44</v>
       </c>
       <c r="B122" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E122" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -9291,16 +9681,16 @@
         <v>149</v>
       </c>
       <c r="B123" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E123" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -9308,16 +9698,16 @@
         <v>44</v>
       </c>
       <c r="B124" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E124" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -9328,13 +9718,13 @@
         <v>178</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E125" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -9345,13 +9735,13 @@
         <v>234</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E126" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -9362,13 +9752,13 @@
         <v>214</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E127" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -9376,13 +9766,13 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C128" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E128" t="s">
         <v>238</v>
@@ -9396,10 +9786,10 @@
         <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E129" t="s">
         <v>252</v>
@@ -9413,10 +9803,10 @@
         <v>45</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E130" t="s">
         <v>252</v>
@@ -9430,30 +9820,30 @@
         <v>11</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E131" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="B132" t="s">
         <v>59</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E132" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -9464,13 +9854,13 @@
         <v>30</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E133" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -9481,44 +9871,44 @@
         <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E134" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="B135" t="s">
         <v>239</v>
       </c>
       <c r="C135" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E135" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="B136" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="C136" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E136" t="s">
         <v>256</v>
@@ -9532,10 +9922,10 @@
         <v>208</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E137" t="s">
         <v>256</v>
@@ -9549,13 +9939,13 @@
         <v>208</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E138" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -9566,13 +9956,13 @@
         <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E139" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -9583,10 +9973,10 @@
         <v>248</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E140" t="s">
         <v>256</v>
@@ -9600,13 +9990,13 @@
         <v>253</v>
       </c>
       <c r="C141" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E141" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -9617,13 +10007,13 @@
         <v>253</v>
       </c>
       <c r="C142" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E142" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -9634,13 +10024,13 @@
         <v>253</v>
       </c>
       <c r="C143" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E143" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -9651,10 +10041,10 @@
         <v>64</v>
       </c>
       <c r="C144" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E144" t="s">
         <v>256</v>
@@ -9662,36 +10052,36 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="B145" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="C145" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="E145" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="B146" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="C146" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E146" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -9702,13 +10092,13 @@
         <v>42</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E147" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -9719,13 +10109,13 @@
         <v>80</v>
       </c>
       <c r="C148" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E148" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -9736,13 +10126,13 @@
         <v>80</v>
       </c>
       <c r="C149" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E149" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -9753,13 +10143,13 @@
         <v>208</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E150" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -9770,13 +10160,13 @@
         <v>278</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E151" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="152" ht="17.25" spans="1:5">
@@ -9787,13 +10177,13 @@
         <v>231</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E152" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -9804,13 +10194,13 @@
         <v>231</v>
       </c>
       <c r="C153" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E153" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -9821,13 +10211,13 @@
         <v>231</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E154" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -9838,10 +10228,10 @@
         <v>231</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E155" t="s">
         <v>275</v>
@@ -9855,10 +10245,10 @@
         <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E156" t="s">
         <v>275</v>
@@ -9872,10 +10262,10 @@
         <v>64</v>
       </c>
       <c r="C157" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -9883,22 +10273,22 @@
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E158" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="F158" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
     </row>
     <row r="159" customFormat="1" spans="1:5">
@@ -9909,13 +10299,13 @@
         <v>239</v>
       </c>
       <c r="C159" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E159" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -9926,13 +10316,13 @@
         <v>51</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E160" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -9943,30 +10333,30 @@
         <v>201</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E161" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E162" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -9977,13 +10367,13 @@
         <v>80</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E163" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -9994,10 +10384,10 @@
         <v>319</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E164" t="s">
         <v>343</v>
@@ -10011,10 +10401,10 @@
         <v>312</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E165" t="s">
         <v>343</v>
@@ -10028,10 +10418,10 @@
         <v>63</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E166" t="s">
         <v>343</v>
@@ -10042,13 +10432,13 @@
         <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="C167" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E167" t="s">
         <v>321</v>
@@ -10062,13 +10452,13 @@
         <v>63</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E168" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -10079,47 +10469,47 @@
         <v>316</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E169" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="B170" t="s">
         <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E170" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="B171" t="s">
         <v>201</v>
       </c>
       <c r="C171" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E171" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -10130,13 +10520,13 @@
         <v>63</v>
       </c>
       <c r="C172" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E172" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -10147,13 +10537,13 @@
         <v>312</v>
       </c>
       <c r="C173" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E173" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -10161,16 +10551,16 @@
         <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="C174" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E174" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -10178,16 +10568,16 @@
         <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E175" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -10198,13 +10588,13 @@
         <v>63</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E176" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -10215,13 +10605,13 @@
         <v>344</v>
       </c>
       <c r="C177" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E177" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -10229,16 +10619,16 @@
         <v>362</v>
       </c>
       <c r="B178" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C178" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E178" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -10249,13 +10639,13 @@
         <v>99</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E179" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -10263,16 +10653,16 @@
         <v>44</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E180" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -10283,30 +10673,30 @@
         <v>124</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E181" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="7" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E182" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -10317,13 +10707,13 @@
         <v>352</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E183" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -10334,33 +10724,33 @@
         <v>63</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E184" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="F184" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="7" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E185" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10371,13 +10761,13 @@
         <v>231</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E186" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10388,13 +10778,13 @@
         <v>190</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="E187" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LuaPerfectUserFeedbacks.xlsx
+++ b/Docs/LuaPerfectUserFeedbacks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="重要反馈" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="822">
   <si>
     <t>反馈时间</t>
   </si>
@@ -1328,6 +1328,282 @@
   </si>
   <si>
     <t>输入完end的时候不会触发格式化</t>
+  </si>
+  <si>
+    <t>2019.10.6</t>
+  </si>
+  <si>
+    <t>LuaPerfect不够Sublime流畅</t>
+  </si>
+  <si>
+    <t>2019.10.8</t>
+  </si>
+  <si>
+    <t>爆炸头、</t>
+  </si>
+  <si>
+    <t>LuaPerfect能否支持鼠标悬停的时候看到注释的内容</t>
+  </si>
+  <si>
+    <t>2019.10.10</t>
+  </si>
+  <si>
+    <t>小宇宙</t>
+  </si>
+  <si>
+    <t>LuaPerfect能否支持查找引用</t>
+  </si>
+  <si>
+    <t>跳转操作经常要使用两次才能跳转到正确位置，先跳一次，返回，再跳一次才可以（代码编辑窗口上下分屏导致的）</t>
+  </si>
+  <si>
+    <t>2019.10.11</t>
+  </si>
+  <si>
+    <t>Lemans</t>
+  </si>
+  <si>
+    <t>Plugins目录不在Assets根目录下时提示Unity project is not a xlua project，可否优化下</t>
+  </si>
+  <si>
+    <t>2019.10.12</t>
+  </si>
+  <si>
+    <t>旧 人</t>
+  </si>
+  <si>
+    <t>没有Cocos-lua的接入演示/说明</t>
+  </si>
+  <si>
+    <t>斯芯</t>
+  </si>
+  <si>
+    <t>2019.10.15</t>
+  </si>
+  <si>
+    <t>教主</t>
+  </si>
+  <si>
+    <t>希望LuaPerfect可以换皮肤(整体配色)</t>
+  </si>
+  <si>
+    <t>LuaPerfect被360查杀</t>
+  </si>
+  <si>
+    <t>2019.10.18</t>
+  </si>
+  <si>
+    <t>我本無心向明月</t>
+  </si>
+  <si>
+    <t>需要增加ToLua.cs的Loader()的文档</t>
+  </si>
+  <si>
+    <t>建议多行注释可以折叠</t>
+  </si>
+  <si>
+    <t>2019.10.22</t>
+  </si>
+  <si>
+    <t>404 Not Found</t>
+  </si>
+  <si>
+    <t>Unity直接打开LuaPerfect功能已封装，测试并在群里发布</t>
+  </si>
+  <si>
+    <t>2019.10.23</t>
+  </si>
+  <si>
+    <t>广州射手</t>
+  </si>
+  <si>
+    <t>LuaDebuggee.dll会崩溃</t>
+  </si>
+  <si>
+    <t>Pathfinder</t>
+  </si>
+  <si>
+    <t>LuaPerfect支持unlua</t>
+  </si>
+  <si>
+    <t>2019.10.24</t>
+  </si>
+  <si>
+    <t>171671924(171671924)</t>
+  </si>
+  <si>
+    <t>完全用不来，普通lua怎么用</t>
+  </si>
+  <si>
+    <t>如何汉化</t>
+  </si>
+  <si>
+    <t>不人性化</t>
+  </si>
+  <si>
+    <t>客户端永远有改不完的bug</t>
+  </si>
+  <si>
+    <t>界面太彩了，建议直接用R7的Theme作为默认Theme</t>
+  </si>
+  <si>
+    <t>2019.10.25</t>
+  </si>
+  <si>
+    <t>data文件夹300+m，打开直接崩溃</t>
+  </si>
+  <si>
+    <t>布丁</t>
+  </si>
+  <si>
+    <t>帮助里的视频没有声音</t>
+  </si>
+  <si>
+    <t>require()中如何补全路径</t>
+  </si>
+  <si>
+    <t>2019.10.30</t>
+  </si>
+  <si>
+    <t>『晓航』(447449468)</t>
+  </si>
+  <si>
+    <t>希望有mac版</t>
+  </si>
+  <si>
+    <t>2019.11.04</t>
+  </si>
+  <si>
+    <t>哦哈哈</t>
+  </si>
+  <si>
+    <t>搜索项目中的代码的时候能有办法忽略.lpproj/Apis目录吗?（比如弄个CheckBox?）</t>
+  </si>
+  <si>
+    <t>2019.11.06</t>
+  </si>
+  <si>
+    <t>知足</t>
+  </si>
+  <si>
+    <t>可以设置行距吗</t>
+  </si>
+  <si>
+    <t>希望能区分一下LP内部崩溃和LP调用的C#代码崩溃</t>
+  </si>
+  <si>
+    <t>2019.11.07</t>
+  </si>
+  <si>
+    <t>代码折叠之后Ctrl+z容易出现代码紊乱(4.gif)</t>
+  </si>
+  <si>
+    <t>写好一个function折叠后，在下面别的地方写代码，ctrlz一下，上面这个就展开了(5.gif)</t>
+  </si>
+  <si>
+    <t>2019.11.11</t>
+  </si>
+  <si>
+    <t>改用64位的LP后，一直崩</t>
+  </si>
+  <si>
+    <t>2019.11.14</t>
+  </si>
+  <si>
+    <t>LP在代码提示时经常卡死</t>
+  </si>
+  <si>
+    <t>耀一生有你</t>
+  </si>
+  <si>
+    <t>希望可以在搜索结果界面里使用Ctrl+F查找</t>
+  </si>
+  <si>
+    <t>希望能有中文界面</t>
+  </si>
+  <si>
+    <t>Mippo</t>
+  </si>
+  <si>
+    <t>Unity提示minVolume is not supported anymore.(属性反射时要跳过AudioSource的minVolume,maxVolume,rolloffFactor)</t>
+  </si>
+  <si>
+    <t>文件页签的右键菜单加一个Show in side bar之类的菜单，能快速手动在project中定位该文件</t>
+  </si>
+  <si>
+    <t>鼠标中键关闭文件的功能很重要</t>
+  </si>
+  <si>
+    <t>希望能支持cls = {a = xx, b = yy}的写法</t>
+  </si>
+  <si>
+    <t>懂得.....</t>
+  </si>
+  <si>
+    <t>希望能有内存应用之类的profile，用于分析内存泄漏</t>
+  </si>
+  <si>
+    <t>现在LP稍微写错一点都会卡死</t>
+  </si>
+  <si>
+    <t>HHH</t>
+  </si>
+  <si>
+    <t>Cocos-2dx怎么调试，有没有指引</t>
+  </si>
+  <si>
+    <t>有没有一种方式能快速切换/启用/禁用文件夹是否在调试中被查找</t>
+  </si>
+  <si>
+    <t>2019.11.15</t>
+  </si>
+  <si>
+    <t>啊keai</t>
+  </si>
+  <si>
+    <t>能否为Left, Right, Up, Down配置快捷键</t>
+  </si>
+  <si>
+    <t>陈玉杰</t>
+  </si>
+  <si>
+    <t>菜单栏可以转汉字吗</t>
+  </si>
+  <si>
+    <t>本地化工作最好做成可配置</t>
+  </si>
+  <si>
+    <t>配置改了要生效需要重启的没有说明</t>
+  </si>
+  <si>
+    <t>2019.11.6</t>
+  </si>
+  <si>
+    <t>shannon</t>
+  </si>
+  <si>
+    <t>希望LuaPerfect可以支持自动保存，比如切换时自动保存或者定时自动保存</t>
+  </si>
+  <si>
+    <t>2019.10.28</t>
+  </si>
+  <si>
+    <t>zhenle</t>
+  </si>
+  <si>
+    <t>LuaPerfect不停导致Unity崩溃</t>
+  </si>
+  <si>
+    <t>2019.11.7</t>
+  </si>
+  <si>
+    <t>希望能直接查看metatable</t>
+  </si>
+  <si>
+    <t>希望对于x.y的情况能通过metatable获取元素的值</t>
+  </si>
+  <si>
+    <t>提供一种方法能区分一下LP内部崩溃和LP调用的C#代码崩溃</t>
   </si>
   <si>
     <t>2019.1.3</t>
@@ -2225,10 +2501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2292,6 +2568,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2299,9 +2576,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2309,21 +2600,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2338,9 +2614,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2361,39 +2637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2408,7 +2652,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2428,6 +2672,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2438,7 +2714,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2450,175 +2894,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,17 +2908,61 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2662,11 +2982,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2679,56 +3005,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2737,10 +3013,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2749,16 +3025,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2767,115 +3043,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3273,10 +3549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="C318" sqref="C318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7459,7 +7735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265" s="7" t="s">
         <v>433</v>
       </c>
@@ -7468,6 +7744,709 @@
       </c>
       <c r="C265" t="s">
         <v>434</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B266" t="s">
+        <v>368</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D266" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>437</v>
+      </c>
+      <c r="B267" t="s">
+        <v>438</v>
+      </c>
+      <c r="C267" t="s">
+        <v>439</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>440</v>
+      </c>
+      <c r="B268" t="s">
+        <v>441</v>
+      </c>
+      <c r="C268" t="s">
+        <v>442</v>
+      </c>
+      <c r="D268" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>440</v>
+      </c>
+      <c r="B269" t="s">
+        <v>413</v>
+      </c>
+      <c r="C269" t="s">
+        <v>443</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>444</v>
+      </c>
+      <c r="B270" t="s">
+        <v>445</v>
+      </c>
+      <c r="C270" t="s">
+        <v>446</v>
+      </c>
+      <c r="D270" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>447</v>
+      </c>
+      <c r="B271" t="s">
+        <v>448</v>
+      </c>
+      <c r="C271" t="s">
+        <v>449</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>447</v>
+      </c>
+      <c r="B272" t="s">
+        <v>450</v>
+      </c>
+      <c r="C272" t="s">
+        <v>442</v>
+      </c>
+      <c r="D272" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>451</v>
+      </c>
+      <c r="B273" t="s">
+        <v>452</v>
+      </c>
+      <c r="C273" t="s">
+        <v>453</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>451</v>
+      </c>
+      <c r="B274" t="s">
+        <v>312</v>
+      </c>
+      <c r="C274" t="s">
+        <v>454</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>455</v>
+      </c>
+      <c r="B275" t="s">
+        <v>456</v>
+      </c>
+      <c r="C275" t="s">
+        <v>457</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>455</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C276" t="s">
+        <v>458</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>459</v>
+      </c>
+      <c r="B277" t="s">
+        <v>460</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>462</v>
+      </c>
+      <c r="B278" t="s">
+        <v>463</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>462</v>
+      </c>
+      <c r="B279" t="s">
+        <v>465</v>
+      </c>
+      <c r="C279" t="s">
+        <v>466</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>467</v>
+      </c>
+      <c r="B280" t="s">
+        <v>468</v>
+      </c>
+      <c r="C280" t="s">
+        <v>469</v>
+      </c>
+      <c r="D280" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>467</v>
+      </c>
+      <c r="B281" t="s">
+        <v>468</v>
+      </c>
+      <c r="C281" t="s">
+        <v>470</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>467</v>
+      </c>
+      <c r="B282" t="s">
+        <v>468</v>
+      </c>
+      <c r="C282" t="s">
+        <v>471</v>
+      </c>
+      <c r="D282" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>467</v>
+      </c>
+      <c r="B283" t="s">
+        <v>472</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>474</v>
+      </c>
+      <c r="B284" t="s">
+        <v>472</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>474</v>
+      </c>
+      <c r="B285" t="s">
+        <v>476</v>
+      </c>
+      <c r="C285" t="s">
+        <v>477</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>474</v>
+      </c>
+      <c r="B286" t="s">
+        <v>476</v>
+      </c>
+      <c r="C286" t="s">
+        <v>478</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>479</v>
+      </c>
+      <c r="B287" t="s">
+        <v>480</v>
+      </c>
+      <c r="C287" t="s">
+        <v>481</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>482</v>
+      </c>
+      <c r="B288" t="s">
+        <v>483</v>
+      </c>
+      <c r="C288" t="s">
+        <v>484</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>485</v>
+      </c>
+      <c r="B289" t="s">
+        <v>486</v>
+      </c>
+      <c r="C289" t="s">
+        <v>487</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>485</v>
+      </c>
+      <c r="B290" t="s">
+        <v>486</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>485</v>
+      </c>
+      <c r="B291" t="s">
+        <v>486</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>489</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C292" t="s">
+        <v>490</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>489</v>
+      </c>
+      <c r="B293" t="s">
+        <v>483</v>
+      </c>
+      <c r="C293" t="s">
+        <v>491</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>492</v>
+      </c>
+      <c r="B294" t="s">
+        <v>486</v>
+      </c>
+      <c r="C294" t="s">
+        <v>493</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>492</v>
+      </c>
+      <c r="B295" t="s">
+        <v>292</v>
+      </c>
+      <c r="C295" t="s">
+        <v>60</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>494</v>
+      </c>
+      <c r="B296" t="s">
+        <v>292</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>494</v>
+      </c>
+      <c r="B297" t="s">
+        <v>496</v>
+      </c>
+      <c r="C297" t="s">
+        <v>497</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>494</v>
+      </c>
+      <c r="B298" t="s">
+        <v>472</v>
+      </c>
+      <c r="C298" t="s">
+        <v>498</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>494</v>
+      </c>
+      <c r="B299" t="s">
+        <v>499</v>
+      </c>
+      <c r="C299" t="s">
+        <v>500</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>494</v>
+      </c>
+      <c r="B300" t="s">
+        <v>499</v>
+      </c>
+      <c r="C300" t="s">
+        <v>501</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>494</v>
+      </c>
+      <c r="B301" t="s">
+        <v>339</v>
+      </c>
+      <c r="C301" t="s">
+        <v>502</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>494</v>
+      </c>
+      <c r="B302" t="s">
+        <v>499</v>
+      </c>
+      <c r="C302" t="s">
+        <v>503</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>494</v>
+      </c>
+      <c r="B303" t="s">
+        <v>504</v>
+      </c>
+      <c r="C303" t="s">
+        <v>505</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>494</v>
+      </c>
+      <c r="B304" t="s">
+        <v>312</v>
+      </c>
+      <c r="C304" t="s">
+        <v>506</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>494</v>
+      </c>
+      <c r="B305" t="s">
+        <v>507</v>
+      </c>
+      <c r="C305" t="s">
+        <v>508</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>494</v>
+      </c>
+      <c r="B306" t="s">
+        <v>507</v>
+      </c>
+      <c r="C306" t="s">
+        <v>509</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>510</v>
+      </c>
+      <c r="B307" t="s">
+        <v>511</v>
+      </c>
+      <c r="C307" t="s">
+        <v>512</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>510</v>
+      </c>
+      <c r="B308" t="s">
+        <v>513</v>
+      </c>
+      <c r="C308" t="s">
+        <v>514</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>510</v>
+      </c>
+      <c r="B309" t="s">
+        <v>299</v>
+      </c>
+      <c r="C309" t="s">
+        <v>515</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>510</v>
+      </c>
+      <c r="B310" t="s">
+        <v>513</v>
+      </c>
+      <c r="C310" t="s">
+        <v>516</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>517</v>
+      </c>
+      <c r="B311" t="s">
+        <v>518</v>
+      </c>
+      <c r="C311" t="s">
+        <v>519</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>520</v>
+      </c>
+      <c r="B312" t="s">
+        <v>521</v>
+      </c>
+      <c r="C312" t="s">
+        <v>522</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>523</v>
+      </c>
+      <c r="B313" t="s">
+        <v>214</v>
+      </c>
+      <c r="C313" t="s">
+        <v>524</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>523</v>
+      </c>
+      <c r="B314" t="s">
+        <v>214</v>
+      </c>
+      <c r="C314" t="s">
+        <v>525</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>523</v>
+      </c>
+      <c r="B315" t="s">
+        <v>214</v>
+      </c>
+      <c r="C315" t="s">
+        <v>526</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7481,8 +8460,8 @@
   <sheetPr/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7516,84 +8495,84 @@
     </row>
     <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>532</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>533</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -7601,16 +8580,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>534</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -7618,19 +8597,19 @@
     </row>
     <row r="8" ht="14.25" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:5">
@@ -7641,10 +8620,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>73</v>
@@ -7658,10 +8637,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>443</v>
+        <v>535</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>73</v>
@@ -7675,10 +8654,10 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>540</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>140</v>
@@ -7692,10 +8671,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>541</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>62</v>
@@ -7709,13 +8688,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>542</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>451</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:5">
@@ -7726,10 +8705,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>544</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>62</v>
@@ -7743,13 +8722,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>545</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>454</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:5">
@@ -7760,84 +8739,84 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>455</v>
+        <v>547</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>456</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>550</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>459</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" t="s">
-        <v>460</v>
+        <v>552</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>461</v>
+        <v>553</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>462</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:5">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>555</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>556</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>557</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>466</v>
+        <v>558</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>445</v>
+        <v>537</v>
       </c>
       <c r="F20" t="s">
-        <v>467</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:6">
@@ -7848,16 +8827,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:6">
@@ -7868,16 +8847,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>470</v>
+        <v>562</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>471</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:6">
@@ -7888,161 +8867,161 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>472</v>
+        <v>564</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>473</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:6">
       <c r="A24" s="6" t="s">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>475</v>
+        <v>567</v>
       </c>
       <c r="C24" t="s">
-        <v>476</v>
+        <v>568</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>477</v>
+        <v>569</v>
       </c>
       <c r="F24" t="s">
-        <v>478</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>572</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>481</v>
+        <v>573</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>482</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:6">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>483</v>
+        <v>575</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
+        <v>571</v>
       </c>
       <c r="F26" t="s">
-        <v>484</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:5">
       <c r="A27" t="s">
-        <v>485</v>
+        <v>577</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>486</v>
+        <v>578</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E27" t="s">
-        <v>487</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>490</v>
+        <v>582</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E29" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
       <c r="A30" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="B30" t="s">
         <v>178</v>
       </c>
       <c r="C30" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E30" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="B31" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="C31" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E31" t="s">
-        <v>463</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -8053,10 +9032,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E32" t="s">
         <v>73</v>
@@ -8070,10 +9049,10 @@
         <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>497</v>
+        <v>589</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -8087,10 +9066,10 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>590</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E34" t="s">
         <v>73</v>
@@ -8104,10 +9083,10 @@
         <v>77</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E35" t="s">
         <v>73</v>
@@ -8115,36 +9094,36 @@
     </row>
     <row r="36" ht="27" spans="1:5">
       <c r="A36" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>500</v>
+        <v>592</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E36" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:5">
       <c r="A37" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>501</v>
+        <v>593</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E37" t="s">
-        <v>499</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:5">
@@ -8155,10 +9134,10 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>502</v>
+        <v>594</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
@@ -8166,16 +9145,16 @@
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" t="s">
-        <v>503</v>
+        <v>595</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>504</v>
+        <v>596</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -8189,13 +9168,13 @@
         <v>77</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>505</v>
+        <v>597</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E40" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:5">
@@ -8206,13 +9185,13 @@
         <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>506</v>
+        <v>598</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E41" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:5">
@@ -8223,13 +9202,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>508</v>
+        <v>600</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E42" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:5">
@@ -8240,13 +9219,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>509</v>
+        <v>601</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E43" t="s">
-        <v>507</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:5">
@@ -8257,10 +9236,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>510</v>
+        <v>602</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="E44" t="s">
         <v>92</v>
@@ -8274,13 +9253,13 @@
         <v>96</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>511</v>
+        <v>603</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>437</v>
+        <v>529</v>
